--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Mexico\Models\eps-1.4.1-mexico-wipB\InputData\trans\SYVbT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olea/FerOlea/0.Chamba 2018/2018.WRI-EPS2/0.Documentos trabajo modelo/eps-1.4.1-mexico_TALLER/Updates/Transport/SYVbT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3E9D2B-B1A4-D14C-8398-1292A03A114E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="465" windowWidth="19425" windowHeight="11025" activeTab="1"/>
+    <workbookView xWindow="9360" yWindow="460" windowWidth="24240" windowHeight="18640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Mexico-Christopher" sheetId="19" r:id="rId2"/>
     <sheet name="Aircraft" sheetId="16" r:id="rId3"/>
     <sheet name="Rail" sheetId="17" r:id="rId4"/>
-    <sheet name="Ships" sheetId="18" r:id="rId5"/>
-    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId6"/>
-    <sheet name="SYVbT-freight" sheetId="4" r:id="rId7"/>
+    <sheet name="Rail Pssgr" sheetId="20" r:id="rId5"/>
+    <sheet name="Ships" sheetId="18" r:id="rId6"/>
+    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId7"/>
+    <sheet name="SYVbT-freight" sheetId="4" r:id="rId8"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="cpi_2010to2012">[1]About!#REF!</definedName>
@@ -36,12 +38,12 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="179021" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="193">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -411,11 +413,361 @@
   <si>
     <t>OLD TABLE (less detail)</t>
   </si>
+  <si>
+    <t>CDMX Metro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDMX Tren ligero </t>
+  </si>
+  <si>
+    <t>Principales características del sistema de transporte colectivo metro de la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Principales características de los sistemas de transportes eléctricos en la Ciudad de México</t>
+  </si>
+  <si>
+    <t>Periodo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Longitud en servicio (km) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trenes en servicio </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>Kilómetros recorridos</t>
+  </si>
+  <si>
+    <t>Pasajeros transportados</t>
+  </si>
+  <si>
+    <t>Energía eléctrica consumida</t>
+  </si>
+  <si>
+    <t>Tren ligero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(Miles de kilómetros) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Miles de pasajeros) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>(Miles de KWH)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> e</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Longitud en servicio (km) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Unidades en operación </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>Ingresos por pasaje</t>
+  </si>
+  <si>
+    <t>(Miles de Kilómetros)</t>
+  </si>
+  <si>
+    <t>(Miles de pasajeros)</t>
+  </si>
+  <si>
+    <t>(Miles de pesos)</t>
+  </si>
+  <si>
+    <t>Enero</t>
+  </si>
+  <si>
+    <t>Febrero</t>
+  </si>
+  <si>
+    <t>Marzo</t>
+  </si>
+  <si>
+    <t>Abril</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Junio</t>
+  </si>
+  <si>
+    <t>Julio</t>
+  </si>
+  <si>
+    <t>Agosto</t>
+  </si>
+  <si>
+    <t>Septiembre</t>
+  </si>
+  <si>
+    <t>Octubre</t>
+  </si>
+  <si>
+    <t>Noviembre</t>
+  </si>
+  <si>
+    <t>Diciembre</t>
+  </si>
+  <si>
+    <t>Nota:</t>
+  </si>
+  <si>
+    <t>A partir del 29 de noviembre de 2015, se regularizó el servicio de la línea 12.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Dato no acumulable.</t>
+  </si>
+  <si>
+    <t>La información de pasajeros transportados e ingresos por pasaje se encuentra en proceso de verificación de ventas de tarjetas, total de pasajeros y recargas.</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Cifra relativa al número de trenes en operación en día laborable y horario de máxima demanda.</t>
+  </si>
+  <si>
+    <t>Del 5 de abril y hasta el 30 de junio los sistemas de transporte de pasajeros de Trolebús, Tren Ligero y la Red de Transporte de Pasajeros (RTP), realizarán el servicio de transporte de pasajeros de manera gratiuta, lo anterior como parte de las medidas que se han tomado para reducir los niveles de contaminación en la Ciudad.</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Promedio diario de kilómetros recorridos</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Promedio diario de pasajeros transportados. Incluye a los pasajeros con boleto pagado y usuarios de acceso gratuito (personas de la tercera edad, Discapacitados, menores de 5 años y derechohabientes del Sistema de Transporte Colectivo, principalmente).</t>
+  </si>
+  <si>
+    <t>El dato anual se refiere al promedio mensual.</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Cifras estimadas para tracción, alumbrado y fuerza, por parte de la Coodinación de Control y Operaciones Eléctricas del SCT.</t>
+  </si>
+  <si>
+    <t>Fecha de actualización: Miércoles, 20 de Junio de 2018</t>
+  </si>
+  <si>
+    <t>Guadalajara Tren eléctrico</t>
+  </si>
+  <si>
+    <t>Monterrey Sistema de transporte colectivo (metro)</t>
+  </si>
+  <si>
+    <t>Principales características de los sistemas de transportes eléctricos en la Ciudad de Guadalajara</t>
+  </si>
+  <si>
+    <t>Principales características del sistema de transporte colectivo metrorrey</t>
+  </si>
+  <si>
+    <t>Tren eléctrico</t>
+  </si>
+  <si>
+    <t>Longitud en servicio</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trenes en servicio </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>Energia eléctrica consumida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(km) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <t>(Miles de kilómetros)</t>
+  </si>
+  <si>
+    <r>
+      <t>(Miles de KWH)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b</t>
+    </r>
+  </si>
+  <si>
+    <t>Datos estimados por la fuente informante.</t>
+  </si>
+  <si>
+    <t>Mexico Subway</t>
+  </si>
+  <si>
+    <t>INEGI</t>
+  </si>
+  <si>
+    <t>Transporte Urbano de Pasajeros</t>
+  </si>
+  <si>
+    <t>http://www.beta.inegi.org.mx/proyectos/registros/economicas/transporteurbano/</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Number of units</t>
+  </si>
+  <si>
+    <t>CDMX Tren ligero</t>
+  </si>
+  <si>
+    <t>GDL Tren eléctrico</t>
+  </si>
+  <si>
+    <t>MTY Metro</t>
+  </si>
+  <si>
+    <t>http://www.metro.cdmx.gob.mx/operacion/cifras-de-operación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -425,7 +777,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="62">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,8 +1133,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="39">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -986,8 +1394,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1274,6 +1700,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1485,7 +1924,7 @@
     <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1612,6 +2051,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1624,158 +2096,189 @@
     <xf numFmtId="0" fontId="39" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="61" fillId="41" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="56" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="144">
-    <cellStyle name="20% - Accent1 2" xfId="15"/>
-    <cellStyle name="20% - Accent2 2" xfId="16"/>
-    <cellStyle name="20% - Accent3 2" xfId="17"/>
-    <cellStyle name="20% - Accent4 2" xfId="18"/>
-    <cellStyle name="20% - Accent5 2" xfId="19"/>
-    <cellStyle name="20% - Accent6 2" xfId="20"/>
-    <cellStyle name="40% - Accent1 2" xfId="21"/>
-    <cellStyle name="40% - Accent2 2" xfId="22"/>
-    <cellStyle name="40% - Accent3 2" xfId="23"/>
-    <cellStyle name="40% - Accent4 2" xfId="24"/>
-    <cellStyle name="40% - Accent5 2" xfId="25"/>
-    <cellStyle name="40% - Accent6 2" xfId="26"/>
-    <cellStyle name="60% - Accent1 2" xfId="27"/>
-    <cellStyle name="60% - Accent2 2" xfId="28"/>
-    <cellStyle name="60% - Accent3 2" xfId="29"/>
-    <cellStyle name="60% - Accent4 2" xfId="30"/>
-    <cellStyle name="60% - Accent5 2" xfId="31"/>
-    <cellStyle name="60% - Accent6 2" xfId="32"/>
-    <cellStyle name="Accent1 2" xfId="33"/>
-    <cellStyle name="Accent2 2" xfId="34"/>
-    <cellStyle name="Accent3 2" xfId="35"/>
-    <cellStyle name="Accent4 2" xfId="36"/>
-    <cellStyle name="Accent5 2" xfId="37"/>
-    <cellStyle name="Accent6 2" xfId="38"/>
-    <cellStyle name="Bad 2" xfId="39"/>
-    <cellStyle name="Body: normal cell" xfId="4"/>
-    <cellStyle name="Calculation 2" xfId="40"/>
-    <cellStyle name="Check Cell 2" xfId="41"/>
+    <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="25" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="26" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="33" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="34" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="35" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="37" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calculation 2" xfId="40" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Check Cell 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
     <cellStyle name="Comma" xfId="140" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="42"/>
-    <cellStyle name="Comma 2 2" xfId="11"/>
-    <cellStyle name="Comma 2 2 2" xfId="43"/>
-    <cellStyle name="Comma 2 2 3" xfId="44"/>
-    <cellStyle name="Comma 2 3" xfId="45"/>
-    <cellStyle name="Comma 3" xfId="46"/>
-    <cellStyle name="Comma 4" xfId="47"/>
-    <cellStyle name="Comma 5" xfId="48"/>
-    <cellStyle name="Comma 6" xfId="49"/>
-    <cellStyle name="Comma 7" xfId="50"/>
-    <cellStyle name="Currency 2" xfId="51"/>
-    <cellStyle name="Currency 3" xfId="52"/>
-    <cellStyle name="Currency 3 2" xfId="53"/>
-    <cellStyle name="Data" xfId="54"/>
-    <cellStyle name="Data no deci" xfId="55"/>
-    <cellStyle name="Data Superscript" xfId="56"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="57"/>
-    <cellStyle name="Explanatory Text 2" xfId="58"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
-    <cellStyle name="Footnotes: top row" xfId="2"/>
-    <cellStyle name="Good 2" xfId="59"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
-    <cellStyle name="Heading 1 2" xfId="60"/>
-    <cellStyle name="Heading 2 2" xfId="61"/>
-    <cellStyle name="Heading 3 2" xfId="62"/>
-    <cellStyle name="Heading 4 2" xfId="63"/>
-    <cellStyle name="Hed Side" xfId="13"/>
-    <cellStyle name="Hed Side bold" xfId="64"/>
-    <cellStyle name="Hed Side Indent" xfId="65"/>
-    <cellStyle name="Hed Side Regular" xfId="66"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="67"/>
-    <cellStyle name="Hed Top" xfId="68"/>
+    <cellStyle name="Comma 2" xfId="42" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Comma 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="44" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 2 3" xfId="45" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 3" xfId="46" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 4" xfId="47" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 5" xfId="48" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 6" xfId="49" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 7" xfId="50" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Currency 2" xfId="51" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 3" xfId="52" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Data" xfId="54" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data no deci" xfId="55" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data Superscript" xfId="56" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="57" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Good 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Heading 1 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Heading 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Heading 3 2" xfId="62" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Heading 4 2" xfId="63" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Hed Side" xfId="13" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Hed Side bold" xfId="64" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="65" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="66" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Top" xfId="68" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
     <cellStyle name="Input" xfId="143" builtinId="20"/>
-    <cellStyle name="Input 2" xfId="69"/>
-    <cellStyle name="Linked Cell 2" xfId="70"/>
+    <cellStyle name="Input 2" xfId="69" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
     <cellStyle name="Neutral" xfId="142" builtinId="28"/>
-    <cellStyle name="Neutral 2" xfId="71"/>
+    <cellStyle name="Neutral 2" xfId="71" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="72"/>
-    <cellStyle name="Normal 11" xfId="10"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 2 2" xfId="73"/>
-    <cellStyle name="Normal 2 2 2" xfId="74"/>
-    <cellStyle name="Normal 2 2 3" xfId="75"/>
-    <cellStyle name="Normal 2 3" xfId="76"/>
-    <cellStyle name="Normal 2 4" xfId="77"/>
-    <cellStyle name="Normal 3" xfId="8"/>
-    <cellStyle name="Normal 3 2" xfId="78"/>
-    <cellStyle name="Normal 3 2 2" xfId="79"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 3" xfId="81"/>
-    <cellStyle name="Normal 3 3" xfId="82"/>
-    <cellStyle name="Normal 3 3 2" xfId="83"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="84"/>
-    <cellStyle name="Normal 3 3 3" xfId="85"/>
-    <cellStyle name="Normal 3 4" xfId="86"/>
-    <cellStyle name="Normal 3 4 2" xfId="87"/>
-    <cellStyle name="Normal 3 5" xfId="88"/>
-    <cellStyle name="Normal 3 6" xfId="89"/>
-    <cellStyle name="Normal 3 7" xfId="90"/>
-    <cellStyle name="Normal 3 8" xfId="91"/>
-    <cellStyle name="Normal 3 9" xfId="12"/>
-    <cellStyle name="Normal 4" xfId="92"/>
-    <cellStyle name="Normal 4 2" xfId="93"/>
-    <cellStyle name="Normal 4 2 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 3" xfId="96"/>
-    <cellStyle name="Normal 4 3" xfId="97"/>
-    <cellStyle name="Normal 4 3 2" xfId="98"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 3" xfId="100"/>
-    <cellStyle name="Normal 4 4" xfId="101"/>
-    <cellStyle name="Normal 4 4 2" xfId="102"/>
-    <cellStyle name="Normal 4 5" xfId="103"/>
-    <cellStyle name="Normal 4 6" xfId="104"/>
-    <cellStyle name="Normal 4 7" xfId="105"/>
-    <cellStyle name="Normal 4 8" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 8" xfId="113"/>
-    <cellStyle name="Normal 9" xfId="114"/>
-    <cellStyle name="Note 2" xfId="115"/>
-    <cellStyle name="Note 2 2" xfId="116"/>
-    <cellStyle name="Output 2" xfId="117"/>
-    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="72" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Normal 11" xfId="10" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Normal 2 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Normal 2 3" xfId="76" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Normal 2 4" xfId="77" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 3" xfId="8" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 3 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="79" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="80" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="81" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 3" xfId="82" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="84" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 4" xfId="86" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 5" xfId="88" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 6" xfId="89" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 7" xfId="90" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 8" xfId="91" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 9" xfId="12" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 4" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 4 2" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 5" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 6" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 7" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 8" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 8" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 9" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Note 2" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
     <cellStyle name="Percent" xfId="141" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="118"/>
-    <cellStyle name="Percent 2 2" xfId="119"/>
-    <cellStyle name="Percent 3" xfId="120"/>
-    <cellStyle name="Percent 3 2" xfId="121"/>
-    <cellStyle name="Source Hed" xfId="122"/>
-    <cellStyle name="Source Superscript" xfId="123"/>
-    <cellStyle name="Source Text" xfId="9"/>
-    <cellStyle name="State" xfId="124"/>
-    <cellStyle name="Superscript" xfId="125"/>
-    <cellStyle name="Table Data" xfId="126"/>
-    <cellStyle name="Table Head Top" xfId="127"/>
-    <cellStyle name="Table Hed Side" xfId="128"/>
-    <cellStyle name="Table title" xfId="7"/>
-    <cellStyle name="Title 2" xfId="129"/>
-    <cellStyle name="Title Text" xfId="130"/>
-    <cellStyle name="Title Text 1" xfId="131"/>
-    <cellStyle name="Title Text 2" xfId="132"/>
-    <cellStyle name="Title-1" xfId="14"/>
-    <cellStyle name="Title-2" xfId="133"/>
-    <cellStyle name="Title-3" xfId="134"/>
-    <cellStyle name="Total 2" xfId="135"/>
-    <cellStyle name="Warning Text 2" xfId="136"/>
-    <cellStyle name="Wrap" xfId="137"/>
-    <cellStyle name="Wrap Bold" xfId="138"/>
-    <cellStyle name="Wrap Title" xfId="139"/>
+    <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 3 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Source Hed" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Source Superscript" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Source Text" xfId="9" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="State" xfId="124" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Superscript" xfId="125" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Table Data" xfId="126" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Table Head Top" xfId="127" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Table Hed Side" xfId="128" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Title 2" xfId="129" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Title Text" xfId="130" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Title Text 1" xfId="131" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Title Text 2" xfId="132" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Title-1" xfId="14" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Title-2" xfId="133" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Title-3" xfId="134" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Total 2" xfId="135" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Warning Text 2" xfId="136" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Wrap" xfId="137" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Wrap Bold" xfId="138" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Wrap Title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2156,6 +2659,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2191,6 +2711,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2366,14 +2903,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2444,73 +2983,103 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="2:2">
       <c r="B17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="2:2">
       <c r="B18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="2:2">
       <c r="B19" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="2:2">
       <c r="B22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="2:2">
       <c r="B23" s="3">
         <v>2015</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="2:2">
       <c r="B24" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="2:2">
       <c r="B25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="2:2">
       <c r="B26" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="3">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" s="39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="37" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="37" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2521,73 +3090,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AFG93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" customWidth="1"/>
+    <col min="7" max="7" width="3.5" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="3.42578125" customWidth="1"/>
-    <col min="12" max="92" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.42578125" customWidth="1"/>
-    <col min="94" max="94" width="7.85546875" customWidth="1"/>
-    <col min="95" max="95" width="23.85546875" customWidth="1"/>
-    <col min="96" max="156" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="15.1640625" customWidth="1"/>
+    <col min="11" max="11" width="3.5" customWidth="1"/>
+    <col min="12" max="92" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.5" customWidth="1"/>
+    <col min="94" max="94" width="7.83203125" customWidth="1"/>
+    <col min="95" max="95" width="23.83203125" customWidth="1"/>
+    <col min="96" max="156" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="4" customWidth="1"/>
-    <col min="159" max="159" width="17.42578125" customWidth="1"/>
-    <col min="160" max="160" width="15.140625" customWidth="1"/>
-    <col min="161" max="161" width="17.140625" customWidth="1"/>
-    <col min="162" max="242" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="13.42578125" customWidth="1"/>
-    <col min="244" max="244" width="7.85546875" customWidth="1"/>
-    <col min="245" max="245" width="23.85546875" customWidth="1"/>
-    <col min="246" max="306" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="13.42578125" customWidth="1"/>
-    <col min="308" max="308" width="7.85546875" customWidth="1"/>
-    <col min="309" max="309" width="23.85546875" customWidth="1"/>
-    <col min="310" max="370" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="13.42578125" customWidth="1"/>
-    <col min="372" max="372" width="7.85546875" customWidth="1"/>
-    <col min="373" max="373" width="23.85546875" customWidth="1"/>
-    <col min="374" max="434" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="13.42578125" customWidth="1"/>
-    <col min="436" max="436" width="7.85546875" customWidth="1"/>
-    <col min="437" max="437" width="23.85546875" customWidth="1"/>
-    <col min="438" max="498" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="17.5" customWidth="1"/>
+    <col min="160" max="160" width="15.1640625" customWidth="1"/>
+    <col min="161" max="161" width="17.1640625" customWidth="1"/>
+    <col min="162" max="242" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="13.5" customWidth="1"/>
+    <col min="244" max="244" width="7.83203125" customWidth="1"/>
+    <col min="245" max="245" width="23.83203125" customWidth="1"/>
+    <col min="246" max="306" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="13.5" customWidth="1"/>
+    <col min="308" max="308" width="7.83203125" customWidth="1"/>
+    <col min="309" max="309" width="23.83203125" customWidth="1"/>
+    <col min="310" max="370" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="13.5" customWidth="1"/>
+    <col min="372" max="372" width="7.83203125" customWidth="1"/>
+    <col min="373" max="373" width="23.83203125" customWidth="1"/>
+    <col min="374" max="434" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="13.5" customWidth="1"/>
+    <col min="436" max="436" width="7.83203125" customWidth="1"/>
+    <col min="437" max="437" width="23.83203125" customWidth="1"/>
+    <col min="438" max="498" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="499" max="499" width="4" customWidth="1"/>
-    <col min="500" max="500" width="17.42578125" customWidth="1"/>
-    <col min="501" max="501" width="15.140625" customWidth="1"/>
-    <col min="502" max="502" width="17.140625" customWidth="1"/>
-    <col min="503" max="583" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="13.42578125" customWidth="1"/>
-    <col min="585" max="585" width="7.85546875" customWidth="1"/>
-    <col min="586" max="586" width="23.85546875" customWidth="1"/>
-    <col min="587" max="647" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="13.42578125" customWidth="1"/>
-    <col min="649" max="649" width="7.85546875" customWidth="1"/>
-    <col min="650" max="650" width="23.85546875" customWidth="1"/>
-    <col min="651" max="711" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="712" max="712" width="13.42578125" customWidth="1"/>
-    <col min="713" max="713" width="7.85546875" customWidth="1"/>
-    <col min="714" max="714" width="23.85546875" customWidth="1"/>
-    <col min="715" max="775" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="13.42578125" customWidth="1"/>
-    <col min="777" max="777" width="7.85546875" customWidth="1"/>
-    <col min="778" max="778" width="23.85546875" customWidth="1"/>
-    <col min="779" max="839" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="17.5" customWidth="1"/>
+    <col min="501" max="501" width="15.1640625" customWidth="1"/>
+    <col min="502" max="502" width="17.1640625" customWidth="1"/>
+    <col min="503" max="583" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="13.5" customWidth="1"/>
+    <col min="585" max="585" width="7.83203125" customWidth="1"/>
+    <col min="586" max="586" width="23.83203125" customWidth="1"/>
+    <col min="587" max="647" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="13.5" customWidth="1"/>
+    <col min="649" max="649" width="7.83203125" customWidth="1"/>
+    <col min="650" max="650" width="23.83203125" customWidth="1"/>
+    <col min="651" max="711" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="712" max="712" width="13.5" customWidth="1"/>
+    <col min="713" max="713" width="7.83203125" customWidth="1"/>
+    <col min="714" max="714" width="23.83203125" customWidth="1"/>
+    <col min="715" max="775" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="13.5" customWidth="1"/>
+    <col min="777" max="777" width="7.83203125" customWidth="1"/>
+    <col min="778" max="778" width="23.83203125" customWidth="1"/>
+    <col min="779" max="839" width="5.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:839">
@@ -2611,7 +3180,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:839" ht="28.5">
+    <row r="4" spans="1:839" ht="29">
       <c r="C4">
         <v>2017</v>
       </c>
@@ -2619,862 +3188,862 @@
         <v>2017</v>
       </c>
       <c r="F4" s="39"/>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="65"/>
-      <c r="AH4" s="65"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65"/>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="65"/>
-      <c r="AU4" s="65"/>
-      <c r="AV4" s="65"/>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65"/>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="65"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="65"/>
-      <c r="BG4" s="65"/>
-      <c r="BH4" s="65"/>
-      <c r="BI4" s="65"/>
-      <c r="BJ4" s="65"/>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="65"/>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="65"/>
-      <c r="BT4" s="65"/>
-      <c r="BU4" s="65"/>
-      <c r="BV4" s="65"/>
-      <c r="BW4" s="65"/>
-      <c r="BX4" s="65"/>
-      <c r="BY4" s="65"/>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="65"/>
-      <c r="CB4" s="65"/>
-      <c r="CC4" s="65"/>
-      <c r="CD4" s="65"/>
-      <c r="CE4" s="65"/>
-      <c r="CF4" s="65"/>
-      <c r="CG4" s="65"/>
-      <c r="CH4" s="65"/>
-      <c r="CI4" s="65"/>
-      <c r="CJ4" s="65"/>
-      <c r="CK4" s="65"/>
-      <c r="CL4" s="65"/>
-      <c r="CM4" s="65"/>
-      <c r="CN4" s="65"/>
-      <c r="CO4" s="65" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="72"/>
+      <c r="BI4" s="72"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="72"/>
+      <c r="BO4" s="72"/>
+      <c r="BP4" s="72"/>
+      <c r="BQ4" s="72"/>
+      <c r="BR4" s="72"/>
+      <c r="BS4" s="72"/>
+      <c r="BT4" s="72"/>
+      <c r="BU4" s="72"/>
+      <c r="BV4" s="72"/>
+      <c r="BW4" s="72"/>
+      <c r="BX4" s="72"/>
+      <c r="BY4" s="72"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="72"/>
+      <c r="CB4" s="72"/>
+      <c r="CC4" s="72"/>
+      <c r="CD4" s="72"/>
+      <c r="CE4" s="72"/>
+      <c r="CF4" s="72"/>
+      <c r="CG4" s="72"/>
+      <c r="CH4" s="72"/>
+      <c r="CI4" s="72"/>
+      <c r="CJ4" s="72"/>
+      <c r="CK4" s="72"/>
+      <c r="CL4" s="72"/>
+      <c r="CM4" s="72"/>
+      <c r="CN4" s="72"/>
+      <c r="CO4" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="CP4" s="65"/>
-      <c r="CQ4" s="65"/>
-      <c r="CR4" s="65"/>
-      <c r="CS4" s="65"/>
-      <c r="CT4" s="65"/>
-      <c r="CU4" s="65"/>
-      <c r="CV4" s="65"/>
-      <c r="CW4" s="65"/>
-      <c r="CX4" s="65"/>
-      <c r="CY4" s="65"/>
-      <c r="CZ4" s="65"/>
-      <c r="DA4" s="65"/>
-      <c r="DB4" s="65"/>
-      <c r="DC4" s="65"/>
-      <c r="DD4" s="65"/>
-      <c r="DE4" s="65"/>
-      <c r="DF4" s="65"/>
-      <c r="DG4" s="65"/>
-      <c r="DH4" s="65"/>
-      <c r="DI4" s="65"/>
-      <c r="DJ4" s="65"/>
-      <c r="DK4" s="65"/>
-      <c r="DL4" s="65"/>
-      <c r="DM4" s="65"/>
-      <c r="DN4" s="65"/>
-      <c r="DO4" s="65"/>
-      <c r="DP4" s="65"/>
-      <c r="DQ4" s="65"/>
-      <c r="DR4" s="65"/>
-      <c r="DS4" s="65"/>
-      <c r="DT4" s="65"/>
-      <c r="DU4" s="65"/>
-      <c r="DV4" s="65"/>
-      <c r="DW4" s="65"/>
-      <c r="DX4" s="65"/>
-      <c r="DY4" s="65"/>
-      <c r="DZ4" s="65"/>
-      <c r="EA4" s="65"/>
-      <c r="EB4" s="65"/>
-      <c r="EC4" s="65"/>
-      <c r="ED4" s="65"/>
-      <c r="EE4" s="65"/>
-      <c r="EF4" s="65"/>
-      <c r="EG4" s="65"/>
-      <c r="EH4" s="65"/>
-      <c r="EI4" s="65"/>
-      <c r="EJ4" s="65"/>
-      <c r="EK4" s="65"/>
-      <c r="EL4" s="65"/>
-      <c r="EM4" s="65"/>
-      <c r="EN4" s="65"/>
-      <c r="EO4" s="65"/>
-      <c r="EP4" s="65"/>
-      <c r="EQ4" s="65"/>
-      <c r="ER4" s="65"/>
-      <c r="ES4" s="65"/>
-      <c r="ET4" s="65"/>
-      <c r="EU4" s="65"/>
-      <c r="EV4" s="65"/>
-      <c r="EW4" s="65"/>
-      <c r="EX4" s="65"/>
-      <c r="EY4" s="65"/>
-      <c r="EZ4" s="65"/>
-      <c r="FA4" s="64" t="s">
+      <c r="CP4" s="72"/>
+      <c r="CQ4" s="72"/>
+      <c r="CR4" s="72"/>
+      <c r="CS4" s="72"/>
+      <c r="CT4" s="72"/>
+      <c r="CU4" s="72"/>
+      <c r="CV4" s="72"/>
+      <c r="CW4" s="72"/>
+      <c r="CX4" s="72"/>
+      <c r="CY4" s="72"/>
+      <c r="CZ4" s="72"/>
+      <c r="DA4" s="72"/>
+      <c r="DB4" s="72"/>
+      <c r="DC4" s="72"/>
+      <c r="DD4" s="72"/>
+      <c r="DE4" s="72"/>
+      <c r="DF4" s="72"/>
+      <c r="DG4" s="72"/>
+      <c r="DH4" s="72"/>
+      <c r="DI4" s="72"/>
+      <c r="DJ4" s="72"/>
+      <c r="DK4" s="72"/>
+      <c r="DL4" s="72"/>
+      <c r="DM4" s="72"/>
+      <c r="DN4" s="72"/>
+      <c r="DO4" s="72"/>
+      <c r="DP4" s="72"/>
+      <c r="DQ4" s="72"/>
+      <c r="DR4" s="72"/>
+      <c r="DS4" s="72"/>
+      <c r="DT4" s="72"/>
+      <c r="DU4" s="72"/>
+      <c r="DV4" s="72"/>
+      <c r="DW4" s="72"/>
+      <c r="DX4" s="72"/>
+      <c r="DY4" s="72"/>
+      <c r="DZ4" s="72"/>
+      <c r="EA4" s="72"/>
+      <c r="EB4" s="72"/>
+      <c r="EC4" s="72"/>
+      <c r="ED4" s="72"/>
+      <c r="EE4" s="72"/>
+      <c r="EF4" s="72"/>
+      <c r="EG4" s="72"/>
+      <c r="EH4" s="72"/>
+      <c r="EI4" s="72"/>
+      <c r="EJ4" s="72"/>
+      <c r="EK4" s="72"/>
+      <c r="EL4" s="72"/>
+      <c r="EM4" s="72"/>
+      <c r="EN4" s="72"/>
+      <c r="EO4" s="72"/>
+      <c r="EP4" s="72"/>
+      <c r="EQ4" s="72"/>
+      <c r="ER4" s="72"/>
+      <c r="ES4" s="72"/>
+      <c r="ET4" s="72"/>
+      <c r="EU4" s="72"/>
+      <c r="EV4" s="72"/>
+      <c r="EW4" s="72"/>
+      <c r="EX4" s="72"/>
+      <c r="EY4" s="72"/>
+      <c r="EZ4" s="72"/>
+      <c r="FA4" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="FB4" s="64"/>
-      <c r="FC4" s="64"/>
-      <c r="FD4" s="64"/>
-      <c r="FE4" s="64"/>
-      <c r="FF4" s="64"/>
-      <c r="FG4" s="64"/>
-      <c r="FH4" s="64"/>
-      <c r="FI4" s="64"/>
-      <c r="FJ4" s="64"/>
-      <c r="FK4" s="64"/>
-      <c r="FL4" s="64"/>
-      <c r="FM4" s="64"/>
-      <c r="FN4" s="64"/>
-      <c r="FO4" s="64"/>
-      <c r="FP4" s="64"/>
-      <c r="FQ4" s="64"/>
-      <c r="FR4" s="64"/>
-      <c r="FS4" s="64"/>
-      <c r="FT4" s="64"/>
-      <c r="FU4" s="64"/>
-      <c r="FV4" s="64"/>
-      <c r="FW4" s="64"/>
-      <c r="FX4" s="64"/>
-      <c r="FY4" s="64"/>
-      <c r="FZ4" s="64"/>
-      <c r="GA4" s="64"/>
-      <c r="GB4" s="64"/>
-      <c r="GC4" s="64"/>
-      <c r="GD4" s="64"/>
-      <c r="GE4" s="64"/>
-      <c r="GF4" s="64"/>
-      <c r="GG4" s="64"/>
-      <c r="GH4" s="64"/>
-      <c r="GI4" s="64"/>
-      <c r="GJ4" s="64"/>
-      <c r="GK4" s="64"/>
-      <c r="GL4" s="64"/>
-      <c r="GM4" s="64"/>
-      <c r="GN4" s="64"/>
-      <c r="GO4" s="64"/>
-      <c r="GP4" s="64"/>
-      <c r="GQ4" s="64"/>
-      <c r="GR4" s="64"/>
-      <c r="GS4" s="64"/>
-      <c r="GT4" s="64"/>
-      <c r="GU4" s="64"/>
-      <c r="GV4" s="64"/>
-      <c r="GW4" s="64"/>
-      <c r="GX4" s="64"/>
-      <c r="GY4" s="64"/>
-      <c r="GZ4" s="64"/>
-      <c r="HA4" s="64"/>
-      <c r="HB4" s="64"/>
-      <c r="HC4" s="64"/>
-      <c r="HD4" s="64"/>
-      <c r="HE4" s="64"/>
-      <c r="HF4" s="64"/>
-      <c r="HG4" s="64"/>
-      <c r="HH4" s="64"/>
-      <c r="HI4" s="64"/>
-      <c r="HJ4" s="64"/>
-      <c r="HK4" s="64"/>
-      <c r="HL4" s="64"/>
-      <c r="HM4" s="64"/>
-      <c r="HN4" s="64"/>
-      <c r="HO4" s="64"/>
-      <c r="HP4" s="64"/>
-      <c r="HQ4" s="64"/>
-      <c r="HR4" s="64"/>
-      <c r="HS4" s="64"/>
-      <c r="HT4" s="64"/>
-      <c r="HU4" s="64"/>
-      <c r="HV4" s="64"/>
-      <c r="HW4" s="64"/>
-      <c r="HX4" s="64"/>
-      <c r="HY4" s="64"/>
-      <c r="HZ4" s="64"/>
-      <c r="IA4" s="64"/>
-      <c r="IB4" s="64"/>
-      <c r="IC4" s="64"/>
-      <c r="ID4" s="64"/>
-      <c r="IE4" s="64"/>
-      <c r="IF4" s="64"/>
-      <c r="IG4" s="64"/>
-      <c r="IH4" s="64"/>
-      <c r="II4" s="65" t="s">
+      <c r="FB4" s="71"/>
+      <c r="FC4" s="71"/>
+      <c r="FD4" s="71"/>
+      <c r="FE4" s="71"/>
+      <c r="FF4" s="71"/>
+      <c r="FG4" s="71"/>
+      <c r="FH4" s="71"/>
+      <c r="FI4" s="71"/>
+      <c r="FJ4" s="71"/>
+      <c r="FK4" s="71"/>
+      <c r="FL4" s="71"/>
+      <c r="FM4" s="71"/>
+      <c r="FN4" s="71"/>
+      <c r="FO4" s="71"/>
+      <c r="FP4" s="71"/>
+      <c r="FQ4" s="71"/>
+      <c r="FR4" s="71"/>
+      <c r="FS4" s="71"/>
+      <c r="FT4" s="71"/>
+      <c r="FU4" s="71"/>
+      <c r="FV4" s="71"/>
+      <c r="FW4" s="71"/>
+      <c r="FX4" s="71"/>
+      <c r="FY4" s="71"/>
+      <c r="FZ4" s="71"/>
+      <c r="GA4" s="71"/>
+      <c r="GB4" s="71"/>
+      <c r="GC4" s="71"/>
+      <c r="GD4" s="71"/>
+      <c r="GE4" s="71"/>
+      <c r="GF4" s="71"/>
+      <c r="GG4" s="71"/>
+      <c r="GH4" s="71"/>
+      <c r="GI4" s="71"/>
+      <c r="GJ4" s="71"/>
+      <c r="GK4" s="71"/>
+      <c r="GL4" s="71"/>
+      <c r="GM4" s="71"/>
+      <c r="GN4" s="71"/>
+      <c r="GO4" s="71"/>
+      <c r="GP4" s="71"/>
+      <c r="GQ4" s="71"/>
+      <c r="GR4" s="71"/>
+      <c r="GS4" s="71"/>
+      <c r="GT4" s="71"/>
+      <c r="GU4" s="71"/>
+      <c r="GV4" s="71"/>
+      <c r="GW4" s="71"/>
+      <c r="GX4" s="71"/>
+      <c r="GY4" s="71"/>
+      <c r="GZ4" s="71"/>
+      <c r="HA4" s="71"/>
+      <c r="HB4" s="71"/>
+      <c r="HC4" s="71"/>
+      <c r="HD4" s="71"/>
+      <c r="HE4" s="71"/>
+      <c r="HF4" s="71"/>
+      <c r="HG4" s="71"/>
+      <c r="HH4" s="71"/>
+      <c r="HI4" s="71"/>
+      <c r="HJ4" s="71"/>
+      <c r="HK4" s="71"/>
+      <c r="HL4" s="71"/>
+      <c r="HM4" s="71"/>
+      <c r="HN4" s="71"/>
+      <c r="HO4" s="71"/>
+      <c r="HP4" s="71"/>
+      <c r="HQ4" s="71"/>
+      <c r="HR4" s="71"/>
+      <c r="HS4" s="71"/>
+      <c r="HT4" s="71"/>
+      <c r="HU4" s="71"/>
+      <c r="HV4" s="71"/>
+      <c r="HW4" s="71"/>
+      <c r="HX4" s="71"/>
+      <c r="HY4" s="71"/>
+      <c r="HZ4" s="71"/>
+      <c r="IA4" s="71"/>
+      <c r="IB4" s="71"/>
+      <c r="IC4" s="71"/>
+      <c r="ID4" s="71"/>
+      <c r="IE4" s="71"/>
+      <c r="IF4" s="71"/>
+      <c r="IG4" s="71"/>
+      <c r="IH4" s="71"/>
+      <c r="II4" s="72" t="s">
         <v>77</v>
       </c>
-      <c r="IJ4" s="65"/>
-      <c r="IK4" s="65"/>
-      <c r="IL4" s="65"/>
-      <c r="IM4" s="65"/>
-      <c r="IN4" s="65"/>
-      <c r="IO4" s="65"/>
-      <c r="IP4" s="65"/>
-      <c r="IQ4" s="65"/>
-      <c r="IR4" s="65"/>
-      <c r="IS4" s="65"/>
-      <c r="IT4" s="65"/>
-      <c r="IU4" s="65"/>
-      <c r="IV4" s="65"/>
-      <c r="IW4" s="65"/>
-      <c r="IX4" s="65"/>
-      <c r="IY4" s="65"/>
-      <c r="IZ4" s="65"/>
-      <c r="JA4" s="65"/>
-      <c r="JB4" s="65"/>
-      <c r="JC4" s="65"/>
-      <c r="JD4" s="65"/>
-      <c r="JE4" s="65"/>
-      <c r="JF4" s="65"/>
-      <c r="JG4" s="65"/>
-      <c r="JH4" s="65"/>
-      <c r="JI4" s="65"/>
-      <c r="JJ4" s="65"/>
-      <c r="JK4" s="65"/>
-      <c r="JL4" s="65"/>
-      <c r="JM4" s="65"/>
-      <c r="JN4" s="65"/>
-      <c r="JO4" s="65"/>
-      <c r="JP4" s="65"/>
-      <c r="JQ4" s="65"/>
-      <c r="JR4" s="65"/>
-      <c r="JS4" s="65"/>
-      <c r="JT4" s="65"/>
-      <c r="JU4" s="65"/>
-      <c r="JV4" s="65"/>
-      <c r="JW4" s="65"/>
-      <c r="JX4" s="65"/>
-      <c r="JY4" s="65"/>
-      <c r="JZ4" s="65"/>
-      <c r="KA4" s="65"/>
-      <c r="KB4" s="65"/>
-      <c r="KC4" s="65"/>
-      <c r="KD4" s="65"/>
-      <c r="KE4" s="65"/>
-      <c r="KF4" s="65"/>
-      <c r="KG4" s="65"/>
-      <c r="KH4" s="65"/>
-      <c r="KI4" s="65"/>
-      <c r="KJ4" s="65"/>
-      <c r="KK4" s="65"/>
-      <c r="KL4" s="65"/>
-      <c r="KM4" s="65"/>
-      <c r="KN4" s="65"/>
-      <c r="KO4" s="65"/>
-      <c r="KP4" s="65"/>
-      <c r="KQ4" s="65"/>
-      <c r="KR4" s="65"/>
-      <c r="KS4" s="65"/>
-      <c r="KT4" s="65"/>
-      <c r="KU4" s="64" t="s">
+      <c r="IJ4" s="72"/>
+      <c r="IK4" s="72"/>
+      <c r="IL4" s="72"/>
+      <c r="IM4" s="72"/>
+      <c r="IN4" s="72"/>
+      <c r="IO4" s="72"/>
+      <c r="IP4" s="72"/>
+      <c r="IQ4" s="72"/>
+      <c r="IR4" s="72"/>
+      <c r="IS4" s="72"/>
+      <c r="IT4" s="72"/>
+      <c r="IU4" s="72"/>
+      <c r="IV4" s="72"/>
+      <c r="IW4" s="72"/>
+      <c r="IX4" s="72"/>
+      <c r="IY4" s="72"/>
+      <c r="IZ4" s="72"/>
+      <c r="JA4" s="72"/>
+      <c r="JB4" s="72"/>
+      <c r="JC4" s="72"/>
+      <c r="JD4" s="72"/>
+      <c r="JE4" s="72"/>
+      <c r="JF4" s="72"/>
+      <c r="JG4" s="72"/>
+      <c r="JH4" s="72"/>
+      <c r="JI4" s="72"/>
+      <c r="JJ4" s="72"/>
+      <c r="JK4" s="72"/>
+      <c r="JL4" s="72"/>
+      <c r="JM4" s="72"/>
+      <c r="JN4" s="72"/>
+      <c r="JO4" s="72"/>
+      <c r="JP4" s="72"/>
+      <c r="JQ4" s="72"/>
+      <c r="JR4" s="72"/>
+      <c r="JS4" s="72"/>
+      <c r="JT4" s="72"/>
+      <c r="JU4" s="72"/>
+      <c r="JV4" s="72"/>
+      <c r="JW4" s="72"/>
+      <c r="JX4" s="72"/>
+      <c r="JY4" s="72"/>
+      <c r="JZ4" s="72"/>
+      <c r="KA4" s="72"/>
+      <c r="KB4" s="72"/>
+      <c r="KC4" s="72"/>
+      <c r="KD4" s="72"/>
+      <c r="KE4" s="72"/>
+      <c r="KF4" s="72"/>
+      <c r="KG4" s="72"/>
+      <c r="KH4" s="72"/>
+      <c r="KI4" s="72"/>
+      <c r="KJ4" s="72"/>
+      <c r="KK4" s="72"/>
+      <c r="KL4" s="72"/>
+      <c r="KM4" s="72"/>
+      <c r="KN4" s="72"/>
+      <c r="KO4" s="72"/>
+      <c r="KP4" s="72"/>
+      <c r="KQ4" s="72"/>
+      <c r="KR4" s="72"/>
+      <c r="KS4" s="72"/>
+      <c r="KT4" s="72"/>
+      <c r="KU4" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="KV4" s="64"/>
-      <c r="KW4" s="64"/>
-      <c r="KX4" s="64"/>
-      <c r="KY4" s="64"/>
-      <c r="KZ4" s="64"/>
-      <c r="LA4" s="64"/>
-      <c r="LB4" s="64"/>
-      <c r="LC4" s="64"/>
-      <c r="LD4" s="64"/>
-      <c r="LE4" s="64"/>
-      <c r="LF4" s="64"/>
-      <c r="LG4" s="64"/>
-      <c r="LH4" s="64"/>
-      <c r="LI4" s="64"/>
-      <c r="LJ4" s="64"/>
-      <c r="LK4" s="64"/>
-      <c r="LL4" s="64"/>
-      <c r="LM4" s="64"/>
-      <c r="LN4" s="64"/>
-      <c r="LO4" s="64"/>
-      <c r="LP4" s="64"/>
-      <c r="LQ4" s="64"/>
-      <c r="LR4" s="64"/>
-      <c r="LS4" s="64"/>
-      <c r="LT4" s="64"/>
-      <c r="LU4" s="64"/>
-      <c r="LV4" s="64"/>
-      <c r="LW4" s="64"/>
-      <c r="LX4" s="64"/>
-      <c r="LY4" s="64"/>
-      <c r="LZ4" s="64"/>
-      <c r="MA4" s="64"/>
-      <c r="MB4" s="64"/>
-      <c r="MC4" s="64"/>
-      <c r="MD4" s="64"/>
-      <c r="ME4" s="64"/>
-      <c r="MF4" s="64"/>
-      <c r="MG4" s="64"/>
-      <c r="MH4" s="64"/>
-      <c r="MI4" s="64"/>
-      <c r="MJ4" s="64"/>
-      <c r="MK4" s="64"/>
-      <c r="ML4" s="64"/>
-      <c r="MM4" s="64"/>
-      <c r="MN4" s="64"/>
-      <c r="MO4" s="64"/>
-      <c r="MP4" s="64"/>
-      <c r="MQ4" s="64"/>
-      <c r="MR4" s="64"/>
-      <c r="MS4" s="64"/>
-      <c r="MT4" s="64"/>
-      <c r="MU4" s="64"/>
-      <c r="MV4" s="64"/>
-      <c r="MW4" s="64"/>
-      <c r="MX4" s="64"/>
-      <c r="MY4" s="64"/>
-      <c r="MZ4" s="64"/>
-      <c r="NA4" s="64"/>
-      <c r="NB4" s="64"/>
-      <c r="NC4" s="64"/>
-      <c r="ND4" s="64"/>
-      <c r="NE4" s="64"/>
-      <c r="NF4" s="64"/>
-      <c r="NG4" s="64" t="s">
+      <c r="KV4" s="71"/>
+      <c r="KW4" s="71"/>
+      <c r="KX4" s="71"/>
+      <c r="KY4" s="71"/>
+      <c r="KZ4" s="71"/>
+      <c r="LA4" s="71"/>
+      <c r="LB4" s="71"/>
+      <c r="LC4" s="71"/>
+      <c r="LD4" s="71"/>
+      <c r="LE4" s="71"/>
+      <c r="LF4" s="71"/>
+      <c r="LG4" s="71"/>
+      <c r="LH4" s="71"/>
+      <c r="LI4" s="71"/>
+      <c r="LJ4" s="71"/>
+      <c r="LK4" s="71"/>
+      <c r="LL4" s="71"/>
+      <c r="LM4" s="71"/>
+      <c r="LN4" s="71"/>
+      <c r="LO4" s="71"/>
+      <c r="LP4" s="71"/>
+      <c r="LQ4" s="71"/>
+      <c r="LR4" s="71"/>
+      <c r="LS4" s="71"/>
+      <c r="LT4" s="71"/>
+      <c r="LU4" s="71"/>
+      <c r="LV4" s="71"/>
+      <c r="LW4" s="71"/>
+      <c r="LX4" s="71"/>
+      <c r="LY4" s="71"/>
+      <c r="LZ4" s="71"/>
+      <c r="MA4" s="71"/>
+      <c r="MB4" s="71"/>
+      <c r="MC4" s="71"/>
+      <c r="MD4" s="71"/>
+      <c r="ME4" s="71"/>
+      <c r="MF4" s="71"/>
+      <c r="MG4" s="71"/>
+      <c r="MH4" s="71"/>
+      <c r="MI4" s="71"/>
+      <c r="MJ4" s="71"/>
+      <c r="MK4" s="71"/>
+      <c r="ML4" s="71"/>
+      <c r="MM4" s="71"/>
+      <c r="MN4" s="71"/>
+      <c r="MO4" s="71"/>
+      <c r="MP4" s="71"/>
+      <c r="MQ4" s="71"/>
+      <c r="MR4" s="71"/>
+      <c r="MS4" s="71"/>
+      <c r="MT4" s="71"/>
+      <c r="MU4" s="71"/>
+      <c r="MV4" s="71"/>
+      <c r="MW4" s="71"/>
+      <c r="MX4" s="71"/>
+      <c r="MY4" s="71"/>
+      <c r="MZ4" s="71"/>
+      <c r="NA4" s="71"/>
+      <c r="NB4" s="71"/>
+      <c r="NC4" s="71"/>
+      <c r="ND4" s="71"/>
+      <c r="NE4" s="71"/>
+      <c r="NF4" s="71"/>
+      <c r="NG4" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="NH4" s="64"/>
-      <c r="NI4" s="64"/>
-      <c r="NJ4" s="64"/>
-      <c r="NK4" s="64"/>
-      <c r="NL4" s="64"/>
-      <c r="NM4" s="64"/>
-      <c r="NN4" s="64"/>
-      <c r="NO4" s="64"/>
-      <c r="NP4" s="64"/>
-      <c r="NQ4" s="64"/>
-      <c r="NR4" s="64"/>
-      <c r="NS4" s="64"/>
-      <c r="NT4" s="64"/>
-      <c r="NU4" s="64"/>
-      <c r="NV4" s="64"/>
-      <c r="NW4" s="64"/>
-      <c r="NX4" s="64"/>
-      <c r="NY4" s="64"/>
-      <c r="NZ4" s="64"/>
-      <c r="OA4" s="64"/>
-      <c r="OB4" s="64"/>
-      <c r="OC4" s="64"/>
-      <c r="OD4" s="64"/>
-      <c r="OE4" s="64"/>
-      <c r="OF4" s="64"/>
-      <c r="OG4" s="64"/>
-      <c r="OH4" s="64"/>
-      <c r="OI4" s="64"/>
-      <c r="OJ4" s="64"/>
-      <c r="OK4" s="64"/>
-      <c r="OL4" s="64"/>
-      <c r="OM4" s="64"/>
-      <c r="ON4" s="64"/>
-      <c r="OO4" s="64"/>
-      <c r="OP4" s="64"/>
-      <c r="OQ4" s="64"/>
-      <c r="OR4" s="64"/>
-      <c r="OS4" s="64"/>
-      <c r="OT4" s="64"/>
-      <c r="OU4" s="64"/>
-      <c r="OV4" s="64"/>
-      <c r="OW4" s="64"/>
-      <c r="OX4" s="64"/>
-      <c r="OY4" s="64"/>
-      <c r="OZ4" s="64"/>
-      <c r="PA4" s="64"/>
-      <c r="PB4" s="64"/>
-      <c r="PC4" s="64"/>
-      <c r="PD4" s="64"/>
-      <c r="PE4" s="64"/>
-      <c r="PF4" s="64"/>
-      <c r="PG4" s="64"/>
-      <c r="PH4" s="64"/>
-      <c r="PI4" s="64"/>
-      <c r="PJ4" s="64"/>
-      <c r="PK4" s="64"/>
-      <c r="PL4" s="64"/>
-      <c r="PM4" s="64"/>
-      <c r="PN4" s="64"/>
-      <c r="PO4" s="64"/>
-      <c r="PP4" s="64"/>
-      <c r="PQ4" s="64"/>
-      <c r="PR4" s="64"/>
-      <c r="PS4" s="64" t="s">
+      <c r="NH4" s="71"/>
+      <c r="NI4" s="71"/>
+      <c r="NJ4" s="71"/>
+      <c r="NK4" s="71"/>
+      <c r="NL4" s="71"/>
+      <c r="NM4" s="71"/>
+      <c r="NN4" s="71"/>
+      <c r="NO4" s="71"/>
+      <c r="NP4" s="71"/>
+      <c r="NQ4" s="71"/>
+      <c r="NR4" s="71"/>
+      <c r="NS4" s="71"/>
+      <c r="NT4" s="71"/>
+      <c r="NU4" s="71"/>
+      <c r="NV4" s="71"/>
+      <c r="NW4" s="71"/>
+      <c r="NX4" s="71"/>
+      <c r="NY4" s="71"/>
+      <c r="NZ4" s="71"/>
+      <c r="OA4" s="71"/>
+      <c r="OB4" s="71"/>
+      <c r="OC4" s="71"/>
+      <c r="OD4" s="71"/>
+      <c r="OE4" s="71"/>
+      <c r="OF4" s="71"/>
+      <c r="OG4" s="71"/>
+      <c r="OH4" s="71"/>
+      <c r="OI4" s="71"/>
+      <c r="OJ4" s="71"/>
+      <c r="OK4" s="71"/>
+      <c r="OL4" s="71"/>
+      <c r="OM4" s="71"/>
+      <c r="ON4" s="71"/>
+      <c r="OO4" s="71"/>
+      <c r="OP4" s="71"/>
+      <c r="OQ4" s="71"/>
+      <c r="OR4" s="71"/>
+      <c r="OS4" s="71"/>
+      <c r="OT4" s="71"/>
+      <c r="OU4" s="71"/>
+      <c r="OV4" s="71"/>
+      <c r="OW4" s="71"/>
+      <c r="OX4" s="71"/>
+      <c r="OY4" s="71"/>
+      <c r="OZ4" s="71"/>
+      <c r="PA4" s="71"/>
+      <c r="PB4" s="71"/>
+      <c r="PC4" s="71"/>
+      <c r="PD4" s="71"/>
+      <c r="PE4" s="71"/>
+      <c r="PF4" s="71"/>
+      <c r="PG4" s="71"/>
+      <c r="PH4" s="71"/>
+      <c r="PI4" s="71"/>
+      <c r="PJ4" s="71"/>
+      <c r="PK4" s="71"/>
+      <c r="PL4" s="71"/>
+      <c r="PM4" s="71"/>
+      <c r="PN4" s="71"/>
+      <c r="PO4" s="71"/>
+      <c r="PP4" s="71"/>
+      <c r="PQ4" s="71"/>
+      <c r="PR4" s="71"/>
+      <c r="PS4" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="PT4" s="64"/>
-      <c r="PU4" s="64"/>
-      <c r="PV4" s="64"/>
-      <c r="PW4" s="64"/>
-      <c r="PX4" s="64"/>
-      <c r="PY4" s="64"/>
-      <c r="PZ4" s="64"/>
-      <c r="QA4" s="64"/>
-      <c r="QB4" s="64"/>
-      <c r="QC4" s="64"/>
-      <c r="QD4" s="64"/>
-      <c r="QE4" s="64"/>
-      <c r="QF4" s="64"/>
-      <c r="QG4" s="64"/>
-      <c r="QH4" s="64"/>
-      <c r="QI4" s="64"/>
-      <c r="QJ4" s="64"/>
-      <c r="QK4" s="64"/>
-      <c r="QL4" s="64"/>
-      <c r="QM4" s="64"/>
-      <c r="QN4" s="64"/>
-      <c r="QO4" s="64"/>
-      <c r="QP4" s="64"/>
-      <c r="QQ4" s="64"/>
-      <c r="QR4" s="64"/>
-      <c r="QS4" s="64"/>
-      <c r="QT4" s="64"/>
-      <c r="QU4" s="64"/>
-      <c r="QV4" s="64"/>
-      <c r="QW4" s="64"/>
-      <c r="QX4" s="64"/>
-      <c r="QY4" s="64"/>
-      <c r="QZ4" s="64"/>
-      <c r="RA4" s="64"/>
-      <c r="RB4" s="64"/>
-      <c r="RC4" s="64"/>
-      <c r="RD4" s="64"/>
-      <c r="RE4" s="64"/>
-      <c r="RF4" s="64"/>
-      <c r="RG4" s="64"/>
-      <c r="RH4" s="64"/>
-      <c r="RI4" s="64"/>
-      <c r="RJ4" s="64"/>
-      <c r="RK4" s="64"/>
-      <c r="RL4" s="64"/>
-      <c r="RM4" s="64"/>
-      <c r="RN4" s="64"/>
-      <c r="RO4" s="64"/>
-      <c r="RP4" s="64"/>
-      <c r="RQ4" s="64"/>
-      <c r="RR4" s="64"/>
-      <c r="RS4" s="64"/>
-      <c r="RT4" s="64"/>
-      <c r="RU4" s="64"/>
-      <c r="RV4" s="64"/>
-      <c r="RW4" s="64"/>
-      <c r="RX4" s="64"/>
-      <c r="RY4" s="64"/>
-      <c r="RZ4" s="64"/>
-      <c r="SA4" s="64"/>
-      <c r="SB4" s="64"/>
-      <c r="SC4" s="64"/>
-      <c r="SD4" s="64"/>
-      <c r="SE4" s="64" t="s">
+      <c r="PT4" s="71"/>
+      <c r="PU4" s="71"/>
+      <c r="PV4" s="71"/>
+      <c r="PW4" s="71"/>
+      <c r="PX4" s="71"/>
+      <c r="PY4" s="71"/>
+      <c r="PZ4" s="71"/>
+      <c r="QA4" s="71"/>
+      <c r="QB4" s="71"/>
+      <c r="QC4" s="71"/>
+      <c r="QD4" s="71"/>
+      <c r="QE4" s="71"/>
+      <c r="QF4" s="71"/>
+      <c r="QG4" s="71"/>
+      <c r="QH4" s="71"/>
+      <c r="QI4" s="71"/>
+      <c r="QJ4" s="71"/>
+      <c r="QK4" s="71"/>
+      <c r="QL4" s="71"/>
+      <c r="QM4" s="71"/>
+      <c r="QN4" s="71"/>
+      <c r="QO4" s="71"/>
+      <c r="QP4" s="71"/>
+      <c r="QQ4" s="71"/>
+      <c r="QR4" s="71"/>
+      <c r="QS4" s="71"/>
+      <c r="QT4" s="71"/>
+      <c r="QU4" s="71"/>
+      <c r="QV4" s="71"/>
+      <c r="QW4" s="71"/>
+      <c r="QX4" s="71"/>
+      <c r="QY4" s="71"/>
+      <c r="QZ4" s="71"/>
+      <c r="RA4" s="71"/>
+      <c r="RB4" s="71"/>
+      <c r="RC4" s="71"/>
+      <c r="RD4" s="71"/>
+      <c r="RE4" s="71"/>
+      <c r="RF4" s="71"/>
+      <c r="RG4" s="71"/>
+      <c r="RH4" s="71"/>
+      <c r="RI4" s="71"/>
+      <c r="RJ4" s="71"/>
+      <c r="RK4" s="71"/>
+      <c r="RL4" s="71"/>
+      <c r="RM4" s="71"/>
+      <c r="RN4" s="71"/>
+      <c r="RO4" s="71"/>
+      <c r="RP4" s="71"/>
+      <c r="RQ4" s="71"/>
+      <c r="RR4" s="71"/>
+      <c r="RS4" s="71"/>
+      <c r="RT4" s="71"/>
+      <c r="RU4" s="71"/>
+      <c r="RV4" s="71"/>
+      <c r="RW4" s="71"/>
+      <c r="RX4" s="71"/>
+      <c r="RY4" s="71"/>
+      <c r="RZ4" s="71"/>
+      <c r="SA4" s="71"/>
+      <c r="SB4" s="71"/>
+      <c r="SC4" s="71"/>
+      <c r="SD4" s="71"/>
+      <c r="SE4" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="SF4" s="64"/>
-      <c r="SG4" s="64"/>
-      <c r="SH4" s="64"/>
-      <c r="SI4" s="64"/>
-      <c r="SJ4" s="64"/>
-      <c r="SK4" s="64"/>
-      <c r="SL4" s="64"/>
-      <c r="SM4" s="64"/>
-      <c r="SN4" s="64"/>
-      <c r="SO4" s="64"/>
-      <c r="SP4" s="64"/>
-      <c r="SQ4" s="64"/>
-      <c r="SR4" s="64"/>
-      <c r="SS4" s="64"/>
-      <c r="ST4" s="64"/>
-      <c r="SU4" s="64"/>
-      <c r="SV4" s="64"/>
-      <c r="SW4" s="64"/>
-      <c r="SX4" s="64"/>
-      <c r="SY4" s="64"/>
-      <c r="SZ4" s="64"/>
-      <c r="TA4" s="64"/>
-      <c r="TB4" s="64"/>
-      <c r="TC4" s="64"/>
-      <c r="TD4" s="64"/>
-      <c r="TE4" s="64"/>
-      <c r="TF4" s="64"/>
-      <c r="TG4" s="64"/>
-      <c r="TH4" s="64"/>
-      <c r="TI4" s="64"/>
-      <c r="TJ4" s="64"/>
-      <c r="TK4" s="64"/>
-      <c r="TL4" s="64"/>
-      <c r="TM4" s="64"/>
-      <c r="TN4" s="64"/>
-      <c r="TO4" s="64"/>
-      <c r="TP4" s="64"/>
-      <c r="TQ4" s="64"/>
-      <c r="TR4" s="64"/>
-      <c r="TS4" s="64"/>
-      <c r="TT4" s="64"/>
-      <c r="TU4" s="64"/>
-      <c r="TV4" s="64"/>
-      <c r="TW4" s="64"/>
-      <c r="TX4" s="64"/>
-      <c r="TY4" s="64"/>
-      <c r="TZ4" s="64"/>
-      <c r="UA4" s="64"/>
-      <c r="UB4" s="64"/>
-      <c r="UC4" s="64"/>
-      <c r="UD4" s="64"/>
-      <c r="UE4" s="64"/>
-      <c r="UF4" s="64"/>
-      <c r="UG4" s="64"/>
-      <c r="UH4" s="64"/>
-      <c r="UI4" s="64"/>
-      <c r="UJ4" s="64"/>
-      <c r="UK4" s="64"/>
-      <c r="UL4" s="64"/>
-      <c r="UM4" s="64"/>
-      <c r="UN4" s="64"/>
-      <c r="UO4" s="64"/>
-      <c r="UP4" s="64"/>
-      <c r="UQ4" s="64"/>
-      <c r="UR4" s="64"/>
-      <c r="US4" s="64"/>
-      <c r="UT4" s="64"/>
-      <c r="UU4" s="64"/>
-      <c r="UV4" s="64"/>
-      <c r="UW4" s="64"/>
-      <c r="UX4" s="64"/>
-      <c r="UY4" s="64"/>
-      <c r="UZ4" s="64"/>
-      <c r="VA4" s="64"/>
-      <c r="VB4" s="64"/>
-      <c r="VC4" s="64"/>
-      <c r="VD4" s="64"/>
-      <c r="VE4" s="64"/>
-      <c r="VF4" s="64"/>
-      <c r="VG4" s="64"/>
-      <c r="VH4" s="64"/>
-      <c r="VI4" s="64"/>
-      <c r="VJ4" s="64"/>
-      <c r="VK4" s="64"/>
-      <c r="VL4" s="65" t="s">
+      <c r="SF4" s="71"/>
+      <c r="SG4" s="71"/>
+      <c r="SH4" s="71"/>
+      <c r="SI4" s="71"/>
+      <c r="SJ4" s="71"/>
+      <c r="SK4" s="71"/>
+      <c r="SL4" s="71"/>
+      <c r="SM4" s="71"/>
+      <c r="SN4" s="71"/>
+      <c r="SO4" s="71"/>
+      <c r="SP4" s="71"/>
+      <c r="SQ4" s="71"/>
+      <c r="SR4" s="71"/>
+      <c r="SS4" s="71"/>
+      <c r="ST4" s="71"/>
+      <c r="SU4" s="71"/>
+      <c r="SV4" s="71"/>
+      <c r="SW4" s="71"/>
+      <c r="SX4" s="71"/>
+      <c r="SY4" s="71"/>
+      <c r="SZ4" s="71"/>
+      <c r="TA4" s="71"/>
+      <c r="TB4" s="71"/>
+      <c r="TC4" s="71"/>
+      <c r="TD4" s="71"/>
+      <c r="TE4" s="71"/>
+      <c r="TF4" s="71"/>
+      <c r="TG4" s="71"/>
+      <c r="TH4" s="71"/>
+      <c r="TI4" s="71"/>
+      <c r="TJ4" s="71"/>
+      <c r="TK4" s="71"/>
+      <c r="TL4" s="71"/>
+      <c r="TM4" s="71"/>
+      <c r="TN4" s="71"/>
+      <c r="TO4" s="71"/>
+      <c r="TP4" s="71"/>
+      <c r="TQ4" s="71"/>
+      <c r="TR4" s="71"/>
+      <c r="TS4" s="71"/>
+      <c r="TT4" s="71"/>
+      <c r="TU4" s="71"/>
+      <c r="TV4" s="71"/>
+      <c r="TW4" s="71"/>
+      <c r="TX4" s="71"/>
+      <c r="TY4" s="71"/>
+      <c r="TZ4" s="71"/>
+      <c r="UA4" s="71"/>
+      <c r="UB4" s="71"/>
+      <c r="UC4" s="71"/>
+      <c r="UD4" s="71"/>
+      <c r="UE4" s="71"/>
+      <c r="UF4" s="71"/>
+      <c r="UG4" s="71"/>
+      <c r="UH4" s="71"/>
+      <c r="UI4" s="71"/>
+      <c r="UJ4" s="71"/>
+      <c r="UK4" s="71"/>
+      <c r="UL4" s="71"/>
+      <c r="UM4" s="71"/>
+      <c r="UN4" s="71"/>
+      <c r="UO4" s="71"/>
+      <c r="UP4" s="71"/>
+      <c r="UQ4" s="71"/>
+      <c r="UR4" s="71"/>
+      <c r="US4" s="71"/>
+      <c r="UT4" s="71"/>
+      <c r="UU4" s="71"/>
+      <c r="UV4" s="71"/>
+      <c r="UW4" s="71"/>
+      <c r="UX4" s="71"/>
+      <c r="UY4" s="71"/>
+      <c r="UZ4" s="71"/>
+      <c r="VA4" s="71"/>
+      <c r="VB4" s="71"/>
+      <c r="VC4" s="71"/>
+      <c r="VD4" s="71"/>
+      <c r="VE4" s="71"/>
+      <c r="VF4" s="71"/>
+      <c r="VG4" s="71"/>
+      <c r="VH4" s="71"/>
+      <c r="VI4" s="71"/>
+      <c r="VJ4" s="71"/>
+      <c r="VK4" s="71"/>
+      <c r="VL4" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="VM4" s="65"/>
-      <c r="VN4" s="65"/>
-      <c r="VO4" s="65"/>
-      <c r="VP4" s="65"/>
-      <c r="VQ4" s="65"/>
-      <c r="VR4" s="65"/>
-      <c r="VS4" s="65"/>
-      <c r="VT4" s="65"/>
-      <c r="VU4" s="65"/>
-      <c r="VV4" s="65"/>
-      <c r="VW4" s="65"/>
-      <c r="VX4" s="65"/>
-      <c r="VY4" s="65"/>
-      <c r="VZ4" s="65"/>
-      <c r="WA4" s="65"/>
-      <c r="WB4" s="65"/>
-      <c r="WC4" s="65"/>
-      <c r="WD4" s="65"/>
-      <c r="WE4" s="65"/>
-      <c r="WF4" s="65"/>
-      <c r="WG4" s="65"/>
-      <c r="WH4" s="65"/>
-      <c r="WI4" s="65"/>
-      <c r="WJ4" s="65"/>
-      <c r="WK4" s="65"/>
-      <c r="WL4" s="65"/>
-      <c r="WM4" s="65"/>
-      <c r="WN4" s="65"/>
-      <c r="WO4" s="65"/>
-      <c r="WP4" s="65"/>
-      <c r="WQ4" s="65"/>
-      <c r="WR4" s="65"/>
-      <c r="WS4" s="65"/>
-      <c r="WT4" s="65"/>
-      <c r="WU4" s="65"/>
-      <c r="WV4" s="65"/>
-      <c r="WW4" s="65"/>
-      <c r="WX4" s="65"/>
-      <c r="WY4" s="65"/>
-      <c r="WZ4" s="65"/>
-      <c r="XA4" s="65"/>
-      <c r="XB4" s="65"/>
-      <c r="XC4" s="65"/>
-      <c r="XD4" s="65"/>
-      <c r="XE4" s="65"/>
-      <c r="XF4" s="65"/>
-      <c r="XG4" s="65"/>
-      <c r="XH4" s="65"/>
-      <c r="XI4" s="65"/>
-      <c r="XJ4" s="65"/>
-      <c r="XK4" s="65"/>
-      <c r="XL4" s="65"/>
-      <c r="XM4" s="65"/>
-      <c r="XN4" s="65"/>
-      <c r="XO4" s="65"/>
-      <c r="XP4" s="65"/>
-      <c r="XQ4" s="65"/>
-      <c r="XR4" s="65"/>
-      <c r="XS4" s="65"/>
-      <c r="XT4" s="65"/>
-      <c r="XU4" s="65"/>
-      <c r="XV4" s="65"/>
-      <c r="XW4" s="65"/>
-      <c r="XX4" s="64" t="s">
+      <c r="VM4" s="72"/>
+      <c r="VN4" s="72"/>
+      <c r="VO4" s="72"/>
+      <c r="VP4" s="72"/>
+      <c r="VQ4" s="72"/>
+      <c r="VR4" s="72"/>
+      <c r="VS4" s="72"/>
+      <c r="VT4" s="72"/>
+      <c r="VU4" s="72"/>
+      <c r="VV4" s="72"/>
+      <c r="VW4" s="72"/>
+      <c r="VX4" s="72"/>
+      <c r="VY4" s="72"/>
+      <c r="VZ4" s="72"/>
+      <c r="WA4" s="72"/>
+      <c r="WB4" s="72"/>
+      <c r="WC4" s="72"/>
+      <c r="WD4" s="72"/>
+      <c r="WE4" s="72"/>
+      <c r="WF4" s="72"/>
+      <c r="WG4" s="72"/>
+      <c r="WH4" s="72"/>
+      <c r="WI4" s="72"/>
+      <c r="WJ4" s="72"/>
+      <c r="WK4" s="72"/>
+      <c r="WL4" s="72"/>
+      <c r="WM4" s="72"/>
+      <c r="WN4" s="72"/>
+      <c r="WO4" s="72"/>
+      <c r="WP4" s="72"/>
+      <c r="WQ4" s="72"/>
+      <c r="WR4" s="72"/>
+      <c r="WS4" s="72"/>
+      <c r="WT4" s="72"/>
+      <c r="WU4" s="72"/>
+      <c r="WV4" s="72"/>
+      <c r="WW4" s="72"/>
+      <c r="WX4" s="72"/>
+      <c r="WY4" s="72"/>
+      <c r="WZ4" s="72"/>
+      <c r="XA4" s="72"/>
+      <c r="XB4" s="72"/>
+      <c r="XC4" s="72"/>
+      <c r="XD4" s="72"/>
+      <c r="XE4" s="72"/>
+      <c r="XF4" s="72"/>
+      <c r="XG4" s="72"/>
+      <c r="XH4" s="72"/>
+      <c r="XI4" s="72"/>
+      <c r="XJ4" s="72"/>
+      <c r="XK4" s="72"/>
+      <c r="XL4" s="72"/>
+      <c r="XM4" s="72"/>
+      <c r="XN4" s="72"/>
+      <c r="XO4" s="72"/>
+      <c r="XP4" s="72"/>
+      <c r="XQ4" s="72"/>
+      <c r="XR4" s="72"/>
+      <c r="XS4" s="72"/>
+      <c r="XT4" s="72"/>
+      <c r="XU4" s="72"/>
+      <c r="XV4" s="72"/>
+      <c r="XW4" s="72"/>
+      <c r="XX4" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="XY4" s="64"/>
-      <c r="XZ4" s="64"/>
-      <c r="YA4" s="64"/>
-      <c r="YB4" s="64"/>
-      <c r="YC4" s="64"/>
-      <c r="YD4" s="64"/>
-      <c r="YE4" s="64"/>
-      <c r="YF4" s="64"/>
-      <c r="YG4" s="64"/>
-      <c r="YH4" s="64"/>
-      <c r="YI4" s="64"/>
-      <c r="YJ4" s="64"/>
-      <c r="YK4" s="64"/>
-      <c r="YL4" s="64"/>
-      <c r="YM4" s="64"/>
-      <c r="YN4" s="64"/>
-      <c r="YO4" s="64"/>
-      <c r="YP4" s="64"/>
-      <c r="YQ4" s="64"/>
-      <c r="YR4" s="64"/>
-      <c r="YS4" s="64"/>
-      <c r="YT4" s="64"/>
-      <c r="YU4" s="64"/>
-      <c r="YV4" s="64"/>
-      <c r="YW4" s="64"/>
-      <c r="YX4" s="64"/>
-      <c r="YY4" s="64"/>
-      <c r="YZ4" s="64"/>
-      <c r="ZA4" s="64"/>
-      <c r="ZB4" s="64"/>
-      <c r="ZC4" s="64"/>
-      <c r="ZD4" s="64"/>
-      <c r="ZE4" s="64"/>
-      <c r="ZF4" s="64"/>
-      <c r="ZG4" s="64"/>
-      <c r="ZH4" s="64"/>
-      <c r="ZI4" s="64"/>
-      <c r="ZJ4" s="64"/>
-      <c r="ZK4" s="64"/>
-      <c r="ZL4" s="64"/>
-      <c r="ZM4" s="64"/>
-      <c r="ZN4" s="64"/>
-      <c r="ZO4" s="64"/>
-      <c r="ZP4" s="64"/>
-      <c r="ZQ4" s="64"/>
-      <c r="ZR4" s="64"/>
-      <c r="ZS4" s="64"/>
-      <c r="ZT4" s="64"/>
-      <c r="ZU4" s="64"/>
-      <c r="ZV4" s="64"/>
-      <c r="ZW4" s="64"/>
-      <c r="ZX4" s="64"/>
-      <c r="ZY4" s="64"/>
-      <c r="ZZ4" s="64"/>
-      <c r="AAA4" s="64"/>
-      <c r="AAB4" s="64"/>
-      <c r="AAC4" s="64"/>
-      <c r="AAD4" s="64"/>
-      <c r="AAE4" s="64"/>
-      <c r="AAF4" s="64"/>
-      <c r="AAG4" s="64"/>
-      <c r="AAH4" s="64"/>
-      <c r="AAI4" s="64"/>
-      <c r="AAJ4" s="64" t="s">
+      <c r="XY4" s="71"/>
+      <c r="XZ4" s="71"/>
+      <c r="YA4" s="71"/>
+      <c r="YB4" s="71"/>
+      <c r="YC4" s="71"/>
+      <c r="YD4" s="71"/>
+      <c r="YE4" s="71"/>
+      <c r="YF4" s="71"/>
+      <c r="YG4" s="71"/>
+      <c r="YH4" s="71"/>
+      <c r="YI4" s="71"/>
+      <c r="YJ4" s="71"/>
+      <c r="YK4" s="71"/>
+      <c r="YL4" s="71"/>
+      <c r="YM4" s="71"/>
+      <c r="YN4" s="71"/>
+      <c r="YO4" s="71"/>
+      <c r="YP4" s="71"/>
+      <c r="YQ4" s="71"/>
+      <c r="YR4" s="71"/>
+      <c r="YS4" s="71"/>
+      <c r="YT4" s="71"/>
+      <c r="YU4" s="71"/>
+      <c r="YV4" s="71"/>
+      <c r="YW4" s="71"/>
+      <c r="YX4" s="71"/>
+      <c r="YY4" s="71"/>
+      <c r="YZ4" s="71"/>
+      <c r="ZA4" s="71"/>
+      <c r="ZB4" s="71"/>
+      <c r="ZC4" s="71"/>
+      <c r="ZD4" s="71"/>
+      <c r="ZE4" s="71"/>
+      <c r="ZF4" s="71"/>
+      <c r="ZG4" s="71"/>
+      <c r="ZH4" s="71"/>
+      <c r="ZI4" s="71"/>
+      <c r="ZJ4" s="71"/>
+      <c r="ZK4" s="71"/>
+      <c r="ZL4" s="71"/>
+      <c r="ZM4" s="71"/>
+      <c r="ZN4" s="71"/>
+      <c r="ZO4" s="71"/>
+      <c r="ZP4" s="71"/>
+      <c r="ZQ4" s="71"/>
+      <c r="ZR4" s="71"/>
+      <c r="ZS4" s="71"/>
+      <c r="ZT4" s="71"/>
+      <c r="ZU4" s="71"/>
+      <c r="ZV4" s="71"/>
+      <c r="ZW4" s="71"/>
+      <c r="ZX4" s="71"/>
+      <c r="ZY4" s="71"/>
+      <c r="ZZ4" s="71"/>
+      <c r="AAA4" s="71"/>
+      <c r="AAB4" s="71"/>
+      <c r="AAC4" s="71"/>
+      <c r="AAD4" s="71"/>
+      <c r="AAE4" s="71"/>
+      <c r="AAF4" s="71"/>
+      <c r="AAG4" s="71"/>
+      <c r="AAH4" s="71"/>
+      <c r="AAI4" s="71"/>
+      <c r="AAJ4" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="AAK4" s="64"/>
-      <c r="AAL4" s="64"/>
-      <c r="AAM4" s="64"/>
-      <c r="AAN4" s="64"/>
-      <c r="AAO4" s="64"/>
-      <c r="AAP4" s="64"/>
-      <c r="AAQ4" s="64"/>
-      <c r="AAR4" s="64"/>
-      <c r="AAS4" s="64"/>
-      <c r="AAT4" s="64"/>
-      <c r="AAU4" s="64"/>
-      <c r="AAV4" s="64"/>
-      <c r="AAW4" s="64"/>
-      <c r="AAX4" s="64"/>
-      <c r="AAY4" s="64"/>
-      <c r="AAZ4" s="64"/>
-      <c r="ABA4" s="64"/>
-      <c r="ABB4" s="64"/>
-      <c r="ABC4" s="64"/>
-      <c r="ABD4" s="64"/>
-      <c r="ABE4" s="64"/>
-      <c r="ABF4" s="64"/>
-      <c r="ABG4" s="64"/>
-      <c r="ABH4" s="64"/>
-      <c r="ABI4" s="64"/>
-      <c r="ABJ4" s="64"/>
-      <c r="ABK4" s="64"/>
-      <c r="ABL4" s="64"/>
-      <c r="ABM4" s="64"/>
-      <c r="ABN4" s="64"/>
-      <c r="ABO4" s="64"/>
-      <c r="ABP4" s="64"/>
-      <c r="ABQ4" s="64"/>
-      <c r="ABR4" s="64"/>
-      <c r="ABS4" s="64"/>
-      <c r="ABT4" s="64"/>
-      <c r="ABU4" s="64"/>
-      <c r="ABV4" s="64"/>
-      <c r="ABW4" s="64"/>
-      <c r="ABX4" s="64"/>
-      <c r="ABY4" s="64"/>
-      <c r="ABZ4" s="64"/>
-      <c r="ACA4" s="64"/>
-      <c r="ACB4" s="64"/>
-      <c r="ACC4" s="64"/>
-      <c r="ACD4" s="64"/>
-      <c r="ACE4" s="64"/>
-      <c r="ACF4" s="64"/>
-      <c r="ACG4" s="64"/>
-      <c r="ACH4" s="64"/>
-      <c r="ACI4" s="64"/>
-      <c r="ACJ4" s="64"/>
-      <c r="ACK4" s="64"/>
-      <c r="ACL4" s="64"/>
-      <c r="ACM4" s="64"/>
-      <c r="ACN4" s="64"/>
-      <c r="ACO4" s="64"/>
-      <c r="ACP4" s="64"/>
-      <c r="ACQ4" s="64"/>
-      <c r="ACR4" s="64"/>
-      <c r="ACS4" s="64"/>
-      <c r="ACT4" s="64"/>
-      <c r="ACU4" s="64"/>
-      <c r="ACV4" s="64" t="s">
+      <c r="AAK4" s="71"/>
+      <c r="AAL4" s="71"/>
+      <c r="AAM4" s="71"/>
+      <c r="AAN4" s="71"/>
+      <c r="AAO4" s="71"/>
+      <c r="AAP4" s="71"/>
+      <c r="AAQ4" s="71"/>
+      <c r="AAR4" s="71"/>
+      <c r="AAS4" s="71"/>
+      <c r="AAT4" s="71"/>
+      <c r="AAU4" s="71"/>
+      <c r="AAV4" s="71"/>
+      <c r="AAW4" s="71"/>
+      <c r="AAX4" s="71"/>
+      <c r="AAY4" s="71"/>
+      <c r="AAZ4" s="71"/>
+      <c r="ABA4" s="71"/>
+      <c r="ABB4" s="71"/>
+      <c r="ABC4" s="71"/>
+      <c r="ABD4" s="71"/>
+      <c r="ABE4" s="71"/>
+      <c r="ABF4" s="71"/>
+      <c r="ABG4" s="71"/>
+      <c r="ABH4" s="71"/>
+      <c r="ABI4" s="71"/>
+      <c r="ABJ4" s="71"/>
+      <c r="ABK4" s="71"/>
+      <c r="ABL4" s="71"/>
+      <c r="ABM4" s="71"/>
+      <c r="ABN4" s="71"/>
+      <c r="ABO4" s="71"/>
+      <c r="ABP4" s="71"/>
+      <c r="ABQ4" s="71"/>
+      <c r="ABR4" s="71"/>
+      <c r="ABS4" s="71"/>
+      <c r="ABT4" s="71"/>
+      <c r="ABU4" s="71"/>
+      <c r="ABV4" s="71"/>
+      <c r="ABW4" s="71"/>
+      <c r="ABX4" s="71"/>
+      <c r="ABY4" s="71"/>
+      <c r="ABZ4" s="71"/>
+      <c r="ACA4" s="71"/>
+      <c r="ACB4" s="71"/>
+      <c r="ACC4" s="71"/>
+      <c r="ACD4" s="71"/>
+      <c r="ACE4" s="71"/>
+      <c r="ACF4" s="71"/>
+      <c r="ACG4" s="71"/>
+      <c r="ACH4" s="71"/>
+      <c r="ACI4" s="71"/>
+      <c r="ACJ4" s="71"/>
+      <c r="ACK4" s="71"/>
+      <c r="ACL4" s="71"/>
+      <c r="ACM4" s="71"/>
+      <c r="ACN4" s="71"/>
+      <c r="ACO4" s="71"/>
+      <c r="ACP4" s="71"/>
+      <c r="ACQ4" s="71"/>
+      <c r="ACR4" s="71"/>
+      <c r="ACS4" s="71"/>
+      <c r="ACT4" s="71"/>
+      <c r="ACU4" s="71"/>
+      <c r="ACV4" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="ACW4" s="64"/>
-      <c r="ACX4" s="64"/>
-      <c r="ACY4" s="64"/>
-      <c r="ACZ4" s="64"/>
-      <c r="ADA4" s="64"/>
-      <c r="ADB4" s="64"/>
-      <c r="ADC4" s="64"/>
-      <c r="ADD4" s="64"/>
-      <c r="ADE4" s="64"/>
-      <c r="ADF4" s="64"/>
-      <c r="ADG4" s="64"/>
-      <c r="ADH4" s="64"/>
-      <c r="ADI4" s="64"/>
-      <c r="ADJ4" s="64"/>
-      <c r="ADK4" s="64"/>
-      <c r="ADL4" s="64"/>
-      <c r="ADM4" s="64"/>
-      <c r="ADN4" s="64"/>
-      <c r="ADO4" s="64"/>
-      <c r="ADP4" s="64"/>
-      <c r="ADQ4" s="64"/>
-      <c r="ADR4" s="64"/>
-      <c r="ADS4" s="64"/>
-      <c r="ADT4" s="64"/>
-      <c r="ADU4" s="64"/>
-      <c r="ADV4" s="64"/>
-      <c r="ADW4" s="64"/>
-      <c r="ADX4" s="64"/>
-      <c r="ADY4" s="64"/>
-      <c r="ADZ4" s="64"/>
-      <c r="AEA4" s="64"/>
-      <c r="AEB4" s="64"/>
-      <c r="AEC4" s="64"/>
-      <c r="AED4" s="64"/>
-      <c r="AEE4" s="64"/>
-      <c r="AEF4" s="64"/>
-      <c r="AEG4" s="64"/>
-      <c r="AEH4" s="64"/>
-      <c r="AEI4" s="64"/>
-      <c r="AEJ4" s="64"/>
-      <c r="AEK4" s="64"/>
-      <c r="AEL4" s="64"/>
-      <c r="AEM4" s="64"/>
-      <c r="AEN4" s="64"/>
-      <c r="AEO4" s="64"/>
-      <c r="AEP4" s="64"/>
-      <c r="AEQ4" s="64"/>
-      <c r="AER4" s="64"/>
-      <c r="AES4" s="64"/>
-      <c r="AET4" s="64"/>
-      <c r="AEU4" s="64"/>
-      <c r="AEV4" s="64"/>
-      <c r="AEW4" s="64"/>
-      <c r="AEX4" s="64"/>
-      <c r="AEY4" s="64"/>
-      <c r="AEZ4" s="64"/>
-      <c r="AFA4" s="64"/>
-      <c r="AFB4" s="64"/>
-      <c r="AFC4" s="64"/>
-      <c r="AFD4" s="64"/>
-      <c r="AFE4" s="64"/>
-      <c r="AFF4" s="64"/>
-      <c r="AFG4" s="64"/>
+      <c r="ACW4" s="71"/>
+      <c r="ACX4" s="71"/>
+      <c r="ACY4" s="71"/>
+      <c r="ACZ4" s="71"/>
+      <c r="ADA4" s="71"/>
+      <c r="ADB4" s="71"/>
+      <c r="ADC4" s="71"/>
+      <c r="ADD4" s="71"/>
+      <c r="ADE4" s="71"/>
+      <c r="ADF4" s="71"/>
+      <c r="ADG4" s="71"/>
+      <c r="ADH4" s="71"/>
+      <c r="ADI4" s="71"/>
+      <c r="ADJ4" s="71"/>
+      <c r="ADK4" s="71"/>
+      <c r="ADL4" s="71"/>
+      <c r="ADM4" s="71"/>
+      <c r="ADN4" s="71"/>
+      <c r="ADO4" s="71"/>
+      <c r="ADP4" s="71"/>
+      <c r="ADQ4" s="71"/>
+      <c r="ADR4" s="71"/>
+      <c r="ADS4" s="71"/>
+      <c r="ADT4" s="71"/>
+      <c r="ADU4" s="71"/>
+      <c r="ADV4" s="71"/>
+      <c r="ADW4" s="71"/>
+      <c r="ADX4" s="71"/>
+      <c r="ADY4" s="71"/>
+      <c r="ADZ4" s="71"/>
+      <c r="AEA4" s="71"/>
+      <c r="AEB4" s="71"/>
+      <c r="AEC4" s="71"/>
+      <c r="AED4" s="71"/>
+      <c r="AEE4" s="71"/>
+      <c r="AEF4" s="71"/>
+      <c r="AEG4" s="71"/>
+      <c r="AEH4" s="71"/>
+      <c r="AEI4" s="71"/>
+      <c r="AEJ4" s="71"/>
+      <c r="AEK4" s="71"/>
+      <c r="AEL4" s="71"/>
+      <c r="AEM4" s="71"/>
+      <c r="AEN4" s="71"/>
+      <c r="AEO4" s="71"/>
+      <c r="AEP4" s="71"/>
+      <c r="AEQ4" s="71"/>
+      <c r="AER4" s="71"/>
+      <c r="AES4" s="71"/>
+      <c r="AET4" s="71"/>
+      <c r="AEU4" s="71"/>
+      <c r="AEV4" s="71"/>
+      <c r="AEW4" s="71"/>
+      <c r="AEX4" s="71"/>
+      <c r="AEY4" s="71"/>
+      <c r="AEZ4" s="71"/>
+      <c r="AFA4" s="71"/>
+      <c r="AFB4" s="71"/>
+      <c r="AFC4" s="71"/>
+      <c r="AFD4" s="71"/>
+      <c r="AFE4" s="71"/>
+      <c r="AFF4" s="71"/>
+      <c r="AFG4" s="71"/>
     </row>
     <row r="5" spans="1:839">
       <c r="C5" s="1" t="s">
@@ -3488,7 +4057,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="6" spans="1:839" ht="15.95" customHeight="1">
+    <row r="6" spans="1:839" ht="16" customHeight="1">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" t="s">
@@ -80655,7 +81224,7 @@
       <c r="U57" s="12"/>
     </row>
     <row r="58" spans="9:21">
-      <c r="I58" s="60" t="s">
+      <c r="I58" s="73" t="s">
         <v>30</v>
       </c>
       <c r="J58" s="22" t="s">
@@ -80692,7 +81261,7 @@
       <c r="U58" s="12"/>
     </row>
     <row r="59" spans="9:21">
-      <c r="I59" s="60"/>
+      <c r="I59" s="73"/>
       <c r="J59" s="22" t="s">
         <v>31</v>
       </c>
@@ -80727,7 +81296,7 @@
       <c r="U59" s="12"/>
     </row>
     <row r="60" spans="9:21">
-      <c r="I60" s="60"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="22" t="s">
         <v>32</v>
       </c>
@@ -80762,7 +81331,7 @@
       <c r="U60" s="12"/>
     </row>
     <row r="61" spans="9:21">
-      <c r="I61" s="60"/>
+      <c r="I61" s="73"/>
       <c r="J61" s="22" t="s">
         <v>17</v>
       </c>
@@ -80797,7 +81366,7 @@
       <c r="U61" s="12"/>
     </row>
     <row r="62" spans="9:21">
-      <c r="I62" s="60"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="22" t="s">
         <v>18</v>
       </c>
@@ -80832,7 +81401,7 @@
       <c r="U62" s="12"/>
     </row>
     <row r="63" spans="9:21">
-      <c r="I63" s="60"/>
+      <c r="I63" s="73"/>
       <c r="J63" s="22" t="s">
         <v>19</v>
       </c>
@@ -80867,7 +81436,7 @@
       <c r="U63" s="12"/>
     </row>
     <row r="64" spans="9:21">
-      <c r="I64" s="60"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="22" t="s">
         <v>33</v>
       </c>
@@ -80902,7 +81471,7 @@
       <c r="U64" s="12"/>
     </row>
     <row r="65" spans="9:21">
-      <c r="I65" s="60"/>
+      <c r="I65" s="73"/>
       <c r="J65" s="22" t="s">
         <v>34</v>
       </c>
@@ -80937,7 +81506,7 @@
       <c r="U65" s="12"/>
     </row>
     <row r="66" spans="9:21">
-      <c r="I66" s="60"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="22" t="s">
         <v>35</v>
       </c>
@@ -80972,7 +81541,7 @@
       <c r="U66" s="12"/>
     </row>
     <row r="67" spans="9:21">
-      <c r="I67" s="60"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="24" t="s">
         <v>36</v>
       </c>
@@ -81009,7 +81578,7 @@
       </c>
     </row>
     <row r="68" spans="9:21">
-      <c r="I68" s="60" t="s">
+      <c r="I68" s="73" t="s">
         <v>37</v>
       </c>
       <c r="J68" s="22" t="s">
@@ -81048,7 +81617,7 @@
       </c>
     </row>
     <row r="69" spans="9:21">
-      <c r="I69" s="60"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="22" t="s">
         <v>31</v>
       </c>
@@ -81085,7 +81654,7 @@
       </c>
     </row>
     <row r="70" spans="9:21">
-      <c r="I70" s="60"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="22" t="s">
         <v>32</v>
       </c>
@@ -81120,7 +81689,7 @@
       <c r="U70" s="12"/>
     </row>
     <row r="71" spans="9:21">
-      <c r="I71" s="60"/>
+      <c r="I71" s="73"/>
       <c r="J71" s="22" t="s">
         <v>17</v>
       </c>
@@ -81155,7 +81724,7 @@
       <c r="U71" s="12"/>
     </row>
     <row r="72" spans="9:21">
-      <c r="I72" s="60"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="22" t="s">
         <v>18</v>
       </c>
@@ -81190,7 +81759,7 @@
       <c r="U72" s="12"/>
     </row>
     <row r="73" spans="9:21">
-      <c r="I73" s="60"/>
+      <c r="I73" s="73"/>
       <c r="J73" s="22" t="s">
         <v>19</v>
       </c>
@@ -81225,7 +81794,7 @@
       <c r="U73" s="12"/>
     </row>
     <row r="74" spans="9:21">
-      <c r="I74" s="60"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="22" t="s">
         <v>33</v>
       </c>
@@ -81260,7 +81829,7 @@
       <c r="U74" s="12"/>
     </row>
     <row r="75" spans="9:21">
-      <c r="I75" s="60"/>
+      <c r="I75" s="73"/>
       <c r="J75" s="22" t="s">
         <v>34</v>
       </c>
@@ -81295,7 +81864,7 @@
       <c r="U75" s="12"/>
     </row>
     <row r="76" spans="9:21">
-      <c r="I76" s="60"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="22" t="s">
         <v>35</v>
       </c>
@@ -81330,7 +81899,7 @@
       <c r="U76" s="12"/>
     </row>
     <row r="77" spans="9:21">
-      <c r="I77" s="60"/>
+      <c r="I77" s="73"/>
       <c r="J77" s="24" t="s">
         <v>36</v>
       </c>
@@ -81367,7 +81936,7 @@
       </c>
     </row>
     <row r="78" spans="9:21">
-      <c r="I78" s="60" t="s">
+      <c r="I78" s="73" t="s">
         <v>38</v>
       </c>
       <c r="J78" s="22" t="s">
@@ -81406,7 +81975,7 @@
       </c>
     </row>
     <row r="79" spans="9:21">
-      <c r="I79" s="60"/>
+      <c r="I79" s="73"/>
       <c r="J79" s="22" t="s">
         <v>40</v>
       </c>
@@ -81443,7 +82012,7 @@
       </c>
     </row>
     <row r="80" spans="9:21">
-      <c r="I80" s="61" t="s">
+      <c r="I80" s="74" t="s">
         <v>36</v>
       </c>
       <c r="J80" s="24" t="s">
@@ -81482,7 +82051,7 @@
       </c>
     </row>
     <row r="81" spans="9:21">
-      <c r="I81" s="62"/>
+      <c r="I81" s="75"/>
       <c r="J81" s="22" t="s">
         <v>16</v>
       </c>
@@ -81519,7 +82088,7 @@
       <c r="U81" s="12"/>
     </row>
     <row r="82" spans="9:21">
-      <c r="I82" s="62"/>
+      <c r="I82" s="75"/>
       <c r="J82" s="22" t="s">
         <v>31</v>
       </c>
@@ -81556,7 +82125,7 @@
       <c r="U82" s="12"/>
     </row>
     <row r="83" spans="9:21">
-      <c r="I83" s="62"/>
+      <c r="I83" s="75"/>
       <c r="J83" s="22" t="s">
         <v>32</v>
       </c>
@@ -81593,7 +82162,7 @@
       <c r="U83" s="12"/>
     </row>
     <row r="84" spans="9:21">
-      <c r="I84" s="62"/>
+      <c r="I84" s="75"/>
       <c r="J84" s="22" t="s">
         <v>17</v>
       </c>
@@ -81630,7 +82199,7 @@
       <c r="U84" s="12"/>
     </row>
     <row r="85" spans="9:21">
-      <c r="I85" s="62"/>
+      <c r="I85" s="75"/>
       <c r="J85" s="22" t="s">
         <v>18</v>
       </c>
@@ -81667,7 +82236,7 @@
       <c r="U85" s="12"/>
     </row>
     <row r="86" spans="9:21">
-      <c r="I86" s="62"/>
+      <c r="I86" s="75"/>
       <c r="J86" s="22" t="s">
         <v>19</v>
       </c>
@@ -81704,7 +82273,7 @@
       <c r="U86" s="12"/>
     </row>
     <row r="87" spans="9:21">
-      <c r="I87" s="62"/>
+      <c r="I87" s="75"/>
       <c r="J87" s="22" t="s">
         <v>33</v>
       </c>
@@ -81741,7 +82310,7 @@
       <c r="U87" s="12"/>
     </row>
     <row r="88" spans="9:21">
-      <c r="I88" s="62"/>
+      <c r="I88" s="75"/>
       <c r="J88" s="22" t="s">
         <v>34</v>
       </c>
@@ -81778,7 +82347,7 @@
       <c r="U88" s="12"/>
     </row>
     <row r="89" spans="9:21">
-      <c r="I89" s="62"/>
+      <c r="I89" s="75"/>
       <c r="J89" s="22" t="s">
         <v>42</v>
       </c>
@@ -81814,8 +82383,8 @@
       </c>
       <c r="U89" s="12"/>
     </row>
-    <row r="90" spans="9:21" ht="34.5">
-      <c r="I90" s="62"/>
+    <row r="90" spans="9:21" ht="23">
+      <c r="I90" s="75"/>
       <c r="J90" s="24" t="s">
         <v>43</v>
       </c>
@@ -81849,8 +82418,8 @@
       </c>
       <c r="U90" s="12"/>
     </row>
-    <row r="91" spans="9:21" ht="34.5">
-      <c r="I91" s="62"/>
+    <row r="91" spans="9:21" ht="23">
+      <c r="I91" s="75"/>
       <c r="J91" s="24" t="s">
         <v>44</v>
       </c>
@@ -81884,8 +82453,8 @@
       </c>
       <c r="U91" s="12"/>
     </row>
-    <row r="92" spans="9:21" ht="23.25">
-      <c r="I92" s="62"/>
+    <row r="92" spans="9:21" ht="23">
+      <c r="I92" s="75"/>
       <c r="J92" s="24" t="s">
         <v>45</v>
       </c>
@@ -81919,8 +82488,8 @@
       </c>
       <c r="U92" s="12"/>
     </row>
-    <row r="93" spans="9:21" ht="23.25">
-      <c r="I93" s="63"/>
+    <row r="93" spans="9:21" ht="23">
+      <c r="I93" s="76"/>
       <c r="J93" s="24" t="s">
         <v>46</v>
       </c>
@@ -81956,11 +82525,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="SE4:VK4"/>
-    <mergeCell ref="VL4:XW4"/>
-    <mergeCell ref="XX4:AAI4"/>
-    <mergeCell ref="AAJ4:ACU4"/>
-    <mergeCell ref="ACV4:AFG4"/>
     <mergeCell ref="I58:I67"/>
     <mergeCell ref="I68:I77"/>
     <mergeCell ref="I78:I79"/>
@@ -81972,18 +82536,23 @@
     <mergeCell ref="II4:KT4"/>
     <mergeCell ref="KU4:NF4"/>
     <mergeCell ref="NG4:PR4"/>
+    <mergeCell ref="SE4:VK4"/>
+    <mergeCell ref="VL4:XW4"/>
+    <mergeCell ref="XX4:AAI4"/>
+    <mergeCell ref="AAJ4:ACU4"/>
+    <mergeCell ref="ACV4:AFG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -81991,12 +82560,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -82004,12 +82573,1793 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="16">
+      <c r="A1" s="77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+    </row>
+    <row r="2" spans="1:15" ht="16">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+    </row>
+    <row r="5" spans="1:15" ht="42">
+      <c r="A5" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="80"/>
+      <c r="C5" s="80" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="80" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="I5" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" s="80"/>
+      <c r="K5" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="L5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="80"/>
+    </row>
+    <row r="6" spans="1:15" ht="30">
+      <c r="A6" s="80"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G6" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="I6" s="80"/>
+      <c r="J6" s="80"/>
+      <c r="K6" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="L6" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="M6" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="N6" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="O6" s="63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28">
+      <c r="A7" s="86">
+        <v>2016</v>
+      </c>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87">
+        <f>MAX(C8:C19)</f>
+        <v>226</v>
+      </c>
+      <c r="D7" s="87">
+        <f>MAX(D8:D19)</f>
+        <v>280</v>
+      </c>
+      <c r="E7" s="87">
+        <f>SUM(E8:E19)*1000</f>
+        <v>42620362.229999989</v>
+      </c>
+      <c r="F7" s="87">
+        <f>SUM(F8:F19)*1000</f>
+        <v>52674875.961883999</v>
+      </c>
+      <c r="G7" s="87">
+        <f>SUM(G8:G19)*1000</f>
+        <v>1169544759</v>
+      </c>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="O7" s="63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="79"/>
+      <c r="C8" s="64">
+        <v>226</v>
+      </c>
+      <c r="D8" s="64">
+        <v>275</v>
+      </c>
+      <c r="E8" s="88">
+        <v>3531.2648661766625</v>
+      </c>
+      <c r="F8" s="64">
+        <v>4134.2138387100003</v>
+      </c>
+      <c r="G8" s="64">
+        <v>97830.216</v>
+      </c>
+      <c r="I8" s="86">
+        <v>2016</v>
+      </c>
+      <c r="J8" s="86"/>
+      <c r="K8" s="87">
+        <f>MAX(K9:K20)</f>
+        <v>25</v>
+      </c>
+      <c r="L8" s="87">
+        <f>MAX(L9:L20)</f>
+        <v>20</v>
+      </c>
+      <c r="M8" s="87">
+        <f>SUM(M9:M20)*1000</f>
+        <v>2105375</v>
+      </c>
+      <c r="N8" s="87">
+        <f>SUM(N9:N20)*1000</f>
+        <v>35062394</v>
+      </c>
+      <c r="O8" s="87">
+        <f>SUM(O9:O20)*1000</f>
+        <v>64480687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="79"/>
+      <c r="C9" s="64">
+        <v>226</v>
+      </c>
+      <c r="D9" s="64">
+        <v>273</v>
+      </c>
+      <c r="E9" s="88">
+        <v>3584.4798595107832</v>
+      </c>
+      <c r="F9" s="64">
+        <v>4471.7182758620002</v>
+      </c>
+      <c r="G9" s="64">
+        <v>92449.615000000005</v>
+      </c>
+      <c r="I9" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="J9" s="79"/>
+      <c r="K9" s="64">
+        <v>25</v>
+      </c>
+      <c r="L9" s="64">
+        <v>20</v>
+      </c>
+      <c r="M9" s="64">
+        <v>167.20400000000001</v>
+      </c>
+      <c r="N9" s="64">
+        <v>2395.2289999999998</v>
+      </c>
+      <c r="O9" s="64">
+        <v>9388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="79"/>
+      <c r="C10" s="64">
+        <v>226</v>
+      </c>
+      <c r="D10" s="64">
+        <v>277</v>
+      </c>
+      <c r="E10" s="88">
+        <v>3496.2561370136509</v>
+      </c>
+      <c r="F10" s="64">
+        <v>3857.0301935480002</v>
+      </c>
+      <c r="G10" s="64">
+        <v>97345.934999999998</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="79"/>
+      <c r="K10" s="64">
+        <v>25</v>
+      </c>
+      <c r="L10" s="64">
+        <v>20</v>
+      </c>
+      <c r="M10" s="64">
+        <v>170.34899999999999</v>
+      </c>
+      <c r="N10" s="64">
+        <v>2790.1260000000002</v>
+      </c>
+      <c r="O10" s="64">
+        <v>6374.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="79"/>
+      <c r="C11" s="64">
+        <v>226</v>
+      </c>
+      <c r="D11" s="64">
+        <v>278</v>
+      </c>
+      <c r="E11" s="88">
+        <v>3576.9758110528278</v>
+      </c>
+      <c r="F11" s="64">
+        <v>4582.4188666669997</v>
+      </c>
+      <c r="G11" s="64">
+        <v>96357.847999999998</v>
+      </c>
+      <c r="I11" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="J11" s="79"/>
+      <c r="K11" s="64">
+        <v>25</v>
+      </c>
+      <c r="L11" s="64">
+        <v>20</v>
+      </c>
+      <c r="M11" s="64">
+        <v>178.303</v>
+      </c>
+      <c r="N11" s="64">
+        <v>2581.1030000000001</v>
+      </c>
+      <c r="O11" s="64">
+        <v>7469.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="79"/>
+      <c r="C12" s="64">
+        <v>226</v>
+      </c>
+      <c r="D12" s="64">
+        <v>280</v>
+      </c>
+      <c r="E12" s="88">
+        <v>3559.7155424904663</v>
+      </c>
+      <c r="F12" s="64">
+        <v>4423.6271935479999</v>
+      </c>
+      <c r="G12" s="64">
+        <v>99297.52</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="J12" s="79"/>
+      <c r="K12" s="64">
+        <v>25</v>
+      </c>
+      <c r="L12" s="64">
+        <v>20</v>
+      </c>
+      <c r="M12" s="64">
+        <v>175.03800000000001</v>
+      </c>
+      <c r="N12" s="64">
+        <v>3738.9859999999999</v>
+      </c>
+      <c r="O12" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="79"/>
+      <c r="C13" s="64">
+        <v>226</v>
+      </c>
+      <c r="D13" s="64">
+        <v>280</v>
+      </c>
+      <c r="E13" s="88">
+        <v>3592.4546328492397</v>
+      </c>
+      <c r="F13" s="64">
+        <v>4513.7870333330002</v>
+      </c>
+      <c r="G13" s="64">
+        <v>96849.358999999997</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="J13" s="79"/>
+      <c r="K13" s="64">
+        <v>25</v>
+      </c>
+      <c r="L13" s="64">
+        <v>20</v>
+      </c>
+      <c r="M13" s="64">
+        <v>182.131</v>
+      </c>
+      <c r="N13" s="64">
+        <v>3773.3130000000001</v>
+      </c>
+      <c r="O13" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="79"/>
+      <c r="C14" s="64">
+        <v>226</v>
+      </c>
+      <c r="D14" s="64">
+        <v>279</v>
+      </c>
+      <c r="E14" s="88">
+        <v>3544.7119338580969</v>
+      </c>
+      <c r="F14" s="64">
+        <v>4097.9018064519996</v>
+      </c>
+      <c r="G14" s="64">
+        <v>98806.009000000005</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" s="79"/>
+      <c r="K14" s="64">
+        <v>25</v>
+      </c>
+      <c r="L14" s="64">
+        <v>20</v>
+      </c>
+      <c r="M14" s="64">
+        <v>178.06200000000001</v>
+      </c>
+      <c r="N14" s="64">
+        <v>3660.346</v>
+      </c>
+      <c r="O14" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="79"/>
+      <c r="C15" s="64">
+        <v>226</v>
+      </c>
+      <c r="D15" s="64">
+        <v>277</v>
+      </c>
+      <c r="E15" s="88">
+        <v>3563.9531534099251</v>
+      </c>
+      <c r="F15" s="64">
+        <v>4574.2796774190001</v>
+      </c>
+      <c r="G15" s="64">
+        <v>100273.31200000001</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="J15" s="79"/>
+      <c r="K15" s="64">
+        <v>25</v>
+      </c>
+      <c r="L15" s="64">
+        <v>20</v>
+      </c>
+      <c r="M15" s="64">
+        <v>187.256</v>
+      </c>
+      <c r="N15" s="64">
+        <v>2551.433</v>
+      </c>
+      <c r="O15" s="64">
+        <v>4393.1869999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="79"/>
+      <c r="C16" s="64">
+        <v>226</v>
+      </c>
+      <c r="D16" s="64">
+        <v>278</v>
+      </c>
+      <c r="E16" s="88">
+        <v>3526.0895915424394</v>
+      </c>
+      <c r="F16" s="64">
+        <v>4480.6017666670004</v>
+      </c>
+      <c r="G16" s="64">
+        <v>95873.567999999999</v>
+      </c>
+      <c r="I16" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J16" s="79"/>
+      <c r="K16" s="64">
+        <v>25</v>
+      </c>
+      <c r="L16" s="64">
+        <v>20</v>
+      </c>
+      <c r="M16" s="64">
+        <v>183.27</v>
+      </c>
+      <c r="N16" s="64">
+        <v>2949.136</v>
+      </c>
+      <c r="O16" s="64">
+        <v>6842.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="79"/>
+      <c r="C17" s="64">
+        <v>226</v>
+      </c>
+      <c r="D17" s="64">
+        <v>278</v>
+      </c>
+      <c r="E17" s="88">
+        <v>3532.7444608008709</v>
+      </c>
+      <c r="F17" s="64">
+        <v>4600.748903226</v>
+      </c>
+      <c r="G17" s="64">
+        <v>98806.008000000002</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="J17" s="79"/>
+      <c r="K17" s="64">
+        <v>25</v>
+      </c>
+      <c r="L17" s="64">
+        <v>20</v>
+      </c>
+      <c r="M17" s="64">
+        <v>166.989</v>
+      </c>
+      <c r="N17" s="64">
+        <v>2493.44</v>
+      </c>
+      <c r="O17" s="64">
+        <v>7901.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="79"/>
+      <c r="C18" s="64">
+        <v>226</v>
+      </c>
+      <c r="D18" s="64">
+        <v>276</v>
+      </c>
+      <c r="E18" s="88">
+        <v>3524.0098463837071</v>
+      </c>
+      <c r="F18" s="64">
+        <v>4552.7586000000001</v>
+      </c>
+      <c r="G18" s="64">
+        <v>95873.567999999999</v>
+      </c>
+      <c r="I18" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="79"/>
+      <c r="K18" s="64">
+        <v>25</v>
+      </c>
+      <c r="L18" s="64">
+        <v>20</v>
+      </c>
+      <c r="M18" s="64">
+        <v>179.79599999999999</v>
+      </c>
+      <c r="N18" s="64">
+        <v>2946.6979999999999</v>
+      </c>
+      <c r="O18" s="64">
+        <v>6728.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="79"/>
+      <c r="C19" s="64">
+        <v>226</v>
+      </c>
+      <c r="D19" s="64">
+        <v>276</v>
+      </c>
+      <c r="E19" s="88">
+        <v>3587.7063949113208</v>
+      </c>
+      <c r="F19" s="64">
+        <v>4385.7898064520004</v>
+      </c>
+      <c r="G19" s="64">
+        <v>99781.801000000007</v>
+      </c>
+      <c r="I19" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="J19" s="79"/>
+      <c r="K19" s="64">
+        <v>25</v>
+      </c>
+      <c r="L19" s="64">
+        <v>20</v>
+      </c>
+      <c r="M19" s="64">
+        <v>170.64599999999999</v>
+      </c>
+      <c r="N19" s="64">
+        <v>2819.2449999999999</v>
+      </c>
+      <c r="O19" s="64">
+        <v>7813.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="79"/>
+      <c r="K20" s="64">
+        <v>25</v>
+      </c>
+      <c r="L20" s="64">
+        <v>20</v>
+      </c>
+      <c r="M20" s="64">
+        <v>166.33099999999999</v>
+      </c>
+      <c r="N20" s="64">
+        <v>2363.3389999999999</v>
+      </c>
+      <c r="O20" s="64">
+        <v>7569.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16">
+      <c r="A21" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="I21" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
+    </row>
+    <row r="22" spans="1:16" ht="16">
+      <c r="A22" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="81" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
+    </row>
+    <row r="23" spans="1:16" ht="16">
+      <c r="A23" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="I23" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="J23" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
+    </row>
+    <row r="24" spans="1:16" ht="16">
+      <c r="A24" s="66" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="81" t="s">
+        <v>166</v>
+      </c>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="I24" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="J24" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
+    </row>
+    <row r="25" spans="1:16" ht="16">
+      <c r="A25" s="66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="84"/>
+      <c r="I26" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="84"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="78" t="s">
+        <v>171</v>
+      </c>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="I28" s="78" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="85" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="I30" s="85" t="s">
+        <v>174</v>
+      </c>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
+    </row>
+    <row r="32" spans="1:16" ht="42">
+      <c r="A32" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80" t="s">
+        <v>175</v>
+      </c>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="I32" s="80" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" s="80"/>
+      <c r="K32" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="L32" s="80" t="s">
+        <v>177</v>
+      </c>
+      <c r="M32" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="N32" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="O32" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="P32" s="63" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="30">
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="I33" s="80"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="L33" s="80"/>
+      <c r="M33" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="N33" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="O33" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" s="63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="28">
+      <c r="A34" s="80"/>
+      <c r="B34" s="80"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
+      <c r="E34" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="63" t="s">
+        <v>141</v>
+      </c>
+      <c r="G34" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="86">
+        <v>2016</v>
+      </c>
+      <c r="J34" s="86"/>
+      <c r="K34" s="87">
+        <f>MAX(K35:K46)</f>
+        <v>32</v>
+      </c>
+      <c r="L34" s="87">
+        <f>MAX(L35:L46)</f>
+        <v>40</v>
+      </c>
+      <c r="M34" s="87">
+        <f>SUM(M35:M46)*1000</f>
+        <v>10267964</v>
+      </c>
+      <c r="N34" s="87">
+        <f>SUM(N35:N46)*1000</f>
+        <v>180444745.00000003</v>
+      </c>
+      <c r="O34" s="87">
+        <f>SUM(O35:O46)*1000</f>
+        <v>445470692</v>
+      </c>
+      <c r="P34" s="87">
+        <f>SUM(P35:P46)*1000</f>
+        <v>42463236.000000007</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="86">
+        <v>2016</v>
+      </c>
+      <c r="B35" s="86"/>
+      <c r="C35" s="87">
+        <f>MAX(C36:C47)</f>
+        <v>48</v>
+      </c>
+      <c r="D35" s="87">
+        <f>MAX(D36:D47)</f>
+        <v>44</v>
+      </c>
+      <c r="E35" s="87">
+        <f>SUM(E36:E47)*1000</f>
+        <v>5714391.0000000009</v>
+      </c>
+      <c r="F35" s="87">
+        <f>SUM(F36:F47)*1000</f>
+        <v>98268017.000000015</v>
+      </c>
+      <c r="G35" s="87">
+        <f>SUM(G36:G47)*1000</f>
+        <v>475509660.99999994</v>
+      </c>
+      <c r="I35" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="J35" s="79"/>
+      <c r="K35" s="64">
+        <v>32</v>
+      </c>
+      <c r="L35" s="64">
+        <v>40</v>
+      </c>
+      <c r="M35" s="64">
+        <v>839.87599999999998</v>
+      </c>
+      <c r="N35" s="64">
+        <v>13925.906000000001</v>
+      </c>
+      <c r="O35" s="64">
+        <v>34347.637999999999</v>
+      </c>
+      <c r="P35" s="64">
+        <v>3243.78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" s="79"/>
+      <c r="C36" s="64">
+        <v>48</v>
+      </c>
+      <c r="D36" s="64">
+        <v>44</v>
+      </c>
+      <c r="E36" s="64">
+        <v>476.49200000000002</v>
+      </c>
+      <c r="F36" s="64">
+        <v>7758.3130000000001</v>
+      </c>
+      <c r="G36" s="64">
+        <v>36978.737000000001</v>
+      </c>
+      <c r="I36" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="J36" s="79"/>
+      <c r="K36" s="64">
+        <v>32</v>
+      </c>
+      <c r="L36" s="64">
+        <v>40</v>
+      </c>
+      <c r="M36" s="64">
+        <v>812.904</v>
+      </c>
+      <c r="N36" s="64">
+        <v>14723.522999999999</v>
+      </c>
+      <c r="O36" s="64">
+        <v>36975.303</v>
+      </c>
+      <c r="P36" s="64">
+        <v>3148.2739999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="79" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="79"/>
+      <c r="C37" s="64">
+        <v>48</v>
+      </c>
+      <c r="D37" s="64">
+        <v>44</v>
+      </c>
+      <c r="E37" s="64">
+        <v>446.24799999999999</v>
+      </c>
+      <c r="F37" s="64">
+        <v>7813.2079999999996</v>
+      </c>
+      <c r="G37" s="64">
+        <v>37239.540999999997</v>
+      </c>
+      <c r="I37" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" s="79"/>
+      <c r="K37" s="64">
+        <v>32</v>
+      </c>
+      <c r="L37" s="64">
+        <v>40</v>
+      </c>
+      <c r="M37" s="64">
+        <v>851.22500000000002</v>
+      </c>
+      <c r="N37" s="64">
+        <v>14536.004000000001</v>
+      </c>
+      <c r="O37" s="64">
+        <v>36382.83</v>
+      </c>
+      <c r="P37" s="64">
+        <v>3366.2179999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="79"/>
+      <c r="C38" s="64">
+        <v>48</v>
+      </c>
+      <c r="D38" s="64">
+        <v>44</v>
+      </c>
+      <c r="E38" s="64">
+        <v>461.54500000000002</v>
+      </c>
+      <c r="F38" s="64">
+        <v>7709.2110000000002</v>
+      </c>
+      <c r="G38" s="64">
+        <v>36746.699999999997</v>
+      </c>
+      <c r="I38" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="J38" s="79"/>
+      <c r="K38" s="64">
+        <v>32</v>
+      </c>
+      <c r="L38" s="64">
+        <v>40</v>
+      </c>
+      <c r="M38" s="64">
+        <v>841.87099999999998</v>
+      </c>
+      <c r="N38" s="64">
+        <v>15387.757</v>
+      </c>
+      <c r="O38" s="64">
+        <v>38383</v>
+      </c>
+      <c r="P38" s="64">
+        <v>3360.0039999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="79" t="s">
+        <v>146</v>
+      </c>
+      <c r="B39" s="79"/>
+      <c r="C39" s="64">
+        <v>48</v>
+      </c>
+      <c r="D39" s="64">
+        <v>44</v>
+      </c>
+      <c r="E39" s="64">
+        <v>468.46600000000001</v>
+      </c>
+      <c r="F39" s="64">
+        <v>8101.7759999999998</v>
+      </c>
+      <c r="G39" s="64">
+        <v>38619.072</v>
+      </c>
+      <c r="I39" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="J39" s="79"/>
+      <c r="K39" s="64">
+        <v>32</v>
+      </c>
+      <c r="L39" s="64">
+        <v>40</v>
+      </c>
+      <c r="M39" s="64">
+        <v>886.94</v>
+      </c>
+      <c r="N39" s="64">
+        <v>15360.752</v>
+      </c>
+      <c r="O39" s="64">
+        <v>38366.663999999997</v>
+      </c>
+      <c r="P39" s="64">
+        <v>3618.4389999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="79" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" s="79"/>
+      <c r="C40" s="64">
+        <v>48</v>
+      </c>
+      <c r="D40" s="64">
+        <v>44</v>
+      </c>
+      <c r="E40" s="64">
+        <v>474.79199999999997</v>
+      </c>
+      <c r="F40" s="64">
+        <v>8256.7620000000006</v>
+      </c>
+      <c r="G40" s="64">
+        <v>39357.822999999997</v>
+      </c>
+      <c r="I40" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="J40" s="79"/>
+      <c r="K40" s="64">
+        <v>32</v>
+      </c>
+      <c r="L40" s="64">
+        <v>40</v>
+      </c>
+      <c r="M40" s="64">
+        <v>853.56700000000001</v>
+      </c>
+      <c r="N40" s="64">
+        <v>14295.486999999999</v>
+      </c>
+      <c r="O40" s="64">
+        <v>37369.377</v>
+      </c>
+      <c r="P40" s="64">
+        <v>3740.5709999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="79"/>
+      <c r="C41" s="64">
+        <v>48</v>
+      </c>
+      <c r="D41" s="64">
+        <v>44</v>
+      </c>
+      <c r="E41" s="64">
+        <v>474.93799999999999</v>
+      </c>
+      <c r="F41" s="64">
+        <v>7852.9530000000004</v>
+      </c>
+      <c r="G41" s="64">
+        <v>37431.334000000003</v>
+      </c>
+      <c r="I41" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="79"/>
+      <c r="K41" s="64">
+        <v>32</v>
+      </c>
+      <c r="L41" s="64">
+        <v>40</v>
+      </c>
+      <c r="M41" s="64">
+        <v>855.06100000000004</v>
+      </c>
+      <c r="N41" s="64">
+        <v>14557.776</v>
+      </c>
+      <c r="O41" s="64">
+        <v>33382.5</v>
+      </c>
+      <c r="P41" s="64">
+        <v>3980.578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" s="79"/>
+      <c r="C42" s="64">
+        <v>48</v>
+      </c>
+      <c r="D42" s="64">
+        <v>38</v>
+      </c>
+      <c r="E42" s="64">
+        <v>478.67200000000003</v>
+      </c>
+      <c r="F42" s="64">
+        <v>7831.0649999999996</v>
+      </c>
+      <c r="G42" s="64">
+        <v>37326.470999999998</v>
+      </c>
+      <c r="I42" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J42" s="79"/>
+      <c r="K42" s="64">
+        <v>32</v>
+      </c>
+      <c r="L42" s="64">
+        <v>40</v>
+      </c>
+      <c r="M42" s="64">
+        <v>887.90099999999995</v>
+      </c>
+      <c r="N42" s="64">
+        <v>16182.244000000001</v>
+      </c>
+      <c r="O42" s="64">
+        <v>40139.449000000001</v>
+      </c>
+      <c r="P42" s="64">
+        <v>3941.569</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B43" s="79"/>
+      <c r="C43" s="64">
+        <v>48</v>
+      </c>
+      <c r="D43" s="64">
+        <v>38</v>
+      </c>
+      <c r="E43" s="64">
+        <v>491.81299999999999</v>
+      </c>
+      <c r="F43" s="64">
+        <v>8447.5329999999994</v>
+      </c>
+      <c r="G43" s="64">
+        <v>40265.175999999999</v>
+      </c>
+      <c r="I43" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="J43" s="79"/>
+      <c r="K43" s="64">
+        <v>32</v>
+      </c>
+      <c r="L43" s="64">
+        <v>40</v>
+      </c>
+      <c r="M43" s="64">
+        <v>852.11</v>
+      </c>
+      <c r="N43" s="64">
+        <v>15470.380999999999</v>
+      </c>
+      <c r="O43" s="64">
+        <v>37092.027999999998</v>
+      </c>
+      <c r="P43" s="64">
+        <v>3739.1509999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B44" s="79"/>
+      <c r="C44" s="64">
+        <v>48</v>
+      </c>
+      <c r="D44" s="64">
+        <v>44</v>
+      </c>
+      <c r="E44" s="64">
+        <v>471.81900000000002</v>
+      </c>
+      <c r="F44" s="64">
+        <v>8315.5849999999991</v>
+      </c>
+      <c r="G44" s="64">
+        <v>39636.254000000001</v>
+      </c>
+      <c r="I44" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="J44" s="79"/>
+      <c r="K44" s="64">
+        <v>32</v>
+      </c>
+      <c r="L44" s="64">
+        <v>40</v>
+      </c>
+      <c r="M44" s="64">
+        <v>873.70600000000002</v>
+      </c>
+      <c r="N44" s="64">
+        <v>15995.545</v>
+      </c>
+      <c r="O44" s="64">
+        <v>39659.572</v>
+      </c>
+      <c r="P44" s="64">
+        <v>3621.4549999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="79"/>
+      <c r="C45" s="64">
+        <v>48</v>
+      </c>
+      <c r="D45" s="64">
+        <v>38</v>
+      </c>
+      <c r="E45" s="64">
+        <v>510.54700000000003</v>
+      </c>
+      <c r="F45" s="64">
+        <v>8987.09</v>
+      </c>
+      <c r="G45" s="64">
+        <v>42836.974999999999</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="J45" s="79"/>
+      <c r="K45" s="64">
+        <v>32</v>
+      </c>
+      <c r="L45" s="64">
+        <v>40</v>
+      </c>
+      <c r="M45" s="64">
+        <v>839.72199999999998</v>
+      </c>
+      <c r="N45" s="64">
+        <v>15339.581</v>
+      </c>
+      <c r="O45" s="64">
+        <v>36999.857000000004</v>
+      </c>
+      <c r="P45" s="64">
+        <v>3324.4520000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="79"/>
+      <c r="C46" s="64">
+        <v>48</v>
+      </c>
+      <c r="D46" s="64">
+        <v>38</v>
+      </c>
+      <c r="E46" s="64">
+        <v>466.26900000000001</v>
+      </c>
+      <c r="F46" s="64">
+        <v>8638.5889999999999</v>
+      </c>
+      <c r="G46" s="64">
+        <v>44749.88</v>
+      </c>
+      <c r="I46" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="J46" s="79"/>
+      <c r="K46" s="64">
+        <v>32</v>
+      </c>
+      <c r="L46" s="64">
+        <v>40</v>
+      </c>
+      <c r="M46" s="64">
+        <v>873.08100000000002</v>
+      </c>
+      <c r="N46" s="64">
+        <v>14669.789000000001</v>
+      </c>
+      <c r="O46" s="64">
+        <v>36372.474000000002</v>
+      </c>
+      <c r="P46" s="64">
+        <v>3378.7449999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16">
+      <c r="A47" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="79"/>
+      <c r="C47" s="64">
+        <v>48</v>
+      </c>
+      <c r="D47" s="64">
+        <v>38</v>
+      </c>
+      <c r="E47" s="64">
+        <v>492.79</v>
+      </c>
+      <c r="F47" s="64">
+        <v>8555.9320000000007</v>
+      </c>
+      <c r="G47" s="64">
+        <v>44321.697999999997</v>
+      </c>
+      <c r="I47" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="J47" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
+    </row>
+    <row r="48" spans="1:16" ht="16">
+      <c r="A48" s="66" t="s">
+        <v>157</v>
+      </c>
+      <c r="B48" s="81" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="I48" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
+    </row>
+    <row r="49" spans="1:10" ht="16">
+      <c r="A49" s="66" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
+    </row>
+    <row r="50" spans="1:10" ht="37.5" customHeight="1">
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="I50" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" s="84"/>
+    </row>
+    <row r="51" spans="1:10" ht="33" customHeight="1">
+      <c r="A51" s="84" t="s">
+        <v>170</v>
+      </c>
+      <c r="B51" s="84"/>
+    </row>
+    <row r="54" spans="1:10" ht="33.75" customHeight="1">
+      <c r="C54" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="C55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="89">
+        <f>D7</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="C56" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="89">
+        <f>L8</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="C57" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57" s="89">
+        <f>D35</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="C58" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D58" s="89">
+        <f>L34</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="C59" s="69" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="70">
+        <f>SUM(D55:D58)</f>
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="93">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A28:G29"/>
+    <mergeCell ref="I28:P29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="I1:O2"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="I3:O4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="I5:J7"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -82053,26 +84403,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -82190,7 +84540,8 @@
         <v>0</v>
       </c>
       <c r="G5" s="7">
-        <v>0</v>
+        <f>'Rail Pssgr'!D59</f>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -82246,8 +84597,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -82255,15 +84606,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/trans/SYVbT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Mexico\eps-mexico\InputData\trans\SYVbT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47EBAC5F-808C-2046-B2FF-F347924DD860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCB8426-519F-4FCC-AD98-3363CB579E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9360" yWindow="500" windowWidth="24240" windowHeight="18640" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="610" windowWidth="17490" windowHeight="13480" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="196">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -779,6 +779,9 @@
   </si>
   <si>
     <t>hydrogen vehicle</t>
+  </si>
+  <si>
+    <t>This is too high, estimated ships are 2% of this</t>
   </si>
 </sst>
 </file>
@@ -2094,6 +2097,15 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2106,11 +2118,23 @@
     <xf numFmtId="0" fontId="39" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2119,27 +2143,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2262,7 +2265,7 @@
     <cellStyle name="Note 2 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
     <cellStyle name="Output 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
     <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Per cent" xfId="141" builtinId="5"/>
+    <cellStyle name="Percent" xfId="141" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
     <cellStyle name="Percent 2 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
     <cellStyle name="Percent 3" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
@@ -2439,73 +2442,9 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
-      <sheetName val="Average Car Prices"/>
-      <sheetName val="CarPrice Data"/>
-      <sheetName val="Mexico-Christopher"/>
-      <sheetName val="AEO 39"/>
-      <sheetName val="AEO 43"/>
-      <sheetName val="AEO 53"/>
-      <sheetName val="LDV Shares"/>
-      <sheetName val="Conventional Daycab Trucks"/>
-      <sheetName val="Conventional Sleeper Trucks"/>
-      <sheetName val="Passenger Aircraft"/>
-      <sheetName val="Ships"/>
-      <sheetName val="Motorbikes"/>
-      <sheetName val="BNVP-LDVs-psgr"/>
-      <sheetName val="BNVP-LDVs-frgt"/>
-      <sheetName val="BNVP-HDVs-psgr"/>
-      <sheetName val="BNVP-HDVs-frgt"/>
-      <sheetName val="BNVP-aircraft-psgr"/>
-      <sheetName val="BNVP-aircraft-frgt"/>
-      <sheetName val="BNVP-rail-psgr"/>
-      <sheetName val="BNVP-rail-frgt"/>
-      <sheetName val="BNVP-ships-psgr"/>
-      <sheetName val="BNVP-ships-frgt"/>
-      <sheetName val="BNVP-motorbikes-psgr"/>
-      <sheetName val="BNVP-motorbikes-frgt"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="110">
-          <cell r="A110">
-            <v>0.97099999999999997</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>0.98699999999999999</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>0.95299999999999996</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2919,9 +2858,9 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="73.1640625" customWidth="1"/>
+    <col min="2" max="2" width="73.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3106,66 +3045,66 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="5" max="5" width="16.453125" customWidth="1"/>
+    <col min="6" max="6" width="13.81640625" customWidth="1"/>
+    <col min="7" max="7" width="3.453125" customWidth="1"/>
     <col min="8" max="8" width="4" customWidth="1"/>
-    <col min="9" max="9" width="17.5" customWidth="1"/>
-    <col min="10" max="10" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="3.5" customWidth="1"/>
-    <col min="12" max="92" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="13.5" customWidth="1"/>
-    <col min="94" max="94" width="7.83203125" customWidth="1"/>
-    <col min="95" max="95" width="23.83203125" customWidth="1"/>
-    <col min="96" max="156" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="3.453125" customWidth="1"/>
+    <col min="12" max="92" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="13.453125" customWidth="1"/>
+    <col min="94" max="94" width="7.81640625" customWidth="1"/>
+    <col min="95" max="95" width="23.81640625" customWidth="1"/>
+    <col min="96" max="156" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="158" max="158" width="4" customWidth="1"/>
-    <col min="159" max="159" width="17.5" customWidth="1"/>
-    <col min="160" max="160" width="15.1640625" customWidth="1"/>
-    <col min="161" max="161" width="17.1640625" customWidth="1"/>
-    <col min="162" max="242" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="243" max="243" width="13.5" customWidth="1"/>
-    <col min="244" max="244" width="7.83203125" customWidth="1"/>
-    <col min="245" max="245" width="23.83203125" customWidth="1"/>
-    <col min="246" max="306" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="307" max="307" width="13.5" customWidth="1"/>
-    <col min="308" max="308" width="7.83203125" customWidth="1"/>
-    <col min="309" max="309" width="23.83203125" customWidth="1"/>
-    <col min="310" max="370" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="371" max="371" width="13.5" customWidth="1"/>
-    <col min="372" max="372" width="7.83203125" customWidth="1"/>
-    <col min="373" max="373" width="23.83203125" customWidth="1"/>
-    <col min="374" max="434" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="435" max="435" width="13.5" customWidth="1"/>
-    <col min="436" max="436" width="7.83203125" customWidth="1"/>
-    <col min="437" max="437" width="23.83203125" customWidth="1"/>
-    <col min="438" max="498" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="17.453125" customWidth="1"/>
+    <col min="160" max="160" width="15.1796875" customWidth="1"/>
+    <col min="161" max="161" width="17.1796875" customWidth="1"/>
+    <col min="162" max="242" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="243" max="243" width="13.453125" customWidth="1"/>
+    <col min="244" max="244" width="7.81640625" customWidth="1"/>
+    <col min="245" max="245" width="23.81640625" customWidth="1"/>
+    <col min="246" max="306" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="307" max="307" width="13.453125" customWidth="1"/>
+    <col min="308" max="308" width="7.81640625" customWidth="1"/>
+    <col min="309" max="309" width="23.81640625" customWidth="1"/>
+    <col min="310" max="370" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="371" max="371" width="13.453125" customWidth="1"/>
+    <col min="372" max="372" width="7.81640625" customWidth="1"/>
+    <col min="373" max="373" width="23.81640625" customWidth="1"/>
+    <col min="374" max="434" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="435" max="435" width="13.453125" customWidth="1"/>
+    <col min="436" max="436" width="7.81640625" customWidth="1"/>
+    <col min="437" max="437" width="23.81640625" customWidth="1"/>
+    <col min="438" max="498" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="499" max="499" width="4" customWidth="1"/>
-    <col min="500" max="500" width="17.5" customWidth="1"/>
-    <col min="501" max="501" width="15.1640625" customWidth="1"/>
-    <col min="502" max="502" width="17.1640625" customWidth="1"/>
-    <col min="503" max="583" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="584" max="584" width="13.5" customWidth="1"/>
-    <col min="585" max="585" width="7.83203125" customWidth="1"/>
-    <col min="586" max="586" width="23.83203125" customWidth="1"/>
-    <col min="587" max="647" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="648" max="648" width="13.5" customWidth="1"/>
-    <col min="649" max="649" width="7.83203125" customWidth="1"/>
-    <col min="650" max="650" width="23.83203125" customWidth="1"/>
-    <col min="651" max="711" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="712" max="712" width="13.5" customWidth="1"/>
-    <col min="713" max="713" width="7.83203125" customWidth="1"/>
-    <col min="714" max="714" width="23.83203125" customWidth="1"/>
-    <col min="715" max="775" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="776" max="776" width="13.5" customWidth="1"/>
-    <col min="777" max="777" width="7.83203125" customWidth="1"/>
-    <col min="778" max="778" width="23.83203125" customWidth="1"/>
-    <col min="779" max="839" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="500" max="500" width="17.453125" customWidth="1"/>
+    <col min="501" max="501" width="15.1796875" customWidth="1"/>
+    <col min="502" max="502" width="17.1796875" customWidth="1"/>
+    <col min="503" max="583" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="584" max="584" width="13.453125" customWidth="1"/>
+    <col min="585" max="585" width="7.81640625" customWidth="1"/>
+    <col min="586" max="586" width="23.81640625" customWidth="1"/>
+    <col min="587" max="647" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="648" max="648" width="13.453125" customWidth="1"/>
+    <col min="649" max="649" width="7.81640625" customWidth="1"/>
+    <col min="650" max="650" width="23.81640625" customWidth="1"/>
+    <col min="651" max="711" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="712" max="712" width="13.453125" customWidth="1"/>
+    <col min="713" max="713" width="7.81640625" customWidth="1"/>
+    <col min="714" max="714" width="23.81640625" customWidth="1"/>
+    <col min="715" max="775" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="13.453125" customWidth="1"/>
+    <col min="777" max="777" width="7.81640625" customWidth="1"/>
+    <col min="778" max="778" width="23.81640625" customWidth="1"/>
+    <col min="779" max="839" width="5.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:839">
@@ -3189,7 +3128,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:839" ht="29">
+    <row r="4" spans="1:839" ht="28.5">
       <c r="C4">
         <f>HC6</f>
         <v>2019</v>
@@ -3199,862 +3138,862 @@
         <v>2019</v>
       </c>
       <c r="F4" s="36"/>
-      <c r="H4" s="75" t="s">
+      <c r="H4" s="72" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
-      <c r="U4" s="75"/>
-      <c r="V4" s="75"/>
-      <c r="W4" s="75"/>
-      <c r="X4" s="75"/>
-      <c r="Y4" s="75"/>
-      <c r="Z4" s="75"/>
-      <c r="AA4" s="75"/>
-      <c r="AB4" s="75"/>
-      <c r="AC4" s="75"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
-      <c r="AI4" s="75"/>
-      <c r="AJ4" s="75"/>
-      <c r="AK4" s="75"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="75"/>
-      <c r="AN4" s="75"/>
-      <c r="AO4" s="75"/>
-      <c r="AP4" s="75"/>
-      <c r="AQ4" s="75"/>
-      <c r="AR4" s="75"/>
-      <c r="AS4" s="75"/>
-      <c r="AT4" s="75"/>
-      <c r="AU4" s="75"/>
-      <c r="AV4" s="75"/>
-      <c r="AW4" s="75"/>
-      <c r="AX4" s="75"/>
-      <c r="AY4" s="75"/>
-      <c r="AZ4" s="75"/>
-      <c r="BA4" s="75"/>
-      <c r="BB4" s="75"/>
-      <c r="BC4" s="75"/>
-      <c r="BD4" s="75"/>
-      <c r="BE4" s="75"/>
-      <c r="BF4" s="75"/>
-      <c r="BG4" s="75"/>
-      <c r="BH4" s="75"/>
-      <c r="BI4" s="75"/>
-      <c r="BJ4" s="75"/>
-      <c r="BK4" s="75"/>
-      <c r="BL4" s="75"/>
-      <c r="BM4" s="75"/>
-      <c r="BN4" s="75"/>
-      <c r="BO4" s="75"/>
-      <c r="BP4" s="75"/>
-      <c r="BQ4" s="75"/>
-      <c r="BR4" s="75"/>
-      <c r="BS4" s="75"/>
-      <c r="BT4" s="75"/>
-      <c r="BU4" s="75"/>
-      <c r="BV4" s="75"/>
-      <c r="BW4" s="75"/>
-      <c r="BX4" s="75"/>
-      <c r="BY4" s="75"/>
-      <c r="BZ4" s="75"/>
-      <c r="CA4" s="75"/>
-      <c r="CB4" s="75"/>
-      <c r="CC4" s="75"/>
-      <c r="CD4" s="75"/>
-      <c r="CE4" s="75"/>
-      <c r="CF4" s="75"/>
-      <c r="CG4" s="75"/>
-      <c r="CH4" s="75"/>
-      <c r="CI4" s="75"/>
-      <c r="CJ4" s="75"/>
-      <c r="CK4" s="75"/>
-      <c r="CL4" s="75"/>
-      <c r="CM4" s="75"/>
-      <c r="CN4" s="75"/>
-      <c r="CO4" s="75" t="s">
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
+      <c r="M4" s="72"/>
+      <c r="N4" s="72"/>
+      <c r="O4" s="72"/>
+      <c r="P4" s="72"/>
+      <c r="Q4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="72"/>
+      <c r="AO4" s="72"/>
+      <c r="AP4" s="72"/>
+      <c r="AQ4" s="72"/>
+      <c r="AR4" s="72"/>
+      <c r="AS4" s="72"/>
+      <c r="AT4" s="72"/>
+      <c r="AU4" s="72"/>
+      <c r="AV4" s="72"/>
+      <c r="AW4" s="72"/>
+      <c r="AX4" s="72"/>
+      <c r="AY4" s="72"/>
+      <c r="AZ4" s="72"/>
+      <c r="BA4" s="72"/>
+      <c r="BB4" s="72"/>
+      <c r="BC4" s="72"/>
+      <c r="BD4" s="72"/>
+      <c r="BE4" s="72"/>
+      <c r="BF4" s="72"/>
+      <c r="BG4" s="72"/>
+      <c r="BH4" s="72"/>
+      <c r="BI4" s="72"/>
+      <c r="BJ4" s="72"/>
+      <c r="BK4" s="72"/>
+      <c r="BL4" s="72"/>
+      <c r="BM4" s="72"/>
+      <c r="BN4" s="72"/>
+      <c r="BO4" s="72"/>
+      <c r="BP4" s="72"/>
+      <c r="BQ4" s="72"/>
+      <c r="BR4" s="72"/>
+      <c r="BS4" s="72"/>
+      <c r="BT4" s="72"/>
+      <c r="BU4" s="72"/>
+      <c r="BV4" s="72"/>
+      <c r="BW4" s="72"/>
+      <c r="BX4" s="72"/>
+      <c r="BY4" s="72"/>
+      <c r="BZ4" s="72"/>
+      <c r="CA4" s="72"/>
+      <c r="CB4" s="72"/>
+      <c r="CC4" s="72"/>
+      <c r="CD4" s="72"/>
+      <c r="CE4" s="72"/>
+      <c r="CF4" s="72"/>
+      <c r="CG4" s="72"/>
+      <c r="CH4" s="72"/>
+      <c r="CI4" s="72"/>
+      <c r="CJ4" s="72"/>
+      <c r="CK4" s="72"/>
+      <c r="CL4" s="72"/>
+      <c r="CM4" s="72"/>
+      <c r="CN4" s="72"/>
+      <c r="CO4" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="CP4" s="75"/>
-      <c r="CQ4" s="75"/>
-      <c r="CR4" s="75"/>
-      <c r="CS4" s="75"/>
-      <c r="CT4" s="75"/>
-      <c r="CU4" s="75"/>
-      <c r="CV4" s="75"/>
-      <c r="CW4" s="75"/>
-      <c r="CX4" s="75"/>
-      <c r="CY4" s="75"/>
-      <c r="CZ4" s="75"/>
-      <c r="DA4" s="75"/>
-      <c r="DB4" s="75"/>
-      <c r="DC4" s="75"/>
-      <c r="DD4" s="75"/>
-      <c r="DE4" s="75"/>
-      <c r="DF4" s="75"/>
-      <c r="DG4" s="75"/>
-      <c r="DH4" s="75"/>
-      <c r="DI4" s="75"/>
-      <c r="DJ4" s="75"/>
-      <c r="DK4" s="75"/>
-      <c r="DL4" s="75"/>
-      <c r="DM4" s="75"/>
-      <c r="DN4" s="75"/>
-      <c r="DO4" s="75"/>
-      <c r="DP4" s="75"/>
-      <c r="DQ4" s="75"/>
-      <c r="DR4" s="75"/>
-      <c r="DS4" s="75"/>
-      <c r="DT4" s="75"/>
-      <c r="DU4" s="75"/>
-      <c r="DV4" s="75"/>
-      <c r="DW4" s="75"/>
-      <c r="DX4" s="75"/>
-      <c r="DY4" s="75"/>
-      <c r="DZ4" s="75"/>
-      <c r="EA4" s="75"/>
-      <c r="EB4" s="75"/>
-      <c r="EC4" s="75"/>
-      <c r="ED4" s="75"/>
-      <c r="EE4" s="75"/>
-      <c r="EF4" s="75"/>
-      <c r="EG4" s="75"/>
-      <c r="EH4" s="75"/>
-      <c r="EI4" s="75"/>
-      <c r="EJ4" s="75"/>
-      <c r="EK4" s="75"/>
-      <c r="EL4" s="75"/>
-      <c r="EM4" s="75"/>
-      <c r="EN4" s="75"/>
-      <c r="EO4" s="75"/>
-      <c r="EP4" s="75"/>
-      <c r="EQ4" s="75"/>
-      <c r="ER4" s="75"/>
-      <c r="ES4" s="75"/>
-      <c r="ET4" s="75"/>
-      <c r="EU4" s="75"/>
-      <c r="EV4" s="75"/>
-      <c r="EW4" s="75"/>
-      <c r="EX4" s="75"/>
-      <c r="EY4" s="75"/>
-      <c r="EZ4" s="75"/>
-      <c r="FA4" s="74" t="s">
+      <c r="CP4" s="72"/>
+      <c r="CQ4" s="72"/>
+      <c r="CR4" s="72"/>
+      <c r="CS4" s="72"/>
+      <c r="CT4" s="72"/>
+      <c r="CU4" s="72"/>
+      <c r="CV4" s="72"/>
+      <c r="CW4" s="72"/>
+      <c r="CX4" s="72"/>
+      <c r="CY4" s="72"/>
+      <c r="CZ4" s="72"/>
+      <c r="DA4" s="72"/>
+      <c r="DB4" s="72"/>
+      <c r="DC4" s="72"/>
+      <c r="DD4" s="72"/>
+      <c r="DE4" s="72"/>
+      <c r="DF4" s="72"/>
+      <c r="DG4" s="72"/>
+      <c r="DH4" s="72"/>
+      <c r="DI4" s="72"/>
+      <c r="DJ4" s="72"/>
+      <c r="DK4" s="72"/>
+      <c r="DL4" s="72"/>
+      <c r="DM4" s="72"/>
+      <c r="DN4" s="72"/>
+      <c r="DO4" s="72"/>
+      <c r="DP4" s="72"/>
+      <c r="DQ4" s="72"/>
+      <c r="DR4" s="72"/>
+      <c r="DS4" s="72"/>
+      <c r="DT4" s="72"/>
+      <c r="DU4" s="72"/>
+      <c r="DV4" s="72"/>
+      <c r="DW4" s="72"/>
+      <c r="DX4" s="72"/>
+      <c r="DY4" s="72"/>
+      <c r="DZ4" s="72"/>
+      <c r="EA4" s="72"/>
+      <c r="EB4" s="72"/>
+      <c r="EC4" s="72"/>
+      <c r="ED4" s="72"/>
+      <c r="EE4" s="72"/>
+      <c r="EF4" s="72"/>
+      <c r="EG4" s="72"/>
+      <c r="EH4" s="72"/>
+      <c r="EI4" s="72"/>
+      <c r="EJ4" s="72"/>
+      <c r="EK4" s="72"/>
+      <c r="EL4" s="72"/>
+      <c r="EM4" s="72"/>
+      <c r="EN4" s="72"/>
+      <c r="EO4" s="72"/>
+      <c r="EP4" s="72"/>
+      <c r="EQ4" s="72"/>
+      <c r="ER4" s="72"/>
+      <c r="ES4" s="72"/>
+      <c r="ET4" s="72"/>
+      <c r="EU4" s="72"/>
+      <c r="EV4" s="72"/>
+      <c r="EW4" s="72"/>
+      <c r="EX4" s="72"/>
+      <c r="EY4" s="72"/>
+      <c r="EZ4" s="72"/>
+      <c r="FA4" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="FB4" s="74"/>
-      <c r="FC4" s="74"/>
-      <c r="FD4" s="74"/>
-      <c r="FE4" s="74"/>
-      <c r="FF4" s="74"/>
-      <c r="FG4" s="74"/>
-      <c r="FH4" s="74"/>
-      <c r="FI4" s="74"/>
-      <c r="FJ4" s="74"/>
-      <c r="FK4" s="74"/>
-      <c r="FL4" s="74"/>
-      <c r="FM4" s="74"/>
-      <c r="FN4" s="74"/>
-      <c r="FO4" s="74"/>
-      <c r="FP4" s="74"/>
-      <c r="FQ4" s="74"/>
-      <c r="FR4" s="74"/>
-      <c r="FS4" s="74"/>
-      <c r="FT4" s="74"/>
-      <c r="FU4" s="74"/>
-      <c r="FV4" s="74"/>
-      <c r="FW4" s="74"/>
-      <c r="FX4" s="74"/>
-      <c r="FY4" s="74"/>
-      <c r="FZ4" s="74"/>
-      <c r="GA4" s="74"/>
-      <c r="GB4" s="74"/>
-      <c r="GC4" s="74"/>
-      <c r="GD4" s="74"/>
-      <c r="GE4" s="74"/>
-      <c r="GF4" s="74"/>
-      <c r="GG4" s="74"/>
-      <c r="GH4" s="74"/>
-      <c r="GI4" s="74"/>
-      <c r="GJ4" s="74"/>
-      <c r="GK4" s="74"/>
-      <c r="GL4" s="74"/>
-      <c r="GM4" s="74"/>
-      <c r="GN4" s="74"/>
-      <c r="GO4" s="74"/>
-      <c r="GP4" s="74"/>
-      <c r="GQ4" s="74"/>
-      <c r="GR4" s="74"/>
-      <c r="GS4" s="74"/>
-      <c r="GT4" s="74"/>
-      <c r="GU4" s="74"/>
-      <c r="GV4" s="74"/>
-      <c r="GW4" s="74"/>
-      <c r="GX4" s="74"/>
-      <c r="GY4" s="74"/>
-      <c r="GZ4" s="74"/>
-      <c r="HA4" s="74"/>
-      <c r="HB4" s="74"/>
-      <c r="HC4" s="74"/>
-      <c r="HD4" s="74"/>
-      <c r="HE4" s="74"/>
-      <c r="HF4" s="74"/>
-      <c r="HG4" s="74"/>
-      <c r="HH4" s="74"/>
-      <c r="HI4" s="74"/>
-      <c r="HJ4" s="74"/>
-      <c r="HK4" s="74"/>
-      <c r="HL4" s="74"/>
-      <c r="HM4" s="74"/>
-      <c r="HN4" s="74"/>
-      <c r="HO4" s="74"/>
-      <c r="HP4" s="74"/>
-      <c r="HQ4" s="74"/>
-      <c r="HR4" s="74"/>
-      <c r="HS4" s="74"/>
-      <c r="HT4" s="74"/>
-      <c r="HU4" s="74"/>
-      <c r="HV4" s="74"/>
-      <c r="HW4" s="74"/>
-      <c r="HX4" s="74"/>
-      <c r="HY4" s="74"/>
-      <c r="HZ4" s="74"/>
-      <c r="IA4" s="74"/>
-      <c r="IB4" s="74"/>
-      <c r="IC4" s="74"/>
-      <c r="ID4" s="74"/>
-      <c r="IE4" s="74"/>
-      <c r="IF4" s="74"/>
-      <c r="IG4" s="74"/>
-      <c r="IH4" s="74"/>
-      <c r="II4" s="75" t="s">
+      <c r="FB4" s="71"/>
+      <c r="FC4" s="71"/>
+      <c r="FD4" s="71"/>
+      <c r="FE4" s="71"/>
+      <c r="FF4" s="71"/>
+      <c r="FG4" s="71"/>
+      <c r="FH4" s="71"/>
+      <c r="FI4" s="71"/>
+      <c r="FJ4" s="71"/>
+      <c r="FK4" s="71"/>
+      <c r="FL4" s="71"/>
+      <c r="FM4" s="71"/>
+      <c r="FN4" s="71"/>
+      <c r="FO4" s="71"/>
+      <c r="FP4" s="71"/>
+      <c r="FQ4" s="71"/>
+      <c r="FR4" s="71"/>
+      <c r="FS4" s="71"/>
+      <c r="FT4" s="71"/>
+      <c r="FU4" s="71"/>
+      <c r="FV4" s="71"/>
+      <c r="FW4" s="71"/>
+      <c r="FX4" s="71"/>
+      <c r="FY4" s="71"/>
+      <c r="FZ4" s="71"/>
+      <c r="GA4" s="71"/>
+      <c r="GB4" s="71"/>
+      <c r="GC4" s="71"/>
+      <c r="GD4" s="71"/>
+      <c r="GE4" s="71"/>
+      <c r="GF4" s="71"/>
+      <c r="GG4" s="71"/>
+      <c r="GH4" s="71"/>
+      <c r="GI4" s="71"/>
+      <c r="GJ4" s="71"/>
+      <c r="GK4" s="71"/>
+      <c r="GL4" s="71"/>
+      <c r="GM4" s="71"/>
+      <c r="GN4" s="71"/>
+      <c r="GO4" s="71"/>
+      <c r="GP4" s="71"/>
+      <c r="GQ4" s="71"/>
+      <c r="GR4" s="71"/>
+      <c r="GS4" s="71"/>
+      <c r="GT4" s="71"/>
+      <c r="GU4" s="71"/>
+      <c r="GV4" s="71"/>
+      <c r="GW4" s="71"/>
+      <c r="GX4" s="71"/>
+      <c r="GY4" s="71"/>
+      <c r="GZ4" s="71"/>
+      <c r="HA4" s="71"/>
+      <c r="HB4" s="71"/>
+      <c r="HC4" s="71"/>
+      <c r="HD4" s="71"/>
+      <c r="HE4" s="71"/>
+      <c r="HF4" s="71"/>
+      <c r="HG4" s="71"/>
+      <c r="HH4" s="71"/>
+      <c r="HI4" s="71"/>
+      <c r="HJ4" s="71"/>
+      <c r="HK4" s="71"/>
+      <c r="HL4" s="71"/>
+      <c r="HM4" s="71"/>
+      <c r="HN4" s="71"/>
+      <c r="HO4" s="71"/>
+      <c r="HP4" s="71"/>
+      <c r="HQ4" s="71"/>
+      <c r="HR4" s="71"/>
+      <c r="HS4" s="71"/>
+      <c r="HT4" s="71"/>
+      <c r="HU4" s="71"/>
+      <c r="HV4" s="71"/>
+      <c r="HW4" s="71"/>
+      <c r="HX4" s="71"/>
+      <c r="HY4" s="71"/>
+      <c r="HZ4" s="71"/>
+      <c r="IA4" s="71"/>
+      <c r="IB4" s="71"/>
+      <c r="IC4" s="71"/>
+      <c r="ID4" s="71"/>
+      <c r="IE4" s="71"/>
+      <c r="IF4" s="71"/>
+      <c r="IG4" s="71"/>
+      <c r="IH4" s="71"/>
+      <c r="II4" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="IJ4" s="75"/>
-      <c r="IK4" s="75"/>
-      <c r="IL4" s="75"/>
-      <c r="IM4" s="75"/>
-      <c r="IN4" s="75"/>
-      <c r="IO4" s="75"/>
-      <c r="IP4" s="75"/>
-      <c r="IQ4" s="75"/>
-      <c r="IR4" s="75"/>
-      <c r="IS4" s="75"/>
-      <c r="IT4" s="75"/>
-      <c r="IU4" s="75"/>
-      <c r="IV4" s="75"/>
-      <c r="IW4" s="75"/>
-      <c r="IX4" s="75"/>
-      <c r="IY4" s="75"/>
-      <c r="IZ4" s="75"/>
-      <c r="JA4" s="75"/>
-      <c r="JB4" s="75"/>
-      <c r="JC4" s="75"/>
-      <c r="JD4" s="75"/>
-      <c r="JE4" s="75"/>
-      <c r="JF4" s="75"/>
-      <c r="JG4" s="75"/>
-      <c r="JH4" s="75"/>
-      <c r="JI4" s="75"/>
-      <c r="JJ4" s="75"/>
-      <c r="JK4" s="75"/>
-      <c r="JL4" s="75"/>
-      <c r="JM4" s="75"/>
-      <c r="JN4" s="75"/>
-      <c r="JO4" s="75"/>
-      <c r="JP4" s="75"/>
-      <c r="JQ4" s="75"/>
-      <c r="JR4" s="75"/>
-      <c r="JS4" s="75"/>
-      <c r="JT4" s="75"/>
-      <c r="JU4" s="75"/>
-      <c r="JV4" s="75"/>
-      <c r="JW4" s="75"/>
-      <c r="JX4" s="75"/>
-      <c r="JY4" s="75"/>
-      <c r="JZ4" s="75"/>
-      <c r="KA4" s="75"/>
-      <c r="KB4" s="75"/>
-      <c r="KC4" s="75"/>
-      <c r="KD4" s="75"/>
-      <c r="KE4" s="75"/>
-      <c r="KF4" s="75"/>
-      <c r="KG4" s="75"/>
-      <c r="KH4" s="75"/>
-      <c r="KI4" s="75"/>
-      <c r="KJ4" s="75"/>
-      <c r="KK4" s="75"/>
-      <c r="KL4" s="75"/>
-      <c r="KM4" s="75"/>
-      <c r="KN4" s="75"/>
-      <c r="KO4" s="75"/>
-      <c r="KP4" s="75"/>
-      <c r="KQ4" s="75"/>
-      <c r="KR4" s="75"/>
-      <c r="KS4" s="75"/>
-      <c r="KT4" s="75"/>
-      <c r="KU4" s="74" t="s">
+      <c r="IJ4" s="72"/>
+      <c r="IK4" s="72"/>
+      <c r="IL4" s="72"/>
+      <c r="IM4" s="72"/>
+      <c r="IN4" s="72"/>
+      <c r="IO4" s="72"/>
+      <c r="IP4" s="72"/>
+      <c r="IQ4" s="72"/>
+      <c r="IR4" s="72"/>
+      <c r="IS4" s="72"/>
+      <c r="IT4" s="72"/>
+      <c r="IU4" s="72"/>
+      <c r="IV4" s="72"/>
+      <c r="IW4" s="72"/>
+      <c r="IX4" s="72"/>
+      <c r="IY4" s="72"/>
+      <c r="IZ4" s="72"/>
+      <c r="JA4" s="72"/>
+      <c r="JB4" s="72"/>
+      <c r="JC4" s="72"/>
+      <c r="JD4" s="72"/>
+      <c r="JE4" s="72"/>
+      <c r="JF4" s="72"/>
+      <c r="JG4" s="72"/>
+      <c r="JH4" s="72"/>
+      <c r="JI4" s="72"/>
+      <c r="JJ4" s="72"/>
+      <c r="JK4" s="72"/>
+      <c r="JL4" s="72"/>
+      <c r="JM4" s="72"/>
+      <c r="JN4" s="72"/>
+      <c r="JO4" s="72"/>
+      <c r="JP4" s="72"/>
+      <c r="JQ4" s="72"/>
+      <c r="JR4" s="72"/>
+      <c r="JS4" s="72"/>
+      <c r="JT4" s="72"/>
+      <c r="JU4" s="72"/>
+      <c r="JV4" s="72"/>
+      <c r="JW4" s="72"/>
+      <c r="JX4" s="72"/>
+      <c r="JY4" s="72"/>
+      <c r="JZ4" s="72"/>
+      <c r="KA4" s="72"/>
+      <c r="KB4" s="72"/>
+      <c r="KC4" s="72"/>
+      <c r="KD4" s="72"/>
+      <c r="KE4" s="72"/>
+      <c r="KF4" s="72"/>
+      <c r="KG4" s="72"/>
+      <c r="KH4" s="72"/>
+      <c r="KI4" s="72"/>
+      <c r="KJ4" s="72"/>
+      <c r="KK4" s="72"/>
+      <c r="KL4" s="72"/>
+      <c r="KM4" s="72"/>
+      <c r="KN4" s="72"/>
+      <c r="KO4" s="72"/>
+      <c r="KP4" s="72"/>
+      <c r="KQ4" s="72"/>
+      <c r="KR4" s="72"/>
+      <c r="KS4" s="72"/>
+      <c r="KT4" s="72"/>
+      <c r="KU4" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="KV4" s="74"/>
-      <c r="KW4" s="74"/>
-      <c r="KX4" s="74"/>
-      <c r="KY4" s="74"/>
-      <c r="KZ4" s="74"/>
-      <c r="LA4" s="74"/>
-      <c r="LB4" s="74"/>
-      <c r="LC4" s="74"/>
-      <c r="LD4" s="74"/>
-      <c r="LE4" s="74"/>
-      <c r="LF4" s="74"/>
-      <c r="LG4" s="74"/>
-      <c r="LH4" s="74"/>
-      <c r="LI4" s="74"/>
-      <c r="LJ4" s="74"/>
-      <c r="LK4" s="74"/>
-      <c r="LL4" s="74"/>
-      <c r="LM4" s="74"/>
-      <c r="LN4" s="74"/>
-      <c r="LO4" s="74"/>
-      <c r="LP4" s="74"/>
-      <c r="LQ4" s="74"/>
-      <c r="LR4" s="74"/>
-      <c r="LS4" s="74"/>
-      <c r="LT4" s="74"/>
-      <c r="LU4" s="74"/>
-      <c r="LV4" s="74"/>
-      <c r="LW4" s="74"/>
-      <c r="LX4" s="74"/>
-      <c r="LY4" s="74"/>
-      <c r="LZ4" s="74"/>
-      <c r="MA4" s="74"/>
-      <c r="MB4" s="74"/>
-      <c r="MC4" s="74"/>
-      <c r="MD4" s="74"/>
-      <c r="ME4" s="74"/>
-      <c r="MF4" s="74"/>
-      <c r="MG4" s="74"/>
-      <c r="MH4" s="74"/>
-      <c r="MI4" s="74"/>
-      <c r="MJ4" s="74"/>
-      <c r="MK4" s="74"/>
-      <c r="ML4" s="74"/>
-      <c r="MM4" s="74"/>
-      <c r="MN4" s="74"/>
-      <c r="MO4" s="74"/>
-      <c r="MP4" s="74"/>
-      <c r="MQ4" s="74"/>
-      <c r="MR4" s="74"/>
-      <c r="MS4" s="74"/>
-      <c r="MT4" s="74"/>
-      <c r="MU4" s="74"/>
-      <c r="MV4" s="74"/>
-      <c r="MW4" s="74"/>
-      <c r="MX4" s="74"/>
-      <c r="MY4" s="74"/>
-      <c r="MZ4" s="74"/>
-      <c r="NA4" s="74"/>
-      <c r="NB4" s="74"/>
-      <c r="NC4" s="74"/>
-      <c r="ND4" s="74"/>
-      <c r="NE4" s="74"/>
-      <c r="NF4" s="74"/>
-      <c r="NG4" s="74" t="s">
+      <c r="KV4" s="71"/>
+      <c r="KW4" s="71"/>
+      <c r="KX4" s="71"/>
+      <c r="KY4" s="71"/>
+      <c r="KZ4" s="71"/>
+      <c r="LA4" s="71"/>
+      <c r="LB4" s="71"/>
+      <c r="LC4" s="71"/>
+      <c r="LD4" s="71"/>
+      <c r="LE4" s="71"/>
+      <c r="LF4" s="71"/>
+      <c r="LG4" s="71"/>
+      <c r="LH4" s="71"/>
+      <c r="LI4" s="71"/>
+      <c r="LJ4" s="71"/>
+      <c r="LK4" s="71"/>
+      <c r="LL4" s="71"/>
+      <c r="LM4" s="71"/>
+      <c r="LN4" s="71"/>
+      <c r="LO4" s="71"/>
+      <c r="LP4" s="71"/>
+      <c r="LQ4" s="71"/>
+      <c r="LR4" s="71"/>
+      <c r="LS4" s="71"/>
+      <c r="LT4" s="71"/>
+      <c r="LU4" s="71"/>
+      <c r="LV4" s="71"/>
+      <c r="LW4" s="71"/>
+      <c r="LX4" s="71"/>
+      <c r="LY4" s="71"/>
+      <c r="LZ4" s="71"/>
+      <c r="MA4" s="71"/>
+      <c r="MB4" s="71"/>
+      <c r="MC4" s="71"/>
+      <c r="MD4" s="71"/>
+      <c r="ME4" s="71"/>
+      <c r="MF4" s="71"/>
+      <c r="MG4" s="71"/>
+      <c r="MH4" s="71"/>
+      <c r="MI4" s="71"/>
+      <c r="MJ4" s="71"/>
+      <c r="MK4" s="71"/>
+      <c r="ML4" s="71"/>
+      <c r="MM4" s="71"/>
+      <c r="MN4" s="71"/>
+      <c r="MO4" s="71"/>
+      <c r="MP4" s="71"/>
+      <c r="MQ4" s="71"/>
+      <c r="MR4" s="71"/>
+      <c r="MS4" s="71"/>
+      <c r="MT4" s="71"/>
+      <c r="MU4" s="71"/>
+      <c r="MV4" s="71"/>
+      <c r="MW4" s="71"/>
+      <c r="MX4" s="71"/>
+      <c r="MY4" s="71"/>
+      <c r="MZ4" s="71"/>
+      <c r="NA4" s="71"/>
+      <c r="NB4" s="71"/>
+      <c r="NC4" s="71"/>
+      <c r="ND4" s="71"/>
+      <c r="NE4" s="71"/>
+      <c r="NF4" s="71"/>
+      <c r="NG4" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="NH4" s="74"/>
-      <c r="NI4" s="74"/>
-      <c r="NJ4" s="74"/>
-      <c r="NK4" s="74"/>
-      <c r="NL4" s="74"/>
-      <c r="NM4" s="74"/>
-      <c r="NN4" s="74"/>
-      <c r="NO4" s="74"/>
-      <c r="NP4" s="74"/>
-      <c r="NQ4" s="74"/>
-      <c r="NR4" s="74"/>
-      <c r="NS4" s="74"/>
-      <c r="NT4" s="74"/>
-      <c r="NU4" s="74"/>
-      <c r="NV4" s="74"/>
-      <c r="NW4" s="74"/>
-      <c r="NX4" s="74"/>
-      <c r="NY4" s="74"/>
-      <c r="NZ4" s="74"/>
-      <c r="OA4" s="74"/>
-      <c r="OB4" s="74"/>
-      <c r="OC4" s="74"/>
-      <c r="OD4" s="74"/>
-      <c r="OE4" s="74"/>
-      <c r="OF4" s="74"/>
-      <c r="OG4" s="74"/>
-      <c r="OH4" s="74"/>
-      <c r="OI4" s="74"/>
-      <c r="OJ4" s="74"/>
-      <c r="OK4" s="74"/>
-      <c r="OL4" s="74"/>
-      <c r="OM4" s="74"/>
-      <c r="ON4" s="74"/>
-      <c r="OO4" s="74"/>
-      <c r="OP4" s="74"/>
-      <c r="OQ4" s="74"/>
-      <c r="OR4" s="74"/>
-      <c r="OS4" s="74"/>
-      <c r="OT4" s="74"/>
-      <c r="OU4" s="74"/>
-      <c r="OV4" s="74"/>
-      <c r="OW4" s="74"/>
-      <c r="OX4" s="74"/>
-      <c r="OY4" s="74"/>
-      <c r="OZ4" s="74"/>
-      <c r="PA4" s="74"/>
-      <c r="PB4" s="74"/>
-      <c r="PC4" s="74"/>
-      <c r="PD4" s="74"/>
-      <c r="PE4" s="74"/>
-      <c r="PF4" s="74"/>
-      <c r="PG4" s="74"/>
-      <c r="PH4" s="74"/>
-      <c r="PI4" s="74"/>
-      <c r="PJ4" s="74"/>
-      <c r="PK4" s="74"/>
-      <c r="PL4" s="74"/>
-      <c r="PM4" s="74"/>
-      <c r="PN4" s="74"/>
-      <c r="PO4" s="74"/>
-      <c r="PP4" s="74"/>
-      <c r="PQ4" s="74"/>
-      <c r="PR4" s="74"/>
-      <c r="PS4" s="74" t="s">
+      <c r="NH4" s="71"/>
+      <c r="NI4" s="71"/>
+      <c r="NJ4" s="71"/>
+      <c r="NK4" s="71"/>
+      <c r="NL4" s="71"/>
+      <c r="NM4" s="71"/>
+      <c r="NN4" s="71"/>
+      <c r="NO4" s="71"/>
+      <c r="NP4" s="71"/>
+      <c r="NQ4" s="71"/>
+      <c r="NR4" s="71"/>
+      <c r="NS4" s="71"/>
+      <c r="NT4" s="71"/>
+      <c r="NU4" s="71"/>
+      <c r="NV4" s="71"/>
+      <c r="NW4" s="71"/>
+      <c r="NX4" s="71"/>
+      <c r="NY4" s="71"/>
+      <c r="NZ4" s="71"/>
+      <c r="OA4" s="71"/>
+      <c r="OB4" s="71"/>
+      <c r="OC4" s="71"/>
+      <c r="OD4" s="71"/>
+      <c r="OE4" s="71"/>
+      <c r="OF4" s="71"/>
+      <c r="OG4" s="71"/>
+      <c r="OH4" s="71"/>
+      <c r="OI4" s="71"/>
+      <c r="OJ4" s="71"/>
+      <c r="OK4" s="71"/>
+      <c r="OL4" s="71"/>
+      <c r="OM4" s="71"/>
+      <c r="ON4" s="71"/>
+      <c r="OO4" s="71"/>
+      <c r="OP4" s="71"/>
+      <c r="OQ4" s="71"/>
+      <c r="OR4" s="71"/>
+      <c r="OS4" s="71"/>
+      <c r="OT4" s="71"/>
+      <c r="OU4" s="71"/>
+      <c r="OV4" s="71"/>
+      <c r="OW4" s="71"/>
+      <c r="OX4" s="71"/>
+      <c r="OY4" s="71"/>
+      <c r="OZ4" s="71"/>
+      <c r="PA4" s="71"/>
+      <c r="PB4" s="71"/>
+      <c r="PC4" s="71"/>
+      <c r="PD4" s="71"/>
+      <c r="PE4" s="71"/>
+      <c r="PF4" s="71"/>
+      <c r="PG4" s="71"/>
+      <c r="PH4" s="71"/>
+      <c r="PI4" s="71"/>
+      <c r="PJ4" s="71"/>
+      <c r="PK4" s="71"/>
+      <c r="PL4" s="71"/>
+      <c r="PM4" s="71"/>
+      <c r="PN4" s="71"/>
+      <c r="PO4" s="71"/>
+      <c r="PP4" s="71"/>
+      <c r="PQ4" s="71"/>
+      <c r="PR4" s="71"/>
+      <c r="PS4" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="PT4" s="74"/>
-      <c r="PU4" s="74"/>
-      <c r="PV4" s="74"/>
-      <c r="PW4" s="74"/>
-      <c r="PX4" s="74"/>
-      <c r="PY4" s="74"/>
-      <c r="PZ4" s="74"/>
-      <c r="QA4" s="74"/>
-      <c r="QB4" s="74"/>
-      <c r="QC4" s="74"/>
-      <c r="QD4" s="74"/>
-      <c r="QE4" s="74"/>
-      <c r="QF4" s="74"/>
-      <c r="QG4" s="74"/>
-      <c r="QH4" s="74"/>
-      <c r="QI4" s="74"/>
-      <c r="QJ4" s="74"/>
-      <c r="QK4" s="74"/>
-      <c r="QL4" s="74"/>
-      <c r="QM4" s="74"/>
-      <c r="QN4" s="74"/>
-      <c r="QO4" s="74"/>
-      <c r="QP4" s="74"/>
-      <c r="QQ4" s="74"/>
-      <c r="QR4" s="74"/>
-      <c r="QS4" s="74"/>
-      <c r="QT4" s="74"/>
-      <c r="QU4" s="74"/>
-      <c r="QV4" s="74"/>
-      <c r="QW4" s="74"/>
-      <c r="QX4" s="74"/>
-      <c r="QY4" s="74"/>
-      <c r="QZ4" s="74"/>
-      <c r="RA4" s="74"/>
-      <c r="RB4" s="74"/>
-      <c r="RC4" s="74"/>
-      <c r="RD4" s="74"/>
-      <c r="RE4" s="74"/>
-      <c r="RF4" s="74"/>
-      <c r="RG4" s="74"/>
-      <c r="RH4" s="74"/>
-      <c r="RI4" s="74"/>
-      <c r="RJ4" s="74"/>
-      <c r="RK4" s="74"/>
-      <c r="RL4" s="74"/>
-      <c r="RM4" s="74"/>
-      <c r="RN4" s="74"/>
-      <c r="RO4" s="74"/>
-      <c r="RP4" s="74"/>
-      <c r="RQ4" s="74"/>
-      <c r="RR4" s="74"/>
-      <c r="RS4" s="74"/>
-      <c r="RT4" s="74"/>
-      <c r="RU4" s="74"/>
-      <c r="RV4" s="74"/>
-      <c r="RW4" s="74"/>
-      <c r="RX4" s="74"/>
-      <c r="RY4" s="74"/>
-      <c r="RZ4" s="74"/>
-      <c r="SA4" s="74"/>
-      <c r="SB4" s="74"/>
-      <c r="SC4" s="74"/>
-      <c r="SD4" s="74"/>
-      <c r="SE4" s="74" t="s">
+      <c r="PT4" s="71"/>
+      <c r="PU4" s="71"/>
+      <c r="PV4" s="71"/>
+      <c r="PW4" s="71"/>
+      <c r="PX4" s="71"/>
+      <c r="PY4" s="71"/>
+      <c r="PZ4" s="71"/>
+      <c r="QA4" s="71"/>
+      <c r="QB4" s="71"/>
+      <c r="QC4" s="71"/>
+      <c r="QD4" s="71"/>
+      <c r="QE4" s="71"/>
+      <c r="QF4" s="71"/>
+      <c r="QG4" s="71"/>
+      <c r="QH4" s="71"/>
+      <c r="QI4" s="71"/>
+      <c r="QJ4" s="71"/>
+      <c r="QK4" s="71"/>
+      <c r="QL4" s="71"/>
+      <c r="QM4" s="71"/>
+      <c r="QN4" s="71"/>
+      <c r="QO4" s="71"/>
+      <c r="QP4" s="71"/>
+      <c r="QQ4" s="71"/>
+      <c r="QR4" s="71"/>
+      <c r="QS4" s="71"/>
+      <c r="QT4" s="71"/>
+      <c r="QU4" s="71"/>
+      <c r="QV4" s="71"/>
+      <c r="QW4" s="71"/>
+      <c r="QX4" s="71"/>
+      <c r="QY4" s="71"/>
+      <c r="QZ4" s="71"/>
+      <c r="RA4" s="71"/>
+      <c r="RB4" s="71"/>
+      <c r="RC4" s="71"/>
+      <c r="RD4" s="71"/>
+      <c r="RE4" s="71"/>
+      <c r="RF4" s="71"/>
+      <c r="RG4" s="71"/>
+      <c r="RH4" s="71"/>
+      <c r="RI4" s="71"/>
+      <c r="RJ4" s="71"/>
+      <c r="RK4" s="71"/>
+      <c r="RL4" s="71"/>
+      <c r="RM4" s="71"/>
+      <c r="RN4" s="71"/>
+      <c r="RO4" s="71"/>
+      <c r="RP4" s="71"/>
+      <c r="RQ4" s="71"/>
+      <c r="RR4" s="71"/>
+      <c r="RS4" s="71"/>
+      <c r="RT4" s="71"/>
+      <c r="RU4" s="71"/>
+      <c r="RV4" s="71"/>
+      <c r="RW4" s="71"/>
+      <c r="RX4" s="71"/>
+      <c r="RY4" s="71"/>
+      <c r="RZ4" s="71"/>
+      <c r="SA4" s="71"/>
+      <c r="SB4" s="71"/>
+      <c r="SC4" s="71"/>
+      <c r="SD4" s="71"/>
+      <c r="SE4" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="SF4" s="74"/>
-      <c r="SG4" s="74"/>
-      <c r="SH4" s="74"/>
-      <c r="SI4" s="74"/>
-      <c r="SJ4" s="74"/>
-      <c r="SK4" s="74"/>
-      <c r="SL4" s="74"/>
-      <c r="SM4" s="74"/>
-      <c r="SN4" s="74"/>
-      <c r="SO4" s="74"/>
-      <c r="SP4" s="74"/>
-      <c r="SQ4" s="74"/>
-      <c r="SR4" s="74"/>
-      <c r="SS4" s="74"/>
-      <c r="ST4" s="74"/>
-      <c r="SU4" s="74"/>
-      <c r="SV4" s="74"/>
-      <c r="SW4" s="74"/>
-      <c r="SX4" s="74"/>
-      <c r="SY4" s="74"/>
-      <c r="SZ4" s="74"/>
-      <c r="TA4" s="74"/>
-      <c r="TB4" s="74"/>
-      <c r="TC4" s="74"/>
-      <c r="TD4" s="74"/>
-      <c r="TE4" s="74"/>
-      <c r="TF4" s="74"/>
-      <c r="TG4" s="74"/>
-      <c r="TH4" s="74"/>
-      <c r="TI4" s="74"/>
-      <c r="TJ4" s="74"/>
-      <c r="TK4" s="74"/>
-      <c r="TL4" s="74"/>
-      <c r="TM4" s="74"/>
-      <c r="TN4" s="74"/>
-      <c r="TO4" s="74"/>
-      <c r="TP4" s="74"/>
-      <c r="TQ4" s="74"/>
-      <c r="TR4" s="74"/>
-      <c r="TS4" s="74"/>
-      <c r="TT4" s="74"/>
-      <c r="TU4" s="74"/>
-      <c r="TV4" s="74"/>
-      <c r="TW4" s="74"/>
-      <c r="TX4" s="74"/>
-      <c r="TY4" s="74"/>
-      <c r="TZ4" s="74"/>
-      <c r="UA4" s="74"/>
-      <c r="UB4" s="74"/>
-      <c r="UC4" s="74"/>
-      <c r="UD4" s="74"/>
-      <c r="UE4" s="74"/>
-      <c r="UF4" s="74"/>
-      <c r="UG4" s="74"/>
-      <c r="UH4" s="74"/>
-      <c r="UI4" s="74"/>
-      <c r="UJ4" s="74"/>
-      <c r="UK4" s="74"/>
-      <c r="UL4" s="74"/>
-      <c r="UM4" s="74"/>
-      <c r="UN4" s="74"/>
-      <c r="UO4" s="74"/>
-      <c r="UP4" s="74"/>
-      <c r="UQ4" s="74"/>
-      <c r="UR4" s="74"/>
-      <c r="US4" s="74"/>
-      <c r="UT4" s="74"/>
-      <c r="UU4" s="74"/>
-      <c r="UV4" s="74"/>
-      <c r="UW4" s="74"/>
-      <c r="UX4" s="74"/>
-      <c r="UY4" s="74"/>
-      <c r="UZ4" s="74"/>
-      <c r="VA4" s="74"/>
-      <c r="VB4" s="74"/>
-      <c r="VC4" s="74"/>
-      <c r="VD4" s="74"/>
-      <c r="VE4" s="74"/>
-      <c r="VF4" s="74"/>
-      <c r="VG4" s="74"/>
-      <c r="VH4" s="74"/>
-      <c r="VI4" s="74"/>
-      <c r="VJ4" s="74"/>
-      <c r="VK4" s="74"/>
-      <c r="VL4" s="75" t="s">
+      <c r="SF4" s="71"/>
+      <c r="SG4" s="71"/>
+      <c r="SH4" s="71"/>
+      <c r="SI4" s="71"/>
+      <c r="SJ4" s="71"/>
+      <c r="SK4" s="71"/>
+      <c r="SL4" s="71"/>
+      <c r="SM4" s="71"/>
+      <c r="SN4" s="71"/>
+      <c r="SO4" s="71"/>
+      <c r="SP4" s="71"/>
+      <c r="SQ4" s="71"/>
+      <c r="SR4" s="71"/>
+      <c r="SS4" s="71"/>
+      <c r="ST4" s="71"/>
+      <c r="SU4" s="71"/>
+      <c r="SV4" s="71"/>
+      <c r="SW4" s="71"/>
+      <c r="SX4" s="71"/>
+      <c r="SY4" s="71"/>
+      <c r="SZ4" s="71"/>
+      <c r="TA4" s="71"/>
+      <c r="TB4" s="71"/>
+      <c r="TC4" s="71"/>
+      <c r="TD4" s="71"/>
+      <c r="TE4" s="71"/>
+      <c r="TF4" s="71"/>
+      <c r="TG4" s="71"/>
+      <c r="TH4" s="71"/>
+      <c r="TI4" s="71"/>
+      <c r="TJ4" s="71"/>
+      <c r="TK4" s="71"/>
+      <c r="TL4" s="71"/>
+      <c r="TM4" s="71"/>
+      <c r="TN4" s="71"/>
+      <c r="TO4" s="71"/>
+      <c r="TP4" s="71"/>
+      <c r="TQ4" s="71"/>
+      <c r="TR4" s="71"/>
+      <c r="TS4" s="71"/>
+      <c r="TT4" s="71"/>
+      <c r="TU4" s="71"/>
+      <c r="TV4" s="71"/>
+      <c r="TW4" s="71"/>
+      <c r="TX4" s="71"/>
+      <c r="TY4" s="71"/>
+      <c r="TZ4" s="71"/>
+      <c r="UA4" s="71"/>
+      <c r="UB4" s="71"/>
+      <c r="UC4" s="71"/>
+      <c r="UD4" s="71"/>
+      <c r="UE4" s="71"/>
+      <c r="UF4" s="71"/>
+      <c r="UG4" s="71"/>
+      <c r="UH4" s="71"/>
+      <c r="UI4" s="71"/>
+      <c r="UJ4" s="71"/>
+      <c r="UK4" s="71"/>
+      <c r="UL4" s="71"/>
+      <c r="UM4" s="71"/>
+      <c r="UN4" s="71"/>
+      <c r="UO4" s="71"/>
+      <c r="UP4" s="71"/>
+      <c r="UQ4" s="71"/>
+      <c r="UR4" s="71"/>
+      <c r="US4" s="71"/>
+      <c r="UT4" s="71"/>
+      <c r="UU4" s="71"/>
+      <c r="UV4" s="71"/>
+      <c r="UW4" s="71"/>
+      <c r="UX4" s="71"/>
+      <c r="UY4" s="71"/>
+      <c r="UZ4" s="71"/>
+      <c r="VA4" s="71"/>
+      <c r="VB4" s="71"/>
+      <c r="VC4" s="71"/>
+      <c r="VD4" s="71"/>
+      <c r="VE4" s="71"/>
+      <c r="VF4" s="71"/>
+      <c r="VG4" s="71"/>
+      <c r="VH4" s="71"/>
+      <c r="VI4" s="71"/>
+      <c r="VJ4" s="71"/>
+      <c r="VK4" s="71"/>
+      <c r="VL4" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="VM4" s="75"/>
-      <c r="VN4" s="75"/>
-      <c r="VO4" s="75"/>
-      <c r="VP4" s="75"/>
-      <c r="VQ4" s="75"/>
-      <c r="VR4" s="75"/>
-      <c r="VS4" s="75"/>
-      <c r="VT4" s="75"/>
-      <c r="VU4" s="75"/>
-      <c r="VV4" s="75"/>
-      <c r="VW4" s="75"/>
-      <c r="VX4" s="75"/>
-      <c r="VY4" s="75"/>
-      <c r="VZ4" s="75"/>
-      <c r="WA4" s="75"/>
-      <c r="WB4" s="75"/>
-      <c r="WC4" s="75"/>
-      <c r="WD4" s="75"/>
-      <c r="WE4" s="75"/>
-      <c r="WF4" s="75"/>
-      <c r="WG4" s="75"/>
-      <c r="WH4" s="75"/>
-      <c r="WI4" s="75"/>
-      <c r="WJ4" s="75"/>
-      <c r="WK4" s="75"/>
-      <c r="WL4" s="75"/>
-      <c r="WM4" s="75"/>
-      <c r="WN4" s="75"/>
-      <c r="WO4" s="75"/>
-      <c r="WP4" s="75"/>
-      <c r="WQ4" s="75"/>
-      <c r="WR4" s="75"/>
-      <c r="WS4" s="75"/>
-      <c r="WT4" s="75"/>
-      <c r="WU4" s="75"/>
-      <c r="WV4" s="75"/>
-      <c r="WW4" s="75"/>
-      <c r="WX4" s="75"/>
-      <c r="WY4" s="75"/>
-      <c r="WZ4" s="75"/>
-      <c r="XA4" s="75"/>
-      <c r="XB4" s="75"/>
-      <c r="XC4" s="75"/>
-      <c r="XD4" s="75"/>
-      <c r="XE4" s="75"/>
-      <c r="XF4" s="75"/>
-      <c r="XG4" s="75"/>
-      <c r="XH4" s="75"/>
-      <c r="XI4" s="75"/>
-      <c r="XJ4" s="75"/>
-      <c r="XK4" s="75"/>
-      <c r="XL4" s="75"/>
-      <c r="XM4" s="75"/>
-      <c r="XN4" s="75"/>
-      <c r="XO4" s="75"/>
-      <c r="XP4" s="75"/>
-      <c r="XQ4" s="75"/>
-      <c r="XR4" s="75"/>
-      <c r="XS4" s="75"/>
-      <c r="XT4" s="75"/>
-      <c r="XU4" s="75"/>
-      <c r="XV4" s="75"/>
-      <c r="XW4" s="75"/>
-      <c r="XX4" s="74" t="s">
+      <c r="VM4" s="72"/>
+      <c r="VN4" s="72"/>
+      <c r="VO4" s="72"/>
+      <c r="VP4" s="72"/>
+      <c r="VQ4" s="72"/>
+      <c r="VR4" s="72"/>
+      <c r="VS4" s="72"/>
+      <c r="VT4" s="72"/>
+      <c r="VU4" s="72"/>
+      <c r="VV4" s="72"/>
+      <c r="VW4" s="72"/>
+      <c r="VX4" s="72"/>
+      <c r="VY4" s="72"/>
+      <c r="VZ4" s="72"/>
+      <c r="WA4" s="72"/>
+      <c r="WB4" s="72"/>
+      <c r="WC4" s="72"/>
+      <c r="WD4" s="72"/>
+      <c r="WE4" s="72"/>
+      <c r="WF4" s="72"/>
+      <c r="WG4" s="72"/>
+      <c r="WH4" s="72"/>
+      <c r="WI4" s="72"/>
+      <c r="WJ4" s="72"/>
+      <c r="WK4" s="72"/>
+      <c r="WL4" s="72"/>
+      <c r="WM4" s="72"/>
+      <c r="WN4" s="72"/>
+      <c r="WO4" s="72"/>
+      <c r="WP4" s="72"/>
+      <c r="WQ4" s="72"/>
+      <c r="WR4" s="72"/>
+      <c r="WS4" s="72"/>
+      <c r="WT4" s="72"/>
+      <c r="WU4" s="72"/>
+      <c r="WV4" s="72"/>
+      <c r="WW4" s="72"/>
+      <c r="WX4" s="72"/>
+      <c r="WY4" s="72"/>
+      <c r="WZ4" s="72"/>
+      <c r="XA4" s="72"/>
+      <c r="XB4" s="72"/>
+      <c r="XC4" s="72"/>
+      <c r="XD4" s="72"/>
+      <c r="XE4" s="72"/>
+      <c r="XF4" s="72"/>
+      <c r="XG4" s="72"/>
+      <c r="XH4" s="72"/>
+      <c r="XI4" s="72"/>
+      <c r="XJ4" s="72"/>
+      <c r="XK4" s="72"/>
+      <c r="XL4" s="72"/>
+      <c r="XM4" s="72"/>
+      <c r="XN4" s="72"/>
+      <c r="XO4" s="72"/>
+      <c r="XP4" s="72"/>
+      <c r="XQ4" s="72"/>
+      <c r="XR4" s="72"/>
+      <c r="XS4" s="72"/>
+      <c r="XT4" s="72"/>
+      <c r="XU4" s="72"/>
+      <c r="XV4" s="72"/>
+      <c r="XW4" s="72"/>
+      <c r="XX4" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="XY4" s="74"/>
-      <c r="XZ4" s="74"/>
-      <c r="YA4" s="74"/>
-      <c r="YB4" s="74"/>
-      <c r="YC4" s="74"/>
-      <c r="YD4" s="74"/>
-      <c r="YE4" s="74"/>
-      <c r="YF4" s="74"/>
-      <c r="YG4" s="74"/>
-      <c r="YH4" s="74"/>
-      <c r="YI4" s="74"/>
-      <c r="YJ4" s="74"/>
-      <c r="YK4" s="74"/>
-      <c r="YL4" s="74"/>
-      <c r="YM4" s="74"/>
-      <c r="YN4" s="74"/>
-      <c r="YO4" s="74"/>
-      <c r="YP4" s="74"/>
-      <c r="YQ4" s="74"/>
-      <c r="YR4" s="74"/>
-      <c r="YS4" s="74"/>
-      <c r="YT4" s="74"/>
-      <c r="YU4" s="74"/>
-      <c r="YV4" s="74"/>
-      <c r="YW4" s="74"/>
-      <c r="YX4" s="74"/>
-      <c r="YY4" s="74"/>
-      <c r="YZ4" s="74"/>
-      <c r="ZA4" s="74"/>
-      <c r="ZB4" s="74"/>
-      <c r="ZC4" s="74"/>
-      <c r="ZD4" s="74"/>
-      <c r="ZE4" s="74"/>
-      <c r="ZF4" s="74"/>
-      <c r="ZG4" s="74"/>
-      <c r="ZH4" s="74"/>
-      <c r="ZI4" s="74"/>
-      <c r="ZJ4" s="74"/>
-      <c r="ZK4" s="74"/>
-      <c r="ZL4" s="74"/>
-      <c r="ZM4" s="74"/>
-      <c r="ZN4" s="74"/>
-      <c r="ZO4" s="74"/>
-      <c r="ZP4" s="74"/>
-      <c r="ZQ4" s="74"/>
-      <c r="ZR4" s="74"/>
-      <c r="ZS4" s="74"/>
-      <c r="ZT4" s="74"/>
-      <c r="ZU4" s="74"/>
-      <c r="ZV4" s="74"/>
-      <c r="ZW4" s="74"/>
-      <c r="ZX4" s="74"/>
-      <c r="ZY4" s="74"/>
-      <c r="ZZ4" s="74"/>
-      <c r="AAA4" s="74"/>
-      <c r="AAB4" s="74"/>
-      <c r="AAC4" s="74"/>
-      <c r="AAD4" s="74"/>
-      <c r="AAE4" s="74"/>
-      <c r="AAF4" s="74"/>
-      <c r="AAG4" s="74"/>
-      <c r="AAH4" s="74"/>
-      <c r="AAI4" s="74"/>
-      <c r="AAJ4" s="74" t="s">
+      <c r="XY4" s="71"/>
+      <c r="XZ4" s="71"/>
+      <c r="YA4" s="71"/>
+      <c r="YB4" s="71"/>
+      <c r="YC4" s="71"/>
+      <c r="YD4" s="71"/>
+      <c r="YE4" s="71"/>
+      <c r="YF4" s="71"/>
+      <c r="YG4" s="71"/>
+      <c r="YH4" s="71"/>
+      <c r="YI4" s="71"/>
+      <c r="YJ4" s="71"/>
+      <c r="YK4" s="71"/>
+      <c r="YL4" s="71"/>
+      <c r="YM4" s="71"/>
+      <c r="YN4" s="71"/>
+      <c r="YO4" s="71"/>
+      <c r="YP4" s="71"/>
+      <c r="YQ4" s="71"/>
+      <c r="YR4" s="71"/>
+      <c r="YS4" s="71"/>
+      <c r="YT4" s="71"/>
+      <c r="YU4" s="71"/>
+      <c r="YV4" s="71"/>
+      <c r="YW4" s="71"/>
+      <c r="YX4" s="71"/>
+      <c r="YY4" s="71"/>
+      <c r="YZ4" s="71"/>
+      <c r="ZA4" s="71"/>
+      <c r="ZB4" s="71"/>
+      <c r="ZC4" s="71"/>
+      <c r="ZD4" s="71"/>
+      <c r="ZE4" s="71"/>
+      <c r="ZF4" s="71"/>
+      <c r="ZG4" s="71"/>
+      <c r="ZH4" s="71"/>
+      <c r="ZI4" s="71"/>
+      <c r="ZJ4" s="71"/>
+      <c r="ZK4" s="71"/>
+      <c r="ZL4" s="71"/>
+      <c r="ZM4" s="71"/>
+      <c r="ZN4" s="71"/>
+      <c r="ZO4" s="71"/>
+      <c r="ZP4" s="71"/>
+      <c r="ZQ4" s="71"/>
+      <c r="ZR4" s="71"/>
+      <c r="ZS4" s="71"/>
+      <c r="ZT4" s="71"/>
+      <c r="ZU4" s="71"/>
+      <c r="ZV4" s="71"/>
+      <c r="ZW4" s="71"/>
+      <c r="ZX4" s="71"/>
+      <c r="ZY4" s="71"/>
+      <c r="ZZ4" s="71"/>
+      <c r="AAA4" s="71"/>
+      <c r="AAB4" s="71"/>
+      <c r="AAC4" s="71"/>
+      <c r="AAD4" s="71"/>
+      <c r="AAE4" s="71"/>
+      <c r="AAF4" s="71"/>
+      <c r="AAG4" s="71"/>
+      <c r="AAH4" s="71"/>
+      <c r="AAI4" s="71"/>
+      <c r="AAJ4" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="AAK4" s="74"/>
-      <c r="AAL4" s="74"/>
-      <c r="AAM4" s="74"/>
-      <c r="AAN4" s="74"/>
-      <c r="AAO4" s="74"/>
-      <c r="AAP4" s="74"/>
-      <c r="AAQ4" s="74"/>
-      <c r="AAR4" s="74"/>
-      <c r="AAS4" s="74"/>
-      <c r="AAT4" s="74"/>
-      <c r="AAU4" s="74"/>
-      <c r="AAV4" s="74"/>
-      <c r="AAW4" s="74"/>
-      <c r="AAX4" s="74"/>
-      <c r="AAY4" s="74"/>
-      <c r="AAZ4" s="74"/>
-      <c r="ABA4" s="74"/>
-      <c r="ABB4" s="74"/>
-      <c r="ABC4" s="74"/>
-      <c r="ABD4" s="74"/>
-      <c r="ABE4" s="74"/>
-      <c r="ABF4" s="74"/>
-      <c r="ABG4" s="74"/>
-      <c r="ABH4" s="74"/>
-      <c r="ABI4" s="74"/>
-      <c r="ABJ4" s="74"/>
-      <c r="ABK4" s="74"/>
-      <c r="ABL4" s="74"/>
-      <c r="ABM4" s="74"/>
-      <c r="ABN4" s="74"/>
-      <c r="ABO4" s="74"/>
-      <c r="ABP4" s="74"/>
-      <c r="ABQ4" s="74"/>
-      <c r="ABR4" s="74"/>
-      <c r="ABS4" s="74"/>
-      <c r="ABT4" s="74"/>
-      <c r="ABU4" s="74"/>
-      <c r="ABV4" s="74"/>
-      <c r="ABW4" s="74"/>
-      <c r="ABX4" s="74"/>
-      <c r="ABY4" s="74"/>
-      <c r="ABZ4" s="74"/>
-      <c r="ACA4" s="74"/>
-      <c r="ACB4" s="74"/>
-      <c r="ACC4" s="74"/>
-      <c r="ACD4" s="74"/>
-      <c r="ACE4" s="74"/>
-      <c r="ACF4" s="74"/>
-      <c r="ACG4" s="74"/>
-      <c r="ACH4" s="74"/>
-      <c r="ACI4" s="74"/>
-      <c r="ACJ4" s="74"/>
-      <c r="ACK4" s="74"/>
-      <c r="ACL4" s="74"/>
-      <c r="ACM4" s="74"/>
-      <c r="ACN4" s="74"/>
-      <c r="ACO4" s="74"/>
-      <c r="ACP4" s="74"/>
-      <c r="ACQ4" s="74"/>
-      <c r="ACR4" s="74"/>
-      <c r="ACS4" s="74"/>
-      <c r="ACT4" s="74"/>
-      <c r="ACU4" s="74"/>
-      <c r="ACV4" s="74" t="s">
+      <c r="AAK4" s="71"/>
+      <c r="AAL4" s="71"/>
+      <c r="AAM4" s="71"/>
+      <c r="AAN4" s="71"/>
+      <c r="AAO4" s="71"/>
+      <c r="AAP4" s="71"/>
+      <c r="AAQ4" s="71"/>
+      <c r="AAR4" s="71"/>
+      <c r="AAS4" s="71"/>
+      <c r="AAT4" s="71"/>
+      <c r="AAU4" s="71"/>
+      <c r="AAV4" s="71"/>
+      <c r="AAW4" s="71"/>
+      <c r="AAX4" s="71"/>
+      <c r="AAY4" s="71"/>
+      <c r="AAZ4" s="71"/>
+      <c r="ABA4" s="71"/>
+      <c r="ABB4" s="71"/>
+      <c r="ABC4" s="71"/>
+      <c r="ABD4" s="71"/>
+      <c r="ABE4" s="71"/>
+      <c r="ABF4" s="71"/>
+      <c r="ABG4" s="71"/>
+      <c r="ABH4" s="71"/>
+      <c r="ABI4" s="71"/>
+      <c r="ABJ4" s="71"/>
+      <c r="ABK4" s="71"/>
+      <c r="ABL4" s="71"/>
+      <c r="ABM4" s="71"/>
+      <c r="ABN4" s="71"/>
+      <c r="ABO4" s="71"/>
+      <c r="ABP4" s="71"/>
+      <c r="ABQ4" s="71"/>
+      <c r="ABR4" s="71"/>
+      <c r="ABS4" s="71"/>
+      <c r="ABT4" s="71"/>
+      <c r="ABU4" s="71"/>
+      <c r="ABV4" s="71"/>
+      <c r="ABW4" s="71"/>
+      <c r="ABX4" s="71"/>
+      <c r="ABY4" s="71"/>
+      <c r="ABZ4" s="71"/>
+      <c r="ACA4" s="71"/>
+      <c r="ACB4" s="71"/>
+      <c r="ACC4" s="71"/>
+      <c r="ACD4" s="71"/>
+      <c r="ACE4" s="71"/>
+      <c r="ACF4" s="71"/>
+      <c r="ACG4" s="71"/>
+      <c r="ACH4" s="71"/>
+      <c r="ACI4" s="71"/>
+      <c r="ACJ4" s="71"/>
+      <c r="ACK4" s="71"/>
+      <c r="ACL4" s="71"/>
+      <c r="ACM4" s="71"/>
+      <c r="ACN4" s="71"/>
+      <c r="ACO4" s="71"/>
+      <c r="ACP4" s="71"/>
+      <c r="ACQ4" s="71"/>
+      <c r="ACR4" s="71"/>
+      <c r="ACS4" s="71"/>
+      <c r="ACT4" s="71"/>
+      <c r="ACU4" s="71"/>
+      <c r="ACV4" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="ACW4" s="74"/>
-      <c r="ACX4" s="74"/>
-      <c r="ACY4" s="74"/>
-      <c r="ACZ4" s="74"/>
-      <c r="ADA4" s="74"/>
-      <c r="ADB4" s="74"/>
-      <c r="ADC4" s="74"/>
-      <c r="ADD4" s="74"/>
-      <c r="ADE4" s="74"/>
-      <c r="ADF4" s="74"/>
-      <c r="ADG4" s="74"/>
-      <c r="ADH4" s="74"/>
-      <c r="ADI4" s="74"/>
-      <c r="ADJ4" s="74"/>
-      <c r="ADK4" s="74"/>
-      <c r="ADL4" s="74"/>
-      <c r="ADM4" s="74"/>
-      <c r="ADN4" s="74"/>
-      <c r="ADO4" s="74"/>
-      <c r="ADP4" s="74"/>
-      <c r="ADQ4" s="74"/>
-      <c r="ADR4" s="74"/>
-      <c r="ADS4" s="74"/>
-      <c r="ADT4" s="74"/>
-      <c r="ADU4" s="74"/>
-      <c r="ADV4" s="74"/>
-      <c r="ADW4" s="74"/>
-      <c r="ADX4" s="74"/>
-      <c r="ADY4" s="74"/>
-      <c r="ADZ4" s="74"/>
-      <c r="AEA4" s="74"/>
-      <c r="AEB4" s="74"/>
-      <c r="AEC4" s="74"/>
-      <c r="AED4" s="74"/>
-      <c r="AEE4" s="74"/>
-      <c r="AEF4" s="74"/>
-      <c r="AEG4" s="74"/>
-      <c r="AEH4" s="74"/>
-      <c r="AEI4" s="74"/>
-      <c r="AEJ4" s="74"/>
-      <c r="AEK4" s="74"/>
-      <c r="AEL4" s="74"/>
-      <c r="AEM4" s="74"/>
-      <c r="AEN4" s="74"/>
-      <c r="AEO4" s="74"/>
-      <c r="AEP4" s="74"/>
-      <c r="AEQ4" s="74"/>
-      <c r="AER4" s="74"/>
-      <c r="AES4" s="74"/>
-      <c r="AET4" s="74"/>
-      <c r="AEU4" s="74"/>
-      <c r="AEV4" s="74"/>
-      <c r="AEW4" s="74"/>
-      <c r="AEX4" s="74"/>
-      <c r="AEY4" s="74"/>
-      <c r="AEZ4" s="74"/>
-      <c r="AFA4" s="74"/>
-      <c r="AFB4" s="74"/>
-      <c r="AFC4" s="74"/>
-      <c r="AFD4" s="74"/>
-      <c r="AFE4" s="74"/>
-      <c r="AFF4" s="74"/>
-      <c r="AFG4" s="74"/>
+      <c r="ACW4" s="71"/>
+      <c r="ACX4" s="71"/>
+      <c r="ACY4" s="71"/>
+      <c r="ACZ4" s="71"/>
+      <c r="ADA4" s="71"/>
+      <c r="ADB4" s="71"/>
+      <c r="ADC4" s="71"/>
+      <c r="ADD4" s="71"/>
+      <c r="ADE4" s="71"/>
+      <c r="ADF4" s="71"/>
+      <c r="ADG4" s="71"/>
+      <c r="ADH4" s="71"/>
+      <c r="ADI4" s="71"/>
+      <c r="ADJ4" s="71"/>
+      <c r="ADK4" s="71"/>
+      <c r="ADL4" s="71"/>
+      <c r="ADM4" s="71"/>
+      <c r="ADN4" s="71"/>
+      <c r="ADO4" s="71"/>
+      <c r="ADP4" s="71"/>
+      <c r="ADQ4" s="71"/>
+      <c r="ADR4" s="71"/>
+      <c r="ADS4" s="71"/>
+      <c r="ADT4" s="71"/>
+      <c r="ADU4" s="71"/>
+      <c r="ADV4" s="71"/>
+      <c r="ADW4" s="71"/>
+      <c r="ADX4" s="71"/>
+      <c r="ADY4" s="71"/>
+      <c r="ADZ4" s="71"/>
+      <c r="AEA4" s="71"/>
+      <c r="AEB4" s="71"/>
+      <c r="AEC4" s="71"/>
+      <c r="AED4" s="71"/>
+      <c r="AEE4" s="71"/>
+      <c r="AEF4" s="71"/>
+      <c r="AEG4" s="71"/>
+      <c r="AEH4" s="71"/>
+      <c r="AEI4" s="71"/>
+      <c r="AEJ4" s="71"/>
+      <c r="AEK4" s="71"/>
+      <c r="AEL4" s="71"/>
+      <c r="AEM4" s="71"/>
+      <c r="AEN4" s="71"/>
+      <c r="AEO4" s="71"/>
+      <c r="AEP4" s="71"/>
+      <c r="AEQ4" s="71"/>
+      <c r="AER4" s="71"/>
+      <c r="AES4" s="71"/>
+      <c r="AET4" s="71"/>
+      <c r="AEU4" s="71"/>
+      <c r="AEV4" s="71"/>
+      <c r="AEW4" s="71"/>
+      <c r="AEX4" s="71"/>
+      <c r="AEY4" s="71"/>
+      <c r="AEZ4" s="71"/>
+      <c r="AFA4" s="71"/>
+      <c r="AFB4" s="71"/>
+      <c r="AFC4" s="71"/>
+      <c r="AFD4" s="71"/>
+      <c r="AFE4" s="71"/>
+      <c r="AFF4" s="71"/>
+      <c r="AFG4" s="71"/>
     </row>
     <row r="5" spans="1:839">
       <c r="C5" s="1" t="s">
@@ -81235,7 +81174,7 @@
       <c r="U57" s="10"/>
     </row>
     <row r="58" spans="9:21">
-      <c r="I58" s="70" t="s">
+      <c r="I58" s="73" t="s">
         <v>29</v>
       </c>
       <c r="J58" s="20" t="s">
@@ -81272,7 +81211,7 @@
       <c r="U58" s="10"/>
     </row>
     <row r="59" spans="9:21">
-      <c r="I59" s="70"/>
+      <c r="I59" s="73"/>
       <c r="J59" s="20" t="s">
         <v>30</v>
       </c>
@@ -81307,7 +81246,7 @@
       <c r="U59" s="10"/>
     </row>
     <row r="60" spans="9:21">
-      <c r="I60" s="70"/>
+      <c r="I60" s="73"/>
       <c r="J60" s="20" t="s">
         <v>31</v>
       </c>
@@ -81342,7 +81281,7 @@
       <c r="U60" s="10"/>
     </row>
     <row r="61" spans="9:21">
-      <c r="I61" s="70"/>
+      <c r="I61" s="73"/>
       <c r="J61" s="20" t="s">
         <v>16</v>
       </c>
@@ -81377,7 +81316,7 @@
       <c r="U61" s="10"/>
     </row>
     <row r="62" spans="9:21">
-      <c r="I62" s="70"/>
+      <c r="I62" s="73"/>
       <c r="J62" s="20" t="s">
         <v>17</v>
       </c>
@@ -81412,7 +81351,7 @@
       <c r="U62" s="10"/>
     </row>
     <row r="63" spans="9:21">
-      <c r="I63" s="70"/>
+      <c r="I63" s="73"/>
       <c r="J63" s="20" t="s">
         <v>18</v>
       </c>
@@ -81447,7 +81386,7 @@
       <c r="U63" s="10"/>
     </row>
     <row r="64" spans="9:21">
-      <c r="I64" s="70"/>
+      <c r="I64" s="73"/>
       <c r="J64" s="20" t="s">
         <v>32</v>
       </c>
@@ -81482,7 +81421,7 @@
       <c r="U64" s="10"/>
     </row>
     <row r="65" spans="9:21">
-      <c r="I65" s="70"/>
+      <c r="I65" s="73"/>
       <c r="J65" s="20" t="s">
         <v>33</v>
       </c>
@@ -81517,7 +81456,7 @@
       <c r="U65" s="10"/>
     </row>
     <row r="66" spans="9:21">
-      <c r="I66" s="70"/>
+      <c r="I66" s="73"/>
       <c r="J66" s="20" t="s">
         <v>34</v>
       </c>
@@ -81552,7 +81491,7 @@
       <c r="U66" s="10"/>
     </row>
     <row r="67" spans="9:21">
-      <c r="I67" s="70"/>
+      <c r="I67" s="73"/>
       <c r="J67" s="22" t="s">
         <v>35</v>
       </c>
@@ -81589,7 +81528,7 @@
       </c>
     </row>
     <row r="68" spans="9:21">
-      <c r="I68" s="70" t="s">
+      <c r="I68" s="73" t="s">
         <v>36</v>
       </c>
       <c r="J68" s="20" t="s">
@@ -81628,7 +81567,7 @@
       </c>
     </row>
     <row r="69" spans="9:21">
-      <c r="I69" s="70"/>
+      <c r="I69" s="73"/>
       <c r="J69" s="20" t="s">
         <v>30</v>
       </c>
@@ -81665,7 +81604,7 @@
       </c>
     </row>
     <row r="70" spans="9:21">
-      <c r="I70" s="70"/>
+      <c r="I70" s="73"/>
       <c r="J70" s="20" t="s">
         <v>31</v>
       </c>
@@ -81700,7 +81639,7 @@
       <c r="U70" s="10"/>
     </row>
     <row r="71" spans="9:21">
-      <c r="I71" s="70"/>
+      <c r="I71" s="73"/>
       <c r="J71" s="20" t="s">
         <v>16</v>
       </c>
@@ -81735,7 +81674,7 @@
       <c r="U71" s="10"/>
     </row>
     <row r="72" spans="9:21">
-      <c r="I72" s="70"/>
+      <c r="I72" s="73"/>
       <c r="J72" s="20" t="s">
         <v>17</v>
       </c>
@@ -81770,7 +81709,7 @@
       <c r="U72" s="10"/>
     </row>
     <row r="73" spans="9:21">
-      <c r="I73" s="70"/>
+      <c r="I73" s="73"/>
       <c r="J73" s="20" t="s">
         <v>18</v>
       </c>
@@ -81805,7 +81744,7 @@
       <c r="U73" s="10"/>
     </row>
     <row r="74" spans="9:21">
-      <c r="I74" s="70"/>
+      <c r="I74" s="73"/>
       <c r="J74" s="20" t="s">
         <v>32</v>
       </c>
@@ -81840,7 +81779,7 @@
       <c r="U74" s="10"/>
     </row>
     <row r="75" spans="9:21">
-      <c r="I75" s="70"/>
+      <c r="I75" s="73"/>
       <c r="J75" s="20" t="s">
         <v>33</v>
       </c>
@@ -81875,7 +81814,7 @@
       <c r="U75" s="10"/>
     </row>
     <row r="76" spans="9:21">
-      <c r="I76" s="70"/>
+      <c r="I76" s="73"/>
       <c r="J76" s="20" t="s">
         <v>34</v>
       </c>
@@ -81910,7 +81849,7 @@
       <c r="U76" s="10"/>
     </row>
     <row r="77" spans="9:21">
-      <c r="I77" s="70"/>
+      <c r="I77" s="73"/>
       <c r="J77" s="22" t="s">
         <v>35</v>
       </c>
@@ -81947,7 +81886,7 @@
       </c>
     </row>
     <row r="78" spans="9:21">
-      <c r="I78" s="70" t="s">
+      <c r="I78" s="73" t="s">
         <v>37</v>
       </c>
       <c r="J78" s="20" t="s">
@@ -81986,7 +81925,7 @@
       </c>
     </row>
     <row r="79" spans="9:21">
-      <c r="I79" s="70"/>
+      <c r="I79" s="73"/>
       <c r="J79" s="20" t="s">
         <v>39</v>
       </c>
@@ -82023,7 +81962,7 @@
       </c>
     </row>
     <row r="80" spans="9:21">
-      <c r="I80" s="71" t="s">
+      <c r="I80" s="74" t="s">
         <v>35</v>
       </c>
       <c r="J80" s="22" t="s">
@@ -82062,7 +82001,7 @@
       </c>
     </row>
     <row r="81" spans="9:21">
-      <c r="I81" s="72"/>
+      <c r="I81" s="75"/>
       <c r="J81" s="20" t="s">
         <v>15</v>
       </c>
@@ -82099,7 +82038,7 @@
       <c r="U81" s="10"/>
     </row>
     <row r="82" spans="9:21">
-      <c r="I82" s="72"/>
+      <c r="I82" s="75"/>
       <c r="J82" s="20" t="s">
         <v>30</v>
       </c>
@@ -82136,7 +82075,7 @@
       <c r="U82" s="10"/>
     </row>
     <row r="83" spans="9:21">
-      <c r="I83" s="72"/>
+      <c r="I83" s="75"/>
       <c r="J83" s="20" t="s">
         <v>31</v>
       </c>
@@ -82173,7 +82112,7 @@
       <c r="U83" s="10"/>
     </row>
     <row r="84" spans="9:21">
-      <c r="I84" s="72"/>
+      <c r="I84" s="75"/>
       <c r="J84" s="20" t="s">
         <v>16</v>
       </c>
@@ -82210,7 +82149,7 @@
       <c r="U84" s="10"/>
     </row>
     <row r="85" spans="9:21">
-      <c r="I85" s="72"/>
+      <c r="I85" s="75"/>
       <c r="J85" s="20" t="s">
         <v>17</v>
       </c>
@@ -82247,7 +82186,7 @@
       <c r="U85" s="10"/>
     </row>
     <row r="86" spans="9:21">
-      <c r="I86" s="72"/>
+      <c r="I86" s="75"/>
       <c r="J86" s="20" t="s">
         <v>18</v>
       </c>
@@ -82284,7 +82223,7 @@
       <c r="U86" s="10"/>
     </row>
     <row r="87" spans="9:21">
-      <c r="I87" s="72"/>
+      <c r="I87" s="75"/>
       <c r="J87" s="20" t="s">
         <v>32</v>
       </c>
@@ -82321,7 +82260,7 @@
       <c r="U87" s="10"/>
     </row>
     <row r="88" spans="9:21">
-      <c r="I88" s="72"/>
+      <c r="I88" s="75"/>
       <c r="J88" s="20" t="s">
         <v>33</v>
       </c>
@@ -82358,7 +82297,7 @@
       <c r="U88" s="10"/>
     </row>
     <row r="89" spans="9:21">
-      <c r="I89" s="72"/>
+      <c r="I89" s="75"/>
       <c r="J89" s="20" t="s">
         <v>41</v>
       </c>
@@ -82394,8 +82333,8 @@
       </c>
       <c r="U89" s="10"/>
     </row>
-    <row r="90" spans="9:21" ht="25">
-      <c r="I90" s="72"/>
+    <row r="90" spans="9:21" ht="22">
+      <c r="I90" s="75"/>
       <c r="J90" s="22" t="s">
         <v>42</v>
       </c>
@@ -82429,8 +82368,8 @@
       </c>
       <c r="U90" s="10"/>
     </row>
-    <row r="91" spans="9:21" ht="25">
-      <c r="I91" s="72"/>
+    <row r="91" spans="9:21" ht="22">
+      <c r="I91" s="75"/>
       <c r="J91" s="22" t="s">
         <v>43</v>
       </c>
@@ -82464,8 +82403,8 @@
       </c>
       <c r="U91" s="10"/>
     </row>
-    <row r="92" spans="9:21" ht="25">
-      <c r="I92" s="72"/>
+    <row r="92" spans="9:21" ht="22">
+      <c r="I92" s="75"/>
       <c r="J92" s="22" t="s">
         <v>44</v>
       </c>
@@ -82499,8 +82438,8 @@
       </c>
       <c r="U92" s="10"/>
     </row>
-    <row r="93" spans="9:21" ht="25">
-      <c r="I93" s="73"/>
+    <row r="93" spans="9:21" ht="22">
+      <c r="I93" s="76"/>
       <c r="J93" s="22" t="s">
         <v>45</v>
       </c>
@@ -82536,11 +82475,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="SE4:VK4"/>
-    <mergeCell ref="VL4:XW4"/>
-    <mergeCell ref="XX4:AAI4"/>
-    <mergeCell ref="AAJ4:ACU4"/>
-    <mergeCell ref="ACV4:AFG4"/>
     <mergeCell ref="I58:I67"/>
     <mergeCell ref="I68:I77"/>
     <mergeCell ref="I78:I79"/>
@@ -82552,6 +82486,11 @@
     <mergeCell ref="II4:KT4"/>
     <mergeCell ref="KU4:NF4"/>
     <mergeCell ref="NG4:PR4"/>
+    <mergeCell ref="SE4:VK4"/>
+    <mergeCell ref="VL4:XW4"/>
+    <mergeCell ref="XX4:AAI4"/>
+    <mergeCell ref="AAJ4:ACU4"/>
+    <mergeCell ref="ACV4:AFG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -82563,7 +82502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -82576,7 +82515,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -82591,89 +82530,89 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:15" ht="15.5">
+      <c r="A1" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
       <c r="H1" s="55"/>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
     </row>
-    <row r="2" spans="1:15" ht="16">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
+    <row r="2" spans="1:15" ht="15.5">
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
       <c r="H2" s="55"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="78" t="s">
+      <c r="A3" s="79" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="56"/>
-      <c r="I3" s="78" t="s">
+      <c r="I3" s="79" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="78"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
+      <c r="A4" s="79"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="57"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
     </row>
-    <row r="5" spans="1:15" ht="45">
+    <row r="5" spans="1:15" ht="39">
       <c r="A5" s="80" t="s">
         <v>126</v>
       </c>
@@ -82705,7 +82644,7 @@
       <c r="N5" s="80"/>
       <c r="O5" s="80"/>
     </row>
-    <row r="6" spans="1:15" ht="32">
+    <row r="6" spans="1:15" ht="39">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="80"/>
@@ -82737,7 +82676,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row r="7" spans="1:15" ht="26">
       <c r="A7" s="66">
         <v>2016</v>
       </c>
@@ -82777,10 +82716,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="78" t="s">
+      <c r="A8" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="78"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="59">
         <v>226</v>
       </c>
@@ -82822,10 +82761,10 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="78" t="s">
+      <c r="A9" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="59">
         <v>226</v>
       </c>
@@ -82841,10 +82780,10 @@
       <c r="G9" s="59">
         <v>92449.615000000005</v>
       </c>
-      <c r="I9" s="78" t="s">
+      <c r="I9" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="78"/>
+      <c r="J9" s="79"/>
       <c r="K9" s="59">
         <v>25</v>
       </c>
@@ -82862,10 +82801,10 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="78" t="s">
+      <c r="A10" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="79"/>
       <c r="C10" s="59">
         <v>226</v>
       </c>
@@ -82881,10 +82820,10 @@
       <c r="G10" s="59">
         <v>97345.934999999998</v>
       </c>
-      <c r="I10" s="78" t="s">
+      <c r="I10" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="78"/>
+      <c r="J10" s="79"/>
       <c r="K10" s="59">
         <v>25</v>
       </c>
@@ -82902,10 +82841,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="78" t="s">
+      <c r="A11" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="59">
         <v>226</v>
       </c>
@@ -82921,10 +82860,10 @@
       <c r="G11" s="59">
         <v>96357.847999999998</v>
       </c>
-      <c r="I11" s="78" t="s">
+      <c r="I11" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="78"/>
+      <c r="J11" s="79"/>
       <c r="K11" s="59">
         <v>25</v>
       </c>
@@ -82942,10 +82881,10 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="78" t="s">
+      <c r="A12" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="78"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="59">
         <v>226</v>
       </c>
@@ -82961,10 +82900,10 @@
       <c r="G12" s="59">
         <v>99297.52</v>
       </c>
-      <c r="I12" s="78" t="s">
+      <c r="I12" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="78"/>
+      <c r="J12" s="79"/>
       <c r="K12" s="59">
         <v>25</v>
       </c>
@@ -82982,10 +82921,10 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="78" t="s">
+      <c r="A13" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="78"/>
+      <c r="B13" s="79"/>
       <c r="C13" s="59">
         <v>226</v>
       </c>
@@ -83001,10 +82940,10 @@
       <c r="G13" s="59">
         <v>96849.358999999997</v>
       </c>
-      <c r="I13" s="78" t="s">
+      <c r="I13" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="78"/>
+      <c r="J13" s="79"/>
       <c r="K13" s="59">
         <v>25</v>
       </c>
@@ -83022,10 +82961,10 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="78" t="s">
+      <c r="A14" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="78"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="59">
         <v>226</v>
       </c>
@@ -83041,10 +82980,10 @@
       <c r="G14" s="59">
         <v>98806.009000000005</v>
       </c>
-      <c r="I14" s="78" t="s">
+      <c r="I14" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="78"/>
+      <c r="J14" s="79"/>
       <c r="K14" s="59">
         <v>25</v>
       </c>
@@ -83062,10 +83001,10 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="78" t="s">
+      <c r="A15" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="78"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="59">
         <v>226</v>
       </c>
@@ -83081,10 +83020,10 @@
       <c r="G15" s="59">
         <v>100273.31200000001</v>
       </c>
-      <c r="I15" s="78" t="s">
+      <c r="I15" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="78"/>
+      <c r="J15" s="79"/>
       <c r="K15" s="59">
         <v>25</v>
       </c>
@@ -83102,10 +83041,10 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="78" t="s">
+      <c r="A16" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="78"/>
+      <c r="B16" s="79"/>
       <c r="C16" s="59">
         <v>226</v>
       </c>
@@ -83121,10 +83060,10 @@
       <c r="G16" s="59">
         <v>95873.567999999999</v>
       </c>
-      <c r="I16" s="78" t="s">
+      <c r="I16" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="78"/>
+      <c r="J16" s="79"/>
       <c r="K16" s="59">
         <v>25</v>
       </c>
@@ -83142,10 +83081,10 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="78"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="59">
         <v>226</v>
       </c>
@@ -83161,10 +83100,10 @@
       <c r="G17" s="59">
         <v>98806.008000000002</v>
       </c>
-      <c r="I17" s="78" t="s">
+      <c r="I17" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="78"/>
+      <c r="J17" s="79"/>
       <c r="K17" s="59">
         <v>25</v>
       </c>
@@ -83182,10 +83121,10 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="78" t="s">
+      <c r="A18" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="78"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="59">
         <v>226</v>
       </c>
@@ -83201,10 +83140,10 @@
       <c r="G18" s="59">
         <v>95873.567999999999</v>
       </c>
-      <c r="I18" s="78" t="s">
+      <c r="I18" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="78"/>
+      <c r="J18" s="79"/>
       <c r="K18" s="59">
         <v>25</v>
       </c>
@@ -83222,10 +83161,10 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="78"/>
+      <c r="B19" s="79"/>
       <c r="C19" s="59">
         <v>226</v>
       </c>
@@ -83241,10 +83180,10 @@
       <c r="G19" s="59">
         <v>99781.801000000007</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="78"/>
+      <c r="J19" s="79"/>
       <c r="K19" s="59">
         <v>25</v>
       </c>
@@ -83265,18 +83204,18 @@
       <c r="A20" s="60" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="81" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="I20" s="78" t="s">
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="I20" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="78"/>
+      <c r="J20" s="79"/>
       <c r="K20" s="59">
         <v>25</v>
       </c>
@@ -83293,202 +83232,202 @@
         <v>7569.8</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="17">
+    <row r="21" spans="1:16">
       <c r="A21" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="I21" s="83" t="s">
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="81"/>
+      <c r="I21" s="82" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="79" t="s">
+      <c r="J21" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
+      <c r="K21" s="81"/>
+      <c r="L21" s="81"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="81"/>
     </row>
-    <row r="22" spans="1:16" ht="17">
+    <row r="22" spans="1:16">
       <c r="A22" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="79" t="s">
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="81"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="81" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
+      <c r="K22" s="81"/>
+      <c r="L22" s="81"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="81"/>
     </row>
-    <row r="23" spans="1:16" ht="17">
+    <row r="23" spans="1:16">
       <c r="A23" s="61" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
       <c r="I23" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="79" t="s">
+      <c r="J23" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
+      <c r="M23" s="81"/>
+      <c r="N23" s="81"/>
+      <c r="O23" s="81"/>
     </row>
-    <row r="24" spans="1:16" ht="17">
+    <row r="24" spans="1:16">
       <c r="A24" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
       <c r="I24" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="79" t="s">
+      <c r="J24" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
+      <c r="K24" s="81"/>
+      <c r="L24" s="81"/>
+      <c r="M24" s="81"/>
+      <c r="N24" s="81"/>
+      <c r="O24" s="81"/>
     </row>
-    <row r="25" spans="1:16" ht="17">
+    <row r="25" spans="1:16">
       <c r="A25" s="61" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="I25" s="76"/>
-      <c r="J25" s="76"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="81"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="77" t="s">
+      <c r="A26" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="77"/>
-      <c r="I26" s="77" t="s">
+      <c r="B26" s="84"/>
+      <c r="I26" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="77"/>
+      <c r="J26" s="84"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="81" t="s">
+      <c r="A28" s="78" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="81"/>
-      <c r="I28" s="81" t="s">
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="78"/>
+      <c r="I28" s="78" t="s">
         <v>171</v>
       </c>
-      <c r="J28" s="81"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="81"/>
-      <c r="O28" s="81"/>
-      <c r="P28" s="81"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="81"/>
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="81"/>
-      <c r="I29" s="81"/>
-      <c r="J29" s="81"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="81"/>
-      <c r="O29" s="81"/>
-      <c r="P29" s="81"/>
+      <c r="A29" s="78"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="78"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="78"/>
+      <c r="M29" s="78"/>
+      <c r="N29" s="78"/>
+      <c r="O29" s="78"/>
+      <c r="P29" s="78"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="82" t="s">
+      <c r="A30" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="82"/>
-      <c r="D30" s="82"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="82"/>
-      <c r="I30" s="82" t="s">
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="I30" s="85" t="s">
         <v>173</v>
       </c>
-      <c r="J30" s="82"/>
-      <c r="K30" s="82"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="82"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="82"/>
-      <c r="P30" s="82"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="76"/>
+      <c r="A31" s="83"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
+      <c r="G31" s="83"/>
+      <c r="I31" s="83"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="83"/>
+      <c r="L31" s="83"/>
+      <c r="M31" s="83"/>
+      <c r="N31" s="83"/>
+      <c r="O31" s="83"/>
+      <c r="P31" s="83"/>
     </row>
-    <row r="32" spans="1:16" ht="45">
+    <row r="32" spans="1:16" ht="39">
       <c r="A32" s="80" t="s">
         <v>126</v>
       </c>
@@ -83523,7 +83462,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:16" ht="32">
+    <row r="33" spans="1:16" ht="39">
       <c r="A33" s="80"/>
       <c r="B33" s="80"/>
       <c r="C33" s="80" t="s">
@@ -83560,7 +83499,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="30">
+    <row r="34" spans="1:16" ht="26">
       <c r="A34" s="80"/>
       <c r="B34" s="80"/>
       <c r="C34" s="80"/>
@@ -83628,10 +83567,10 @@
         <f>SUM(G36:G47)*1000</f>
         <v>475509660.99999994</v>
       </c>
-      <c r="I35" s="78" t="s">
+      <c r="I35" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="78"/>
+      <c r="J35" s="79"/>
       <c r="K35" s="59">
         <v>32</v>
       </c>
@@ -83652,10 +83591,10 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="78" t="s">
+      <c r="A36" s="79" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="78"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="59">
         <v>48</v>
       </c>
@@ -83671,10 +83610,10 @@
       <c r="G36" s="59">
         <v>36978.737000000001</v>
       </c>
-      <c r="I36" s="78" t="s">
+      <c r="I36" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="78"/>
+      <c r="J36" s="79"/>
       <c r="K36" s="59">
         <v>32</v>
       </c>
@@ -83695,10 +83634,10 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="78" t="s">
+      <c r="A37" s="79" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="78"/>
+      <c r="B37" s="79"/>
       <c r="C37" s="59">
         <v>48</v>
       </c>
@@ -83714,10 +83653,10 @@
       <c r="G37" s="59">
         <v>37239.540999999997</v>
       </c>
-      <c r="I37" s="78" t="s">
+      <c r="I37" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="J37" s="78"/>
+      <c r="J37" s="79"/>
       <c r="K37" s="59">
         <v>32</v>
       </c>
@@ -83738,10 +83677,10 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="78" t="s">
+      <c r="A38" s="79" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="78"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="59">
         <v>48</v>
       </c>
@@ -83757,10 +83696,10 @@
       <c r="G38" s="59">
         <v>36746.699999999997</v>
       </c>
-      <c r="I38" s="78" t="s">
+      <c r="I38" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="78"/>
+      <c r="J38" s="79"/>
       <c r="K38" s="59">
         <v>32</v>
       </c>
@@ -83781,10 +83720,10 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="78"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="59">
         <v>48</v>
       </c>
@@ -83800,10 +83739,10 @@
       <c r="G39" s="59">
         <v>38619.072</v>
       </c>
-      <c r="I39" s="78" t="s">
+      <c r="I39" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="78"/>
+      <c r="J39" s="79"/>
       <c r="K39" s="59">
         <v>32</v>
       </c>
@@ -83824,10 +83763,10 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="78" t="s">
+      <c r="A40" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="78"/>
+      <c r="B40" s="79"/>
       <c r="C40" s="59">
         <v>48</v>
       </c>
@@ -83843,10 +83782,10 @@
       <c r="G40" s="59">
         <v>39357.822999999997</v>
       </c>
-      <c r="I40" s="78" t="s">
+      <c r="I40" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="J40" s="78"/>
+      <c r="J40" s="79"/>
       <c r="K40" s="59">
         <v>32</v>
       </c>
@@ -83867,10 +83806,10 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="78" t="s">
+      <c r="A41" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="79"/>
       <c r="C41" s="59">
         <v>48</v>
       </c>
@@ -83886,10 +83825,10 @@
       <c r="G41" s="59">
         <v>37431.334000000003</v>
       </c>
-      <c r="I41" s="78" t="s">
+      <c r="I41" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="J41" s="78"/>
+      <c r="J41" s="79"/>
       <c r="K41" s="59">
         <v>32</v>
       </c>
@@ -83910,10 +83849,10 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="78"/>
+      <c r="B42" s="79"/>
       <c r="C42" s="59">
         <v>48</v>
       </c>
@@ -83929,10 +83868,10 @@
       <c r="G42" s="59">
         <v>37326.470999999998</v>
       </c>
-      <c r="I42" s="78" t="s">
+      <c r="I42" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="J42" s="78"/>
+      <c r="J42" s="79"/>
       <c r="K42" s="59">
         <v>32</v>
       </c>
@@ -83953,10 +83892,10 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="78" t="s">
+      <c r="A43" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="78"/>
+      <c r="B43" s="79"/>
       <c r="C43" s="59">
         <v>48</v>
       </c>
@@ -83972,10 +83911,10 @@
       <c r="G43" s="59">
         <v>40265.175999999999</v>
       </c>
-      <c r="I43" s="78" t="s">
+      <c r="I43" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="78"/>
+      <c r="J43" s="79"/>
       <c r="K43" s="59">
         <v>32</v>
       </c>
@@ -83996,10 +83935,10 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="78" t="s">
+      <c r="A44" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="78"/>
+      <c r="B44" s="79"/>
       <c r="C44" s="59">
         <v>48</v>
       </c>
@@ -84015,10 +83954,10 @@
       <c r="G44" s="59">
         <v>39636.254000000001</v>
       </c>
-      <c r="I44" s="78" t="s">
+      <c r="I44" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="J44" s="78"/>
+      <c r="J44" s="79"/>
       <c r="K44" s="59">
         <v>32</v>
       </c>
@@ -84039,10 +83978,10 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="78" t="s">
+      <c r="A45" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="78"/>
+      <c r="B45" s="79"/>
       <c r="C45" s="59">
         <v>48</v>
       </c>
@@ -84058,10 +83997,10 @@
       <c r="G45" s="59">
         <v>42836.974999999999</v>
       </c>
-      <c r="I45" s="78" t="s">
+      <c r="I45" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="J45" s="78"/>
+      <c r="J45" s="79"/>
       <c r="K45" s="59">
         <v>32</v>
       </c>
@@ -84082,10 +84021,10 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="78" t="s">
+      <c r="A46" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="78"/>
+      <c r="B46" s="79"/>
       <c r="C46" s="59">
         <v>48</v>
       </c>
@@ -84101,10 +84040,10 @@
       <c r="G46" s="59">
         <v>44749.88</v>
       </c>
-      <c r="I46" s="78" t="s">
+      <c r="I46" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="J46" s="78"/>
+      <c r="J46" s="79"/>
       <c r="K46" s="59">
         <v>32</v>
       </c>
@@ -84124,11 +84063,11 @@
         <v>3378.7449999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="17">
-      <c r="A47" s="78" t="s">
+    <row r="47" spans="1:16">
+      <c r="A47" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="78"/>
+      <c r="B47" s="79"/>
       <c r="C47" s="59">
         <v>48</v>
       </c>
@@ -84147,69 +84086,69 @@
       <c r="I47" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="J47" s="79" t="s">
+      <c r="J47" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
-      <c r="P47" s="79"/>
+      <c r="K47" s="81"/>
+      <c r="L47" s="81"/>
+      <c r="M47" s="81"/>
+      <c r="N47" s="81"/>
+      <c r="O47" s="81"/>
+      <c r="P47" s="81"/>
     </row>
-    <row r="48" spans="1:16" ht="17">
+    <row r="48" spans="1:16">
       <c r="A48" s="61" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
       <c r="I48" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="J48" s="79" t="s">
+      <c r="J48" s="81" t="s">
         <v>181</v>
       </c>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79"/>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
-      <c r="P48" s="79"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
+      <c r="M48" s="81"/>
+      <c r="N48" s="81"/>
+      <c r="O48" s="81"/>
+      <c r="P48" s="81"/>
     </row>
-    <row r="49" spans="1:10" ht="17">
+    <row r="49" spans="1:10">
       <c r="A49" s="61" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="79" t="s">
+      <c r="B49" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="I49" s="76"/>
-      <c r="J49" s="76"/>
+      <c r="C49" s="81"/>
+      <c r="D49" s="81"/>
+      <c r="E49" s="81"/>
+      <c r="F49" s="81"/>
+      <c r="G49" s="81"/>
+      <c r="I49" s="83"/>
+      <c r="J49" s="83"/>
     </row>
     <row r="50" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A50" s="76"/>
-      <c r="B50" s="76"/>
-      <c r="I50" s="77" t="s">
+      <c r="A50" s="83"/>
+      <c r="B50" s="83"/>
+      <c r="I50" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="J50" s="77"/>
+      <c r="J50" s="84"/>
     </row>
     <row r="51" spans="1:10" ht="33" customHeight="1">
-      <c r="A51" s="77" t="s">
+      <c r="A51" s="84" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="77"/>
+      <c r="B51" s="84"/>
     </row>
     <row r="54" spans="1:10" ht="33.75" customHeight="1">
       <c r="C54" s="62" t="s">
@@ -84266,6 +84205,88 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A28:G29"/>
+    <mergeCell ref="I28:P29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="I1:O2"/>
     <mergeCell ref="A3:G4"/>
@@ -84277,88 +84298,6 @@
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A28:G29"/>
-    <mergeCell ref="I28:P29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -84366,13 +84305,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
@@ -84409,6 +84348,17 @@
     <row r="7" spans="2:3">
       <c r="B7" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="C10">
+        <f>SUM(C3:C4)*0.02</f>
+        <v>382.92</v>
       </c>
     </row>
   </sheetData>
@@ -84424,21 +84374,21 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:8" ht="29">
+      <c r="A1" s="70" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -84641,21 +84591,21 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="8" width="23.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:8" ht="29">
+      <c r="A1" s="70" t="s">
         <v>192</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -84802,8 +84752,8 @@
         <v>0</v>
       </c>
       <c r="E6" s="6">
-        <f>Ships!C3+Ships!C4</f>
-        <v>19146</v>
+        <f>Ships!C10</f>
+        <v>382.92</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
+++ b/InputData/trans/SYVbT/Start Year Vehicles by Technology.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssy02/Desktop/Mexico/eps-mexico-3.3.1.1 3/InputData/trans/SYVbT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ssy02/Desktop/EPS.Modelo 030924/InputData/trans/SYVbT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8D300C-A5FB-C94D-B0F9-EC779F8BD0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD86A276-E2DC-9B4E-8B0F-2C9B18CFF1E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" tabRatio="762" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Mexico-Christopher" sheetId="19" r:id="rId2"/>
-    <sheet name="Aircraft" sheetId="16" r:id="rId3"/>
-    <sheet name="Rail" sheetId="17" r:id="rId4"/>
-    <sheet name="Rail Pssgr" sheetId="20" r:id="rId5"/>
-    <sheet name="Ships" sheetId="18" r:id="rId6"/>
-    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId7"/>
-    <sheet name="SYVbT-freight" sheetId="4" r:id="rId8"/>
+    <sheet name="RMV" sheetId="21" r:id="rId3"/>
+    <sheet name="Aircraft" sheetId="16" r:id="rId4"/>
+    <sheet name="Rail" sheetId="17" r:id="rId5"/>
+    <sheet name="Rail Pssgr" sheetId="20" r:id="rId6"/>
+    <sheet name="Ships" sheetId="18" r:id="rId7"/>
+    <sheet name="SYVbT-passenger" sheetId="2" r:id="rId8"/>
+    <sheet name="SYVbT-freight" sheetId="4" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="cpi_2010to2012">[1]About!#REF!</definedName>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="208">
   <si>
     <t>SYVbT Start Year Vehicles by Technology</t>
   </si>
@@ -783,6 +784,42 @@
   <si>
     <t>This is too high, estimated ships are 2% of this</t>
   </si>
+  <si>
+    <t>Registered motor vehicles in circulation</t>
+  </si>
+  <si>
+    <t>Consulta de: Vehículos registrados   Por: Año de registro   Según: Clase de vehículo</t>
+  </si>
+  <si>
+    <t>Tipo de servicio : Total</t>
+  </si>
+  <si>
+    <t>https://datos.gob.mx/</t>
+  </si>
+  <si>
+    <t>National Institute of Statistics and Geography (INEGI)</t>
+  </si>
+  <si>
+    <t>Type of service: Total</t>
+  </si>
+  <si>
+    <t>Query of: Registered vehicles   By: Year of registration   According to: Vehicle class</t>
+  </si>
+  <si>
+    <t>Vehículos de motor registrados en circulación</t>
+  </si>
+  <si>
+    <t>Automóviles</t>
+  </si>
+  <si>
+    <t>Camiones para pasajeros</t>
+  </si>
+  <si>
+    <t>Camiones y camionetas para carga</t>
+  </si>
+  <si>
+    <t>FUENTE: INEGI. Estadísticas de vehículos de motor registrados en circulación.</t>
+  </si>
 </sst>
 </file>
 
@@ -797,7 +834,7 @@
     <numFmt numFmtId="167" formatCode="#,##0_)"/>
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="64">
+  <fonts count="63">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1208,13 +1245,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1951,7 +1981,7 @@
     <xf numFmtId="0" fontId="47" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="48" fillId="35" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2108,6 +2138,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="49" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -2120,11 +2158,23 @@
     <xf numFmtId="0" fontId="39" fillId="29" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="36" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="36" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2133,31 +2183,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="63" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="144">
     <cellStyle name="20% - Accent1 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2831,10 +2859,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -2867,37 +2895,37 @@
     </row>
     <row r="7" spans="1:2">
       <c r="B7" s="2" t="s">
-        <v>60</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>55</v>
+      <c r="B8" s="67" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="3">
-        <v>2015</v>
+      <c r="B9" s="67" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>49</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2907,27 +2935,27 @@
     </row>
     <row r="16" spans="1:2">
       <c r="B16" s="3">
-        <v>2018</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="2:2">
@@ -2937,76 +2965,106 @@
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="3">
-        <v>2015</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="2" t="s">
-        <v>182</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>183</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" s="3">
-        <v>2016</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="3" t="s">
-        <v>184</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="3" t="s">
-        <v>185</v>
+      <c r="B32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="B33" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>3</v>
+      <c r="B35" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>67</v>
+      <c r="B36" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="3">
+        <v>2016</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>66</v>
+      <c r="B38" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="32" t="s">
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="32" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3116,862 +3174,862 @@
         <f>UF6</f>
         <v>2019</v>
       </c>
-      <c r="H4" s="71" t="s">
+      <c r="H4" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="71"/>
-      <c r="O4" s="71"/>
-      <c r="P4" s="71"/>
-      <c r="Q4" s="71"/>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="71"/>
-      <c r="AO4" s="71"/>
-      <c r="AP4" s="71"/>
-      <c r="AQ4" s="71"/>
-      <c r="AR4" s="71"/>
-      <c r="AS4" s="71"/>
-      <c r="AT4" s="71"/>
-      <c r="AU4" s="71"/>
-      <c r="AV4" s="71"/>
-      <c r="AW4" s="71"/>
-      <c r="AX4" s="71"/>
-      <c r="AY4" s="71"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="71"/>
-      <c r="BB4" s="71"/>
-      <c r="BC4" s="71"/>
-      <c r="BD4" s="71"/>
-      <c r="BE4" s="71"/>
-      <c r="BF4" s="71"/>
-      <c r="BG4" s="71"/>
-      <c r="BH4" s="71"/>
-      <c r="BI4" s="71"/>
-      <c r="BJ4" s="71"/>
-      <c r="BK4" s="71"/>
-      <c r="BL4" s="71"/>
-      <c r="BM4" s="71"/>
-      <c r="BN4" s="71"/>
-      <c r="BO4" s="71"/>
-      <c r="BP4" s="71"/>
-      <c r="BQ4" s="71"/>
-      <c r="BR4" s="71"/>
-      <c r="BS4" s="71"/>
-      <c r="BT4" s="71"/>
-      <c r="BU4" s="71"/>
-      <c r="BV4" s="71"/>
-      <c r="BW4" s="71"/>
-      <c r="BX4" s="71"/>
-      <c r="BY4" s="71"/>
-      <c r="BZ4" s="71"/>
-      <c r="CA4" s="71"/>
-      <c r="CB4" s="71"/>
-      <c r="CC4" s="71"/>
-      <c r="CD4" s="71"/>
-      <c r="CE4" s="71"/>
-      <c r="CF4" s="71"/>
-      <c r="CG4" s="71"/>
-      <c r="CH4" s="71"/>
-      <c r="CI4" s="71"/>
-      <c r="CJ4" s="71"/>
-      <c r="CK4" s="71"/>
-      <c r="CL4" s="71"/>
-      <c r="CM4" s="71"/>
-      <c r="CN4" s="71"/>
-      <c r="CO4" s="71" t="s">
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="69"/>
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="69"/>
+      <c r="Q4" s="69"/>
+      <c r="R4" s="69"/>
+      <c r="S4" s="69"/>
+      <c r="T4" s="69"/>
+      <c r="U4" s="69"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="69"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="69"/>
+      <c r="BB4" s="69"/>
+      <c r="BC4" s="69"/>
+      <c r="BD4" s="69"/>
+      <c r="BE4" s="69"/>
+      <c r="BF4" s="69"/>
+      <c r="BG4" s="69"/>
+      <c r="BH4" s="69"/>
+      <c r="BI4" s="69"/>
+      <c r="BJ4" s="69"/>
+      <c r="BK4" s="69"/>
+      <c r="BL4" s="69"/>
+      <c r="BM4" s="69"/>
+      <c r="BN4" s="69"/>
+      <c r="BO4" s="69"/>
+      <c r="BP4" s="69"/>
+      <c r="BQ4" s="69"/>
+      <c r="BR4" s="69"/>
+      <c r="BS4" s="69"/>
+      <c r="BT4" s="69"/>
+      <c r="BU4" s="69"/>
+      <c r="BV4" s="69"/>
+      <c r="BW4" s="69"/>
+      <c r="BX4" s="69"/>
+      <c r="BY4" s="69"/>
+      <c r="BZ4" s="69"/>
+      <c r="CA4" s="69"/>
+      <c r="CB4" s="69"/>
+      <c r="CC4" s="69"/>
+      <c r="CD4" s="69"/>
+      <c r="CE4" s="69"/>
+      <c r="CF4" s="69"/>
+      <c r="CG4" s="69"/>
+      <c r="CH4" s="69"/>
+      <c r="CI4" s="69"/>
+      <c r="CJ4" s="69"/>
+      <c r="CK4" s="69"/>
+      <c r="CL4" s="69"/>
+      <c r="CM4" s="69"/>
+      <c r="CN4" s="69"/>
+      <c r="CO4" s="69" t="s">
         <v>74</v>
       </c>
-      <c r="CP4" s="71"/>
-      <c r="CQ4" s="71"/>
-      <c r="CR4" s="71"/>
-      <c r="CS4" s="71"/>
-      <c r="CT4" s="71"/>
-      <c r="CU4" s="71"/>
-      <c r="CV4" s="71"/>
-      <c r="CW4" s="71"/>
-      <c r="CX4" s="71"/>
-      <c r="CY4" s="71"/>
-      <c r="CZ4" s="71"/>
-      <c r="DA4" s="71"/>
-      <c r="DB4" s="71"/>
-      <c r="DC4" s="71"/>
-      <c r="DD4" s="71"/>
-      <c r="DE4" s="71"/>
-      <c r="DF4" s="71"/>
-      <c r="DG4" s="71"/>
-      <c r="DH4" s="71"/>
-      <c r="DI4" s="71"/>
-      <c r="DJ4" s="71"/>
-      <c r="DK4" s="71"/>
-      <c r="DL4" s="71"/>
-      <c r="DM4" s="71"/>
-      <c r="DN4" s="71"/>
-      <c r="DO4" s="71"/>
-      <c r="DP4" s="71"/>
-      <c r="DQ4" s="71"/>
-      <c r="DR4" s="71"/>
-      <c r="DS4" s="71"/>
-      <c r="DT4" s="71"/>
-      <c r="DU4" s="71"/>
-      <c r="DV4" s="71"/>
-      <c r="DW4" s="71"/>
-      <c r="DX4" s="71"/>
-      <c r="DY4" s="71"/>
-      <c r="DZ4" s="71"/>
-      <c r="EA4" s="71"/>
-      <c r="EB4" s="71"/>
-      <c r="EC4" s="71"/>
-      <c r="ED4" s="71"/>
-      <c r="EE4" s="71"/>
-      <c r="EF4" s="71"/>
-      <c r="EG4" s="71"/>
-      <c r="EH4" s="71"/>
-      <c r="EI4" s="71"/>
-      <c r="EJ4" s="71"/>
-      <c r="EK4" s="71"/>
-      <c r="EL4" s="71"/>
-      <c r="EM4" s="71"/>
-      <c r="EN4" s="71"/>
-      <c r="EO4" s="71"/>
-      <c r="EP4" s="71"/>
-      <c r="EQ4" s="71"/>
-      <c r="ER4" s="71"/>
-      <c r="ES4" s="71"/>
-      <c r="ET4" s="71"/>
-      <c r="EU4" s="71"/>
-      <c r="EV4" s="71"/>
-      <c r="EW4" s="71"/>
-      <c r="EX4" s="71"/>
-      <c r="EY4" s="71"/>
-      <c r="EZ4" s="71"/>
-      <c r="FA4" s="70" t="s">
+      <c r="CP4" s="69"/>
+      <c r="CQ4" s="69"/>
+      <c r="CR4" s="69"/>
+      <c r="CS4" s="69"/>
+      <c r="CT4" s="69"/>
+      <c r="CU4" s="69"/>
+      <c r="CV4" s="69"/>
+      <c r="CW4" s="69"/>
+      <c r="CX4" s="69"/>
+      <c r="CY4" s="69"/>
+      <c r="CZ4" s="69"/>
+      <c r="DA4" s="69"/>
+      <c r="DB4" s="69"/>
+      <c r="DC4" s="69"/>
+      <c r="DD4" s="69"/>
+      <c r="DE4" s="69"/>
+      <c r="DF4" s="69"/>
+      <c r="DG4" s="69"/>
+      <c r="DH4" s="69"/>
+      <c r="DI4" s="69"/>
+      <c r="DJ4" s="69"/>
+      <c r="DK4" s="69"/>
+      <c r="DL4" s="69"/>
+      <c r="DM4" s="69"/>
+      <c r="DN4" s="69"/>
+      <c r="DO4" s="69"/>
+      <c r="DP4" s="69"/>
+      <c r="DQ4" s="69"/>
+      <c r="DR4" s="69"/>
+      <c r="DS4" s="69"/>
+      <c r="DT4" s="69"/>
+      <c r="DU4" s="69"/>
+      <c r="DV4" s="69"/>
+      <c r="DW4" s="69"/>
+      <c r="DX4" s="69"/>
+      <c r="DY4" s="69"/>
+      <c r="DZ4" s="69"/>
+      <c r="EA4" s="69"/>
+      <c r="EB4" s="69"/>
+      <c r="EC4" s="69"/>
+      <c r="ED4" s="69"/>
+      <c r="EE4" s="69"/>
+      <c r="EF4" s="69"/>
+      <c r="EG4" s="69"/>
+      <c r="EH4" s="69"/>
+      <c r="EI4" s="69"/>
+      <c r="EJ4" s="69"/>
+      <c r="EK4" s="69"/>
+      <c r="EL4" s="69"/>
+      <c r="EM4" s="69"/>
+      <c r="EN4" s="69"/>
+      <c r="EO4" s="69"/>
+      <c r="EP4" s="69"/>
+      <c r="EQ4" s="69"/>
+      <c r="ER4" s="69"/>
+      <c r="ES4" s="69"/>
+      <c r="ET4" s="69"/>
+      <c r="EU4" s="69"/>
+      <c r="EV4" s="69"/>
+      <c r="EW4" s="69"/>
+      <c r="EX4" s="69"/>
+      <c r="EY4" s="69"/>
+      <c r="EZ4" s="69"/>
+      <c r="FA4" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="FB4" s="70"/>
-      <c r="FC4" s="70"/>
-      <c r="FD4" s="70"/>
-      <c r="FE4" s="70"/>
-      <c r="FF4" s="70"/>
-      <c r="FG4" s="70"/>
-      <c r="FH4" s="70"/>
-      <c r="FI4" s="70"/>
-      <c r="FJ4" s="70"/>
-      <c r="FK4" s="70"/>
-      <c r="FL4" s="70"/>
-      <c r="FM4" s="70"/>
-      <c r="FN4" s="70"/>
-      <c r="FO4" s="70"/>
-      <c r="FP4" s="70"/>
-      <c r="FQ4" s="70"/>
-      <c r="FR4" s="70"/>
-      <c r="FS4" s="70"/>
-      <c r="FT4" s="70"/>
-      <c r="FU4" s="70"/>
-      <c r="FV4" s="70"/>
-      <c r="FW4" s="70"/>
-      <c r="FX4" s="70"/>
-      <c r="FY4" s="70"/>
-      <c r="FZ4" s="70"/>
-      <c r="GA4" s="70"/>
-      <c r="GB4" s="70"/>
-      <c r="GC4" s="70"/>
-      <c r="GD4" s="70"/>
-      <c r="GE4" s="70"/>
-      <c r="GF4" s="70"/>
-      <c r="GG4" s="70"/>
-      <c r="GH4" s="70"/>
-      <c r="GI4" s="70"/>
-      <c r="GJ4" s="70"/>
-      <c r="GK4" s="70"/>
-      <c r="GL4" s="70"/>
-      <c r="GM4" s="70"/>
-      <c r="GN4" s="70"/>
-      <c r="GO4" s="70"/>
-      <c r="GP4" s="70"/>
-      <c r="GQ4" s="70"/>
-      <c r="GR4" s="70"/>
-      <c r="GS4" s="70"/>
-      <c r="GT4" s="70"/>
-      <c r="GU4" s="70"/>
-      <c r="GV4" s="70"/>
-      <c r="GW4" s="70"/>
-      <c r="GX4" s="70"/>
-      <c r="GY4" s="70"/>
-      <c r="GZ4" s="70"/>
-      <c r="HA4" s="70"/>
-      <c r="HB4" s="70"/>
-      <c r="HC4" s="70"/>
-      <c r="HD4" s="70"/>
-      <c r="HE4" s="70"/>
-      <c r="HF4" s="70"/>
-      <c r="HG4" s="70"/>
-      <c r="HH4" s="70"/>
-      <c r="HI4" s="70"/>
-      <c r="HJ4" s="70"/>
-      <c r="HK4" s="70"/>
-      <c r="HL4" s="70"/>
-      <c r="HM4" s="70"/>
-      <c r="HN4" s="70"/>
-      <c r="HO4" s="70"/>
-      <c r="HP4" s="70"/>
-      <c r="HQ4" s="70"/>
-      <c r="HR4" s="70"/>
-      <c r="HS4" s="70"/>
-      <c r="HT4" s="70"/>
-      <c r="HU4" s="70"/>
-      <c r="HV4" s="70"/>
-      <c r="HW4" s="70"/>
-      <c r="HX4" s="70"/>
-      <c r="HY4" s="70"/>
-      <c r="HZ4" s="70"/>
-      <c r="IA4" s="70"/>
-      <c r="IB4" s="70"/>
-      <c r="IC4" s="70"/>
-      <c r="ID4" s="70"/>
-      <c r="IE4" s="70"/>
-      <c r="IF4" s="70"/>
-      <c r="IG4" s="70"/>
-      <c r="IH4" s="70"/>
-      <c r="II4" s="71" t="s">
+      <c r="FB4" s="68"/>
+      <c r="FC4" s="68"/>
+      <c r="FD4" s="68"/>
+      <c r="FE4" s="68"/>
+      <c r="FF4" s="68"/>
+      <c r="FG4" s="68"/>
+      <c r="FH4" s="68"/>
+      <c r="FI4" s="68"/>
+      <c r="FJ4" s="68"/>
+      <c r="FK4" s="68"/>
+      <c r="FL4" s="68"/>
+      <c r="FM4" s="68"/>
+      <c r="FN4" s="68"/>
+      <c r="FO4" s="68"/>
+      <c r="FP4" s="68"/>
+      <c r="FQ4" s="68"/>
+      <c r="FR4" s="68"/>
+      <c r="FS4" s="68"/>
+      <c r="FT4" s="68"/>
+      <c r="FU4" s="68"/>
+      <c r="FV4" s="68"/>
+      <c r="FW4" s="68"/>
+      <c r="FX4" s="68"/>
+      <c r="FY4" s="68"/>
+      <c r="FZ4" s="68"/>
+      <c r="GA4" s="68"/>
+      <c r="GB4" s="68"/>
+      <c r="GC4" s="68"/>
+      <c r="GD4" s="68"/>
+      <c r="GE4" s="68"/>
+      <c r="GF4" s="68"/>
+      <c r="GG4" s="68"/>
+      <c r="GH4" s="68"/>
+      <c r="GI4" s="68"/>
+      <c r="GJ4" s="68"/>
+      <c r="GK4" s="68"/>
+      <c r="GL4" s="68"/>
+      <c r="GM4" s="68"/>
+      <c r="GN4" s="68"/>
+      <c r="GO4" s="68"/>
+      <c r="GP4" s="68"/>
+      <c r="GQ4" s="68"/>
+      <c r="GR4" s="68"/>
+      <c r="GS4" s="68"/>
+      <c r="GT4" s="68"/>
+      <c r="GU4" s="68"/>
+      <c r="GV4" s="68"/>
+      <c r="GW4" s="68"/>
+      <c r="GX4" s="68"/>
+      <c r="GY4" s="68"/>
+      <c r="GZ4" s="68"/>
+      <c r="HA4" s="68"/>
+      <c r="HB4" s="68"/>
+      <c r="HC4" s="68"/>
+      <c r="HD4" s="68"/>
+      <c r="HE4" s="68"/>
+      <c r="HF4" s="68"/>
+      <c r="HG4" s="68"/>
+      <c r="HH4" s="68"/>
+      <c r="HI4" s="68"/>
+      <c r="HJ4" s="68"/>
+      <c r="HK4" s="68"/>
+      <c r="HL4" s="68"/>
+      <c r="HM4" s="68"/>
+      <c r="HN4" s="68"/>
+      <c r="HO4" s="68"/>
+      <c r="HP4" s="68"/>
+      <c r="HQ4" s="68"/>
+      <c r="HR4" s="68"/>
+      <c r="HS4" s="68"/>
+      <c r="HT4" s="68"/>
+      <c r="HU4" s="68"/>
+      <c r="HV4" s="68"/>
+      <c r="HW4" s="68"/>
+      <c r="HX4" s="68"/>
+      <c r="HY4" s="68"/>
+      <c r="HZ4" s="68"/>
+      <c r="IA4" s="68"/>
+      <c r="IB4" s="68"/>
+      <c r="IC4" s="68"/>
+      <c r="ID4" s="68"/>
+      <c r="IE4" s="68"/>
+      <c r="IF4" s="68"/>
+      <c r="IG4" s="68"/>
+      <c r="IH4" s="68"/>
+      <c r="II4" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="IJ4" s="71"/>
-      <c r="IK4" s="71"/>
-      <c r="IL4" s="71"/>
-      <c r="IM4" s="71"/>
-      <c r="IN4" s="71"/>
-      <c r="IO4" s="71"/>
-      <c r="IP4" s="71"/>
-      <c r="IQ4" s="71"/>
-      <c r="IR4" s="71"/>
-      <c r="IS4" s="71"/>
-      <c r="IT4" s="71"/>
-      <c r="IU4" s="71"/>
-      <c r="IV4" s="71"/>
-      <c r="IW4" s="71"/>
-      <c r="IX4" s="71"/>
-      <c r="IY4" s="71"/>
-      <c r="IZ4" s="71"/>
-      <c r="JA4" s="71"/>
-      <c r="JB4" s="71"/>
-      <c r="JC4" s="71"/>
-      <c r="JD4" s="71"/>
-      <c r="JE4" s="71"/>
-      <c r="JF4" s="71"/>
-      <c r="JG4" s="71"/>
-      <c r="JH4" s="71"/>
-      <c r="JI4" s="71"/>
-      <c r="JJ4" s="71"/>
-      <c r="JK4" s="71"/>
-      <c r="JL4" s="71"/>
-      <c r="JM4" s="71"/>
-      <c r="JN4" s="71"/>
-      <c r="JO4" s="71"/>
-      <c r="JP4" s="71"/>
-      <c r="JQ4" s="71"/>
-      <c r="JR4" s="71"/>
-      <c r="JS4" s="71"/>
-      <c r="JT4" s="71"/>
-      <c r="JU4" s="71"/>
-      <c r="JV4" s="71"/>
-      <c r="JW4" s="71"/>
-      <c r="JX4" s="71"/>
-      <c r="JY4" s="71"/>
-      <c r="JZ4" s="71"/>
-      <c r="KA4" s="71"/>
-      <c r="KB4" s="71"/>
-      <c r="KC4" s="71"/>
-      <c r="KD4" s="71"/>
-      <c r="KE4" s="71"/>
-      <c r="KF4" s="71"/>
-      <c r="KG4" s="71"/>
-      <c r="KH4" s="71"/>
-      <c r="KI4" s="71"/>
-      <c r="KJ4" s="71"/>
-      <c r="KK4" s="71"/>
-      <c r="KL4" s="71"/>
-      <c r="KM4" s="71"/>
-      <c r="KN4" s="71"/>
-      <c r="KO4" s="71"/>
-      <c r="KP4" s="71"/>
-      <c r="KQ4" s="71"/>
-      <c r="KR4" s="71"/>
-      <c r="KS4" s="71"/>
-      <c r="KT4" s="71"/>
-      <c r="KU4" s="70" t="s">
+      <c r="IJ4" s="69"/>
+      <c r="IK4" s="69"/>
+      <c r="IL4" s="69"/>
+      <c r="IM4" s="69"/>
+      <c r="IN4" s="69"/>
+      <c r="IO4" s="69"/>
+      <c r="IP4" s="69"/>
+      <c r="IQ4" s="69"/>
+      <c r="IR4" s="69"/>
+      <c r="IS4" s="69"/>
+      <c r="IT4" s="69"/>
+      <c r="IU4" s="69"/>
+      <c r="IV4" s="69"/>
+      <c r="IW4" s="69"/>
+      <c r="IX4" s="69"/>
+      <c r="IY4" s="69"/>
+      <c r="IZ4" s="69"/>
+      <c r="JA4" s="69"/>
+      <c r="JB4" s="69"/>
+      <c r="JC4" s="69"/>
+      <c r="JD4" s="69"/>
+      <c r="JE4" s="69"/>
+      <c r="JF4" s="69"/>
+      <c r="JG4" s="69"/>
+      <c r="JH4" s="69"/>
+      <c r="JI4" s="69"/>
+      <c r="JJ4" s="69"/>
+      <c r="JK4" s="69"/>
+      <c r="JL4" s="69"/>
+      <c r="JM4" s="69"/>
+      <c r="JN4" s="69"/>
+      <c r="JO4" s="69"/>
+      <c r="JP4" s="69"/>
+      <c r="JQ4" s="69"/>
+      <c r="JR4" s="69"/>
+      <c r="JS4" s="69"/>
+      <c r="JT4" s="69"/>
+      <c r="JU4" s="69"/>
+      <c r="JV4" s="69"/>
+      <c r="JW4" s="69"/>
+      <c r="JX4" s="69"/>
+      <c r="JY4" s="69"/>
+      <c r="JZ4" s="69"/>
+      <c r="KA4" s="69"/>
+      <c r="KB4" s="69"/>
+      <c r="KC4" s="69"/>
+      <c r="KD4" s="69"/>
+      <c r="KE4" s="69"/>
+      <c r="KF4" s="69"/>
+      <c r="KG4" s="69"/>
+      <c r="KH4" s="69"/>
+      <c r="KI4" s="69"/>
+      <c r="KJ4" s="69"/>
+      <c r="KK4" s="69"/>
+      <c r="KL4" s="69"/>
+      <c r="KM4" s="69"/>
+      <c r="KN4" s="69"/>
+      <c r="KO4" s="69"/>
+      <c r="KP4" s="69"/>
+      <c r="KQ4" s="69"/>
+      <c r="KR4" s="69"/>
+      <c r="KS4" s="69"/>
+      <c r="KT4" s="69"/>
+      <c r="KU4" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="KV4" s="70"/>
-      <c r="KW4" s="70"/>
-      <c r="KX4" s="70"/>
-      <c r="KY4" s="70"/>
-      <c r="KZ4" s="70"/>
-      <c r="LA4" s="70"/>
-      <c r="LB4" s="70"/>
-      <c r="LC4" s="70"/>
-      <c r="LD4" s="70"/>
-      <c r="LE4" s="70"/>
-      <c r="LF4" s="70"/>
-      <c r="LG4" s="70"/>
-      <c r="LH4" s="70"/>
-      <c r="LI4" s="70"/>
-      <c r="LJ4" s="70"/>
-      <c r="LK4" s="70"/>
-      <c r="LL4" s="70"/>
-      <c r="LM4" s="70"/>
-      <c r="LN4" s="70"/>
-      <c r="LO4" s="70"/>
-      <c r="LP4" s="70"/>
-      <c r="LQ4" s="70"/>
-      <c r="LR4" s="70"/>
-      <c r="LS4" s="70"/>
-      <c r="LT4" s="70"/>
-      <c r="LU4" s="70"/>
-      <c r="LV4" s="70"/>
-      <c r="LW4" s="70"/>
-      <c r="LX4" s="70"/>
-      <c r="LY4" s="70"/>
-      <c r="LZ4" s="70"/>
-      <c r="MA4" s="70"/>
-      <c r="MB4" s="70"/>
-      <c r="MC4" s="70"/>
-      <c r="MD4" s="70"/>
-      <c r="ME4" s="70"/>
-      <c r="MF4" s="70"/>
-      <c r="MG4" s="70"/>
-      <c r="MH4" s="70"/>
-      <c r="MI4" s="70"/>
-      <c r="MJ4" s="70"/>
-      <c r="MK4" s="70"/>
-      <c r="ML4" s="70"/>
-      <c r="MM4" s="70"/>
-      <c r="MN4" s="70"/>
-      <c r="MO4" s="70"/>
-      <c r="MP4" s="70"/>
-      <c r="MQ4" s="70"/>
-      <c r="MR4" s="70"/>
-      <c r="MS4" s="70"/>
-      <c r="MT4" s="70"/>
-      <c r="MU4" s="70"/>
-      <c r="MV4" s="70"/>
-      <c r="MW4" s="70"/>
-      <c r="MX4" s="70"/>
-      <c r="MY4" s="70"/>
-      <c r="MZ4" s="70"/>
-      <c r="NA4" s="70"/>
-      <c r="NB4" s="70"/>
-      <c r="NC4" s="70"/>
-      <c r="ND4" s="70"/>
-      <c r="NE4" s="70"/>
-      <c r="NF4" s="70"/>
-      <c r="NG4" s="70" t="s">
+      <c r="KV4" s="68"/>
+      <c r="KW4" s="68"/>
+      <c r="KX4" s="68"/>
+      <c r="KY4" s="68"/>
+      <c r="KZ4" s="68"/>
+      <c r="LA4" s="68"/>
+      <c r="LB4" s="68"/>
+      <c r="LC4" s="68"/>
+      <c r="LD4" s="68"/>
+      <c r="LE4" s="68"/>
+      <c r="LF4" s="68"/>
+      <c r="LG4" s="68"/>
+      <c r="LH4" s="68"/>
+      <c r="LI4" s="68"/>
+      <c r="LJ4" s="68"/>
+      <c r="LK4" s="68"/>
+      <c r="LL4" s="68"/>
+      <c r="LM4" s="68"/>
+      <c r="LN4" s="68"/>
+      <c r="LO4" s="68"/>
+      <c r="LP4" s="68"/>
+      <c r="LQ4" s="68"/>
+      <c r="LR4" s="68"/>
+      <c r="LS4" s="68"/>
+      <c r="LT4" s="68"/>
+      <c r="LU4" s="68"/>
+      <c r="LV4" s="68"/>
+      <c r="LW4" s="68"/>
+      <c r="LX4" s="68"/>
+      <c r="LY4" s="68"/>
+      <c r="LZ4" s="68"/>
+      <c r="MA4" s="68"/>
+      <c r="MB4" s="68"/>
+      <c r="MC4" s="68"/>
+      <c r="MD4" s="68"/>
+      <c r="ME4" s="68"/>
+      <c r="MF4" s="68"/>
+      <c r="MG4" s="68"/>
+      <c r="MH4" s="68"/>
+      <c r="MI4" s="68"/>
+      <c r="MJ4" s="68"/>
+      <c r="MK4" s="68"/>
+      <c r="ML4" s="68"/>
+      <c r="MM4" s="68"/>
+      <c r="MN4" s="68"/>
+      <c r="MO4" s="68"/>
+      <c r="MP4" s="68"/>
+      <c r="MQ4" s="68"/>
+      <c r="MR4" s="68"/>
+      <c r="MS4" s="68"/>
+      <c r="MT4" s="68"/>
+      <c r="MU4" s="68"/>
+      <c r="MV4" s="68"/>
+      <c r="MW4" s="68"/>
+      <c r="MX4" s="68"/>
+      <c r="MY4" s="68"/>
+      <c r="MZ4" s="68"/>
+      <c r="NA4" s="68"/>
+      <c r="NB4" s="68"/>
+      <c r="NC4" s="68"/>
+      <c r="ND4" s="68"/>
+      <c r="NE4" s="68"/>
+      <c r="NF4" s="68"/>
+      <c r="NG4" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="NH4" s="70"/>
-      <c r="NI4" s="70"/>
-      <c r="NJ4" s="70"/>
-      <c r="NK4" s="70"/>
-      <c r="NL4" s="70"/>
-      <c r="NM4" s="70"/>
-      <c r="NN4" s="70"/>
-      <c r="NO4" s="70"/>
-      <c r="NP4" s="70"/>
-      <c r="NQ4" s="70"/>
-      <c r="NR4" s="70"/>
-      <c r="NS4" s="70"/>
-      <c r="NT4" s="70"/>
-      <c r="NU4" s="70"/>
-      <c r="NV4" s="70"/>
-      <c r="NW4" s="70"/>
-      <c r="NX4" s="70"/>
-      <c r="NY4" s="70"/>
-      <c r="NZ4" s="70"/>
-      <c r="OA4" s="70"/>
-      <c r="OB4" s="70"/>
-      <c r="OC4" s="70"/>
-      <c r="OD4" s="70"/>
-      <c r="OE4" s="70"/>
-      <c r="OF4" s="70"/>
-      <c r="OG4" s="70"/>
-      <c r="OH4" s="70"/>
-      <c r="OI4" s="70"/>
-      <c r="OJ4" s="70"/>
-      <c r="OK4" s="70"/>
-      <c r="OL4" s="70"/>
-      <c r="OM4" s="70"/>
-      <c r="ON4" s="70"/>
-      <c r="OO4" s="70"/>
-      <c r="OP4" s="70"/>
-      <c r="OQ4" s="70"/>
-      <c r="OR4" s="70"/>
-      <c r="OS4" s="70"/>
-      <c r="OT4" s="70"/>
-      <c r="OU4" s="70"/>
-      <c r="OV4" s="70"/>
-      <c r="OW4" s="70"/>
-      <c r="OX4" s="70"/>
-      <c r="OY4" s="70"/>
-      <c r="OZ4" s="70"/>
-      <c r="PA4" s="70"/>
-      <c r="PB4" s="70"/>
-      <c r="PC4" s="70"/>
-      <c r="PD4" s="70"/>
-      <c r="PE4" s="70"/>
-      <c r="PF4" s="70"/>
-      <c r="PG4" s="70"/>
-      <c r="PH4" s="70"/>
-      <c r="PI4" s="70"/>
-      <c r="PJ4" s="70"/>
-      <c r="PK4" s="70"/>
-      <c r="PL4" s="70"/>
-      <c r="PM4" s="70"/>
-      <c r="PN4" s="70"/>
-      <c r="PO4" s="70"/>
-      <c r="PP4" s="70"/>
-      <c r="PQ4" s="70"/>
-      <c r="PR4" s="70"/>
-      <c r="PS4" s="70" t="s">
+      <c r="NH4" s="68"/>
+      <c r="NI4" s="68"/>
+      <c r="NJ4" s="68"/>
+      <c r="NK4" s="68"/>
+      <c r="NL4" s="68"/>
+      <c r="NM4" s="68"/>
+      <c r="NN4" s="68"/>
+      <c r="NO4" s="68"/>
+      <c r="NP4" s="68"/>
+      <c r="NQ4" s="68"/>
+      <c r="NR4" s="68"/>
+      <c r="NS4" s="68"/>
+      <c r="NT4" s="68"/>
+      <c r="NU4" s="68"/>
+      <c r="NV4" s="68"/>
+      <c r="NW4" s="68"/>
+      <c r="NX4" s="68"/>
+      <c r="NY4" s="68"/>
+      <c r="NZ4" s="68"/>
+      <c r="OA4" s="68"/>
+      <c r="OB4" s="68"/>
+      <c r="OC4" s="68"/>
+      <c r="OD4" s="68"/>
+      <c r="OE4" s="68"/>
+      <c r="OF4" s="68"/>
+      <c r="OG4" s="68"/>
+      <c r="OH4" s="68"/>
+      <c r="OI4" s="68"/>
+      <c r="OJ4" s="68"/>
+      <c r="OK4" s="68"/>
+      <c r="OL4" s="68"/>
+      <c r="OM4" s="68"/>
+      <c r="ON4" s="68"/>
+      <c r="OO4" s="68"/>
+      <c r="OP4" s="68"/>
+      <c r="OQ4" s="68"/>
+      <c r="OR4" s="68"/>
+      <c r="OS4" s="68"/>
+      <c r="OT4" s="68"/>
+      <c r="OU4" s="68"/>
+      <c r="OV4" s="68"/>
+      <c r="OW4" s="68"/>
+      <c r="OX4" s="68"/>
+      <c r="OY4" s="68"/>
+      <c r="OZ4" s="68"/>
+      <c r="PA4" s="68"/>
+      <c r="PB4" s="68"/>
+      <c r="PC4" s="68"/>
+      <c r="PD4" s="68"/>
+      <c r="PE4" s="68"/>
+      <c r="PF4" s="68"/>
+      <c r="PG4" s="68"/>
+      <c r="PH4" s="68"/>
+      <c r="PI4" s="68"/>
+      <c r="PJ4" s="68"/>
+      <c r="PK4" s="68"/>
+      <c r="PL4" s="68"/>
+      <c r="PM4" s="68"/>
+      <c r="PN4" s="68"/>
+      <c r="PO4" s="68"/>
+      <c r="PP4" s="68"/>
+      <c r="PQ4" s="68"/>
+      <c r="PR4" s="68"/>
+      <c r="PS4" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="PT4" s="70"/>
-      <c r="PU4" s="70"/>
-      <c r="PV4" s="70"/>
-      <c r="PW4" s="70"/>
-      <c r="PX4" s="70"/>
-      <c r="PY4" s="70"/>
-      <c r="PZ4" s="70"/>
-      <c r="QA4" s="70"/>
-      <c r="QB4" s="70"/>
-      <c r="QC4" s="70"/>
-      <c r="QD4" s="70"/>
-      <c r="QE4" s="70"/>
-      <c r="QF4" s="70"/>
-      <c r="QG4" s="70"/>
-      <c r="QH4" s="70"/>
-      <c r="QI4" s="70"/>
-      <c r="QJ4" s="70"/>
-      <c r="QK4" s="70"/>
-      <c r="QL4" s="70"/>
-      <c r="QM4" s="70"/>
-      <c r="QN4" s="70"/>
-      <c r="QO4" s="70"/>
-      <c r="QP4" s="70"/>
-      <c r="QQ4" s="70"/>
-      <c r="QR4" s="70"/>
-      <c r="QS4" s="70"/>
-      <c r="QT4" s="70"/>
-      <c r="QU4" s="70"/>
-      <c r="QV4" s="70"/>
-      <c r="QW4" s="70"/>
-      <c r="QX4" s="70"/>
-      <c r="QY4" s="70"/>
-      <c r="QZ4" s="70"/>
-      <c r="RA4" s="70"/>
-      <c r="RB4" s="70"/>
-      <c r="RC4" s="70"/>
-      <c r="RD4" s="70"/>
-      <c r="RE4" s="70"/>
-      <c r="RF4" s="70"/>
-      <c r="RG4" s="70"/>
-      <c r="RH4" s="70"/>
-      <c r="RI4" s="70"/>
-      <c r="RJ4" s="70"/>
-      <c r="RK4" s="70"/>
-      <c r="RL4" s="70"/>
-      <c r="RM4" s="70"/>
-      <c r="RN4" s="70"/>
-      <c r="RO4" s="70"/>
-      <c r="RP4" s="70"/>
-      <c r="RQ4" s="70"/>
-      <c r="RR4" s="70"/>
-      <c r="RS4" s="70"/>
-      <c r="RT4" s="70"/>
-      <c r="RU4" s="70"/>
-      <c r="RV4" s="70"/>
-      <c r="RW4" s="70"/>
-      <c r="RX4" s="70"/>
-      <c r="RY4" s="70"/>
-      <c r="RZ4" s="70"/>
-      <c r="SA4" s="70"/>
-      <c r="SB4" s="70"/>
-      <c r="SC4" s="70"/>
-      <c r="SD4" s="70"/>
-      <c r="SE4" s="70" t="s">
+      <c r="PT4" s="68"/>
+      <c r="PU4" s="68"/>
+      <c r="PV4" s="68"/>
+      <c r="PW4" s="68"/>
+      <c r="PX4" s="68"/>
+      <c r="PY4" s="68"/>
+      <c r="PZ4" s="68"/>
+      <c r="QA4" s="68"/>
+      <c r="QB4" s="68"/>
+      <c r="QC4" s="68"/>
+      <c r="QD4" s="68"/>
+      <c r="QE4" s="68"/>
+      <c r="QF4" s="68"/>
+      <c r="QG4" s="68"/>
+      <c r="QH4" s="68"/>
+      <c r="QI4" s="68"/>
+      <c r="QJ4" s="68"/>
+      <c r="QK4" s="68"/>
+      <c r="QL4" s="68"/>
+      <c r="QM4" s="68"/>
+      <c r="QN4" s="68"/>
+      <c r="QO4" s="68"/>
+      <c r="QP4" s="68"/>
+      <c r="QQ4" s="68"/>
+      <c r="QR4" s="68"/>
+      <c r="QS4" s="68"/>
+      <c r="QT4" s="68"/>
+      <c r="QU4" s="68"/>
+      <c r="QV4" s="68"/>
+      <c r="QW4" s="68"/>
+      <c r="QX4" s="68"/>
+      <c r="QY4" s="68"/>
+      <c r="QZ4" s="68"/>
+      <c r="RA4" s="68"/>
+      <c r="RB4" s="68"/>
+      <c r="RC4" s="68"/>
+      <c r="RD4" s="68"/>
+      <c r="RE4" s="68"/>
+      <c r="RF4" s="68"/>
+      <c r="RG4" s="68"/>
+      <c r="RH4" s="68"/>
+      <c r="RI4" s="68"/>
+      <c r="RJ4" s="68"/>
+      <c r="RK4" s="68"/>
+      <c r="RL4" s="68"/>
+      <c r="RM4" s="68"/>
+      <c r="RN4" s="68"/>
+      <c r="RO4" s="68"/>
+      <c r="RP4" s="68"/>
+      <c r="RQ4" s="68"/>
+      <c r="RR4" s="68"/>
+      <c r="RS4" s="68"/>
+      <c r="RT4" s="68"/>
+      <c r="RU4" s="68"/>
+      <c r="RV4" s="68"/>
+      <c r="RW4" s="68"/>
+      <c r="RX4" s="68"/>
+      <c r="RY4" s="68"/>
+      <c r="RZ4" s="68"/>
+      <c r="SA4" s="68"/>
+      <c r="SB4" s="68"/>
+      <c r="SC4" s="68"/>
+      <c r="SD4" s="68"/>
+      <c r="SE4" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="SF4" s="70"/>
-      <c r="SG4" s="70"/>
-      <c r="SH4" s="70"/>
-      <c r="SI4" s="70"/>
-      <c r="SJ4" s="70"/>
-      <c r="SK4" s="70"/>
-      <c r="SL4" s="70"/>
-      <c r="SM4" s="70"/>
-      <c r="SN4" s="70"/>
-      <c r="SO4" s="70"/>
-      <c r="SP4" s="70"/>
-      <c r="SQ4" s="70"/>
-      <c r="SR4" s="70"/>
-      <c r="SS4" s="70"/>
-      <c r="ST4" s="70"/>
-      <c r="SU4" s="70"/>
-      <c r="SV4" s="70"/>
-      <c r="SW4" s="70"/>
-      <c r="SX4" s="70"/>
-      <c r="SY4" s="70"/>
-      <c r="SZ4" s="70"/>
-      <c r="TA4" s="70"/>
-      <c r="TB4" s="70"/>
-      <c r="TC4" s="70"/>
-      <c r="TD4" s="70"/>
-      <c r="TE4" s="70"/>
-      <c r="TF4" s="70"/>
-      <c r="TG4" s="70"/>
-      <c r="TH4" s="70"/>
-      <c r="TI4" s="70"/>
-      <c r="TJ4" s="70"/>
-      <c r="TK4" s="70"/>
-      <c r="TL4" s="70"/>
-      <c r="TM4" s="70"/>
-      <c r="TN4" s="70"/>
-      <c r="TO4" s="70"/>
-      <c r="TP4" s="70"/>
-      <c r="TQ4" s="70"/>
-      <c r="TR4" s="70"/>
-      <c r="TS4" s="70"/>
-      <c r="TT4" s="70"/>
-      <c r="TU4" s="70"/>
-      <c r="TV4" s="70"/>
-      <c r="TW4" s="70"/>
-      <c r="TX4" s="70"/>
-      <c r="TY4" s="70"/>
-      <c r="TZ4" s="70"/>
-      <c r="UA4" s="70"/>
-      <c r="UB4" s="70"/>
-      <c r="UC4" s="70"/>
-      <c r="UD4" s="70"/>
-      <c r="UE4" s="70"/>
-      <c r="UF4" s="70"/>
-      <c r="UG4" s="70"/>
-      <c r="UH4" s="70"/>
-      <c r="UI4" s="70"/>
-      <c r="UJ4" s="70"/>
-      <c r="UK4" s="70"/>
-      <c r="UL4" s="70"/>
-      <c r="UM4" s="70"/>
-      <c r="UN4" s="70"/>
-      <c r="UO4" s="70"/>
-      <c r="UP4" s="70"/>
-      <c r="UQ4" s="70"/>
-      <c r="UR4" s="70"/>
-      <c r="US4" s="70"/>
-      <c r="UT4" s="70"/>
-      <c r="UU4" s="70"/>
-      <c r="UV4" s="70"/>
-      <c r="UW4" s="70"/>
-      <c r="UX4" s="70"/>
-      <c r="UY4" s="70"/>
-      <c r="UZ4" s="70"/>
-      <c r="VA4" s="70"/>
-      <c r="VB4" s="70"/>
-      <c r="VC4" s="70"/>
-      <c r="VD4" s="70"/>
-      <c r="VE4" s="70"/>
-      <c r="VF4" s="70"/>
-      <c r="VG4" s="70"/>
-      <c r="VH4" s="70"/>
-      <c r="VI4" s="70"/>
-      <c r="VJ4" s="70"/>
-      <c r="VK4" s="70"/>
-      <c r="VL4" s="71" t="s">
+      <c r="SF4" s="68"/>
+      <c r="SG4" s="68"/>
+      <c r="SH4" s="68"/>
+      <c r="SI4" s="68"/>
+      <c r="SJ4" s="68"/>
+      <c r="SK4" s="68"/>
+      <c r="SL4" s="68"/>
+      <c r="SM4" s="68"/>
+      <c r="SN4" s="68"/>
+      <c r="SO4" s="68"/>
+      <c r="SP4" s="68"/>
+      <c r="SQ4" s="68"/>
+      <c r="SR4" s="68"/>
+      <c r="SS4" s="68"/>
+      <c r="ST4" s="68"/>
+      <c r="SU4" s="68"/>
+      <c r="SV4" s="68"/>
+      <c r="SW4" s="68"/>
+      <c r="SX4" s="68"/>
+      <c r="SY4" s="68"/>
+      <c r="SZ4" s="68"/>
+      <c r="TA4" s="68"/>
+      <c r="TB4" s="68"/>
+      <c r="TC4" s="68"/>
+      <c r="TD4" s="68"/>
+      <c r="TE4" s="68"/>
+      <c r="TF4" s="68"/>
+      <c r="TG4" s="68"/>
+      <c r="TH4" s="68"/>
+      <c r="TI4" s="68"/>
+      <c r="TJ4" s="68"/>
+      <c r="TK4" s="68"/>
+      <c r="TL4" s="68"/>
+      <c r="TM4" s="68"/>
+      <c r="TN4" s="68"/>
+      <c r="TO4" s="68"/>
+      <c r="TP4" s="68"/>
+      <c r="TQ4" s="68"/>
+      <c r="TR4" s="68"/>
+      <c r="TS4" s="68"/>
+      <c r="TT4" s="68"/>
+      <c r="TU4" s="68"/>
+      <c r="TV4" s="68"/>
+      <c r="TW4" s="68"/>
+      <c r="TX4" s="68"/>
+      <c r="TY4" s="68"/>
+      <c r="TZ4" s="68"/>
+      <c r="UA4" s="68"/>
+      <c r="UB4" s="68"/>
+      <c r="UC4" s="68"/>
+      <c r="UD4" s="68"/>
+      <c r="UE4" s="68"/>
+      <c r="UF4" s="68"/>
+      <c r="UG4" s="68"/>
+      <c r="UH4" s="68"/>
+      <c r="UI4" s="68"/>
+      <c r="UJ4" s="68"/>
+      <c r="UK4" s="68"/>
+      <c r="UL4" s="68"/>
+      <c r="UM4" s="68"/>
+      <c r="UN4" s="68"/>
+      <c r="UO4" s="68"/>
+      <c r="UP4" s="68"/>
+      <c r="UQ4" s="68"/>
+      <c r="UR4" s="68"/>
+      <c r="US4" s="68"/>
+      <c r="UT4" s="68"/>
+      <c r="UU4" s="68"/>
+      <c r="UV4" s="68"/>
+      <c r="UW4" s="68"/>
+      <c r="UX4" s="68"/>
+      <c r="UY4" s="68"/>
+      <c r="UZ4" s="68"/>
+      <c r="VA4" s="68"/>
+      <c r="VB4" s="68"/>
+      <c r="VC4" s="68"/>
+      <c r="VD4" s="68"/>
+      <c r="VE4" s="68"/>
+      <c r="VF4" s="68"/>
+      <c r="VG4" s="68"/>
+      <c r="VH4" s="68"/>
+      <c r="VI4" s="68"/>
+      <c r="VJ4" s="68"/>
+      <c r="VK4" s="68"/>
+      <c r="VL4" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="VM4" s="71"/>
-      <c r="VN4" s="71"/>
-      <c r="VO4" s="71"/>
-      <c r="VP4" s="71"/>
-      <c r="VQ4" s="71"/>
-      <c r="VR4" s="71"/>
-      <c r="VS4" s="71"/>
-      <c r="VT4" s="71"/>
-      <c r="VU4" s="71"/>
-      <c r="VV4" s="71"/>
-      <c r="VW4" s="71"/>
-      <c r="VX4" s="71"/>
-      <c r="VY4" s="71"/>
-      <c r="VZ4" s="71"/>
-      <c r="WA4" s="71"/>
-      <c r="WB4" s="71"/>
-      <c r="WC4" s="71"/>
-      <c r="WD4" s="71"/>
-      <c r="WE4" s="71"/>
-      <c r="WF4" s="71"/>
-      <c r="WG4" s="71"/>
-      <c r="WH4" s="71"/>
-      <c r="WI4" s="71"/>
-      <c r="WJ4" s="71"/>
-      <c r="WK4" s="71"/>
-      <c r="WL4" s="71"/>
-      <c r="WM4" s="71"/>
-      <c r="WN4" s="71"/>
-      <c r="WO4" s="71"/>
-      <c r="WP4" s="71"/>
-      <c r="WQ4" s="71"/>
-      <c r="WR4" s="71"/>
-      <c r="WS4" s="71"/>
-      <c r="WT4" s="71"/>
-      <c r="WU4" s="71"/>
-      <c r="WV4" s="71"/>
-      <c r="WW4" s="71"/>
-      <c r="WX4" s="71"/>
-      <c r="WY4" s="71"/>
-      <c r="WZ4" s="71"/>
-      <c r="XA4" s="71"/>
-      <c r="XB4" s="71"/>
-      <c r="XC4" s="71"/>
-      <c r="XD4" s="71"/>
-      <c r="XE4" s="71"/>
-      <c r="XF4" s="71"/>
-      <c r="XG4" s="71"/>
-      <c r="XH4" s="71"/>
-      <c r="XI4" s="71"/>
-      <c r="XJ4" s="71"/>
-      <c r="XK4" s="71"/>
-      <c r="XL4" s="71"/>
-      <c r="XM4" s="71"/>
-      <c r="XN4" s="71"/>
-      <c r="XO4" s="71"/>
-      <c r="XP4" s="71"/>
-      <c r="XQ4" s="71"/>
-      <c r="XR4" s="71"/>
-      <c r="XS4" s="71"/>
-      <c r="XT4" s="71"/>
-      <c r="XU4" s="71"/>
-      <c r="XV4" s="71"/>
-      <c r="XW4" s="71"/>
-      <c r="XX4" s="70" t="s">
+      <c r="VM4" s="69"/>
+      <c r="VN4" s="69"/>
+      <c r="VO4" s="69"/>
+      <c r="VP4" s="69"/>
+      <c r="VQ4" s="69"/>
+      <c r="VR4" s="69"/>
+      <c r="VS4" s="69"/>
+      <c r="VT4" s="69"/>
+      <c r="VU4" s="69"/>
+      <c r="VV4" s="69"/>
+      <c r="VW4" s="69"/>
+      <c r="VX4" s="69"/>
+      <c r="VY4" s="69"/>
+      <c r="VZ4" s="69"/>
+      <c r="WA4" s="69"/>
+      <c r="WB4" s="69"/>
+      <c r="WC4" s="69"/>
+      <c r="WD4" s="69"/>
+      <c r="WE4" s="69"/>
+      <c r="WF4" s="69"/>
+      <c r="WG4" s="69"/>
+      <c r="WH4" s="69"/>
+      <c r="WI4" s="69"/>
+      <c r="WJ4" s="69"/>
+      <c r="WK4" s="69"/>
+      <c r="WL4" s="69"/>
+      <c r="WM4" s="69"/>
+      <c r="WN4" s="69"/>
+      <c r="WO4" s="69"/>
+      <c r="WP4" s="69"/>
+      <c r="WQ4" s="69"/>
+      <c r="WR4" s="69"/>
+      <c r="WS4" s="69"/>
+      <c r="WT4" s="69"/>
+      <c r="WU4" s="69"/>
+      <c r="WV4" s="69"/>
+      <c r="WW4" s="69"/>
+      <c r="WX4" s="69"/>
+      <c r="WY4" s="69"/>
+      <c r="WZ4" s="69"/>
+      <c r="XA4" s="69"/>
+      <c r="XB4" s="69"/>
+      <c r="XC4" s="69"/>
+      <c r="XD4" s="69"/>
+      <c r="XE4" s="69"/>
+      <c r="XF4" s="69"/>
+      <c r="XG4" s="69"/>
+      <c r="XH4" s="69"/>
+      <c r="XI4" s="69"/>
+      <c r="XJ4" s="69"/>
+      <c r="XK4" s="69"/>
+      <c r="XL4" s="69"/>
+      <c r="XM4" s="69"/>
+      <c r="XN4" s="69"/>
+      <c r="XO4" s="69"/>
+      <c r="XP4" s="69"/>
+      <c r="XQ4" s="69"/>
+      <c r="XR4" s="69"/>
+      <c r="XS4" s="69"/>
+      <c r="XT4" s="69"/>
+      <c r="XU4" s="69"/>
+      <c r="XV4" s="69"/>
+      <c r="XW4" s="69"/>
+      <c r="XX4" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="XY4" s="70"/>
-      <c r="XZ4" s="70"/>
-      <c r="YA4" s="70"/>
-      <c r="YB4" s="70"/>
-      <c r="YC4" s="70"/>
-      <c r="YD4" s="70"/>
-      <c r="YE4" s="70"/>
-      <c r="YF4" s="70"/>
-      <c r="YG4" s="70"/>
-      <c r="YH4" s="70"/>
-      <c r="YI4" s="70"/>
-      <c r="YJ4" s="70"/>
-      <c r="YK4" s="70"/>
-      <c r="YL4" s="70"/>
-      <c r="YM4" s="70"/>
-      <c r="YN4" s="70"/>
-      <c r="YO4" s="70"/>
-      <c r="YP4" s="70"/>
-      <c r="YQ4" s="70"/>
-      <c r="YR4" s="70"/>
-      <c r="YS4" s="70"/>
-      <c r="YT4" s="70"/>
-      <c r="YU4" s="70"/>
-      <c r="YV4" s="70"/>
-      <c r="YW4" s="70"/>
-      <c r="YX4" s="70"/>
-      <c r="YY4" s="70"/>
-      <c r="YZ4" s="70"/>
-      <c r="ZA4" s="70"/>
-      <c r="ZB4" s="70"/>
-      <c r="ZC4" s="70"/>
-      <c r="ZD4" s="70"/>
-      <c r="ZE4" s="70"/>
-      <c r="ZF4" s="70"/>
-      <c r="ZG4" s="70"/>
-      <c r="ZH4" s="70"/>
-      <c r="ZI4" s="70"/>
-      <c r="ZJ4" s="70"/>
-      <c r="ZK4" s="70"/>
-      <c r="ZL4" s="70"/>
-      <c r="ZM4" s="70"/>
-      <c r="ZN4" s="70"/>
-      <c r="ZO4" s="70"/>
-      <c r="ZP4" s="70"/>
-      <c r="ZQ4" s="70"/>
-      <c r="ZR4" s="70"/>
-      <c r="ZS4" s="70"/>
-      <c r="ZT4" s="70"/>
-      <c r="ZU4" s="70"/>
-      <c r="ZV4" s="70"/>
-      <c r="ZW4" s="70"/>
-      <c r="ZX4" s="70"/>
-      <c r="ZY4" s="70"/>
-      <c r="ZZ4" s="70"/>
-      <c r="AAA4" s="70"/>
-      <c r="AAB4" s="70"/>
-      <c r="AAC4" s="70"/>
-      <c r="AAD4" s="70"/>
-      <c r="AAE4" s="70"/>
-      <c r="AAF4" s="70"/>
-      <c r="AAG4" s="70"/>
-      <c r="AAH4" s="70"/>
-      <c r="AAI4" s="70"/>
-      <c r="AAJ4" s="70" t="s">
+      <c r="XY4" s="68"/>
+      <c r="XZ4" s="68"/>
+      <c r="YA4" s="68"/>
+      <c r="YB4" s="68"/>
+      <c r="YC4" s="68"/>
+      <c r="YD4" s="68"/>
+      <c r="YE4" s="68"/>
+      <c r="YF4" s="68"/>
+      <c r="YG4" s="68"/>
+      <c r="YH4" s="68"/>
+      <c r="YI4" s="68"/>
+      <c r="YJ4" s="68"/>
+      <c r="YK4" s="68"/>
+      <c r="YL4" s="68"/>
+      <c r="YM4" s="68"/>
+      <c r="YN4" s="68"/>
+      <c r="YO4" s="68"/>
+      <c r="YP4" s="68"/>
+      <c r="YQ4" s="68"/>
+      <c r="YR4" s="68"/>
+      <c r="YS4" s="68"/>
+      <c r="YT4" s="68"/>
+      <c r="YU4" s="68"/>
+      <c r="YV4" s="68"/>
+      <c r="YW4" s="68"/>
+      <c r="YX4" s="68"/>
+      <c r="YY4" s="68"/>
+      <c r="YZ4" s="68"/>
+      <c r="ZA4" s="68"/>
+      <c r="ZB4" s="68"/>
+      <c r="ZC4" s="68"/>
+      <c r="ZD4" s="68"/>
+      <c r="ZE4" s="68"/>
+      <c r="ZF4" s="68"/>
+      <c r="ZG4" s="68"/>
+      <c r="ZH4" s="68"/>
+      <c r="ZI4" s="68"/>
+      <c r="ZJ4" s="68"/>
+      <c r="ZK4" s="68"/>
+      <c r="ZL4" s="68"/>
+      <c r="ZM4" s="68"/>
+      <c r="ZN4" s="68"/>
+      <c r="ZO4" s="68"/>
+      <c r="ZP4" s="68"/>
+      <c r="ZQ4" s="68"/>
+      <c r="ZR4" s="68"/>
+      <c r="ZS4" s="68"/>
+      <c r="ZT4" s="68"/>
+      <c r="ZU4" s="68"/>
+      <c r="ZV4" s="68"/>
+      <c r="ZW4" s="68"/>
+      <c r="ZX4" s="68"/>
+      <c r="ZY4" s="68"/>
+      <c r="ZZ4" s="68"/>
+      <c r="AAA4" s="68"/>
+      <c r="AAB4" s="68"/>
+      <c r="AAC4" s="68"/>
+      <c r="AAD4" s="68"/>
+      <c r="AAE4" s="68"/>
+      <c r="AAF4" s="68"/>
+      <c r="AAG4" s="68"/>
+      <c r="AAH4" s="68"/>
+      <c r="AAI4" s="68"/>
+      <c r="AAJ4" s="68" t="s">
         <v>83</v>
       </c>
-      <c r="AAK4" s="70"/>
-      <c r="AAL4" s="70"/>
-      <c r="AAM4" s="70"/>
-      <c r="AAN4" s="70"/>
-      <c r="AAO4" s="70"/>
-      <c r="AAP4" s="70"/>
-      <c r="AAQ4" s="70"/>
-      <c r="AAR4" s="70"/>
-      <c r="AAS4" s="70"/>
-      <c r="AAT4" s="70"/>
-      <c r="AAU4" s="70"/>
-      <c r="AAV4" s="70"/>
-      <c r="AAW4" s="70"/>
-      <c r="AAX4" s="70"/>
-      <c r="AAY4" s="70"/>
-      <c r="AAZ4" s="70"/>
-      <c r="ABA4" s="70"/>
-      <c r="ABB4" s="70"/>
-      <c r="ABC4" s="70"/>
-      <c r="ABD4" s="70"/>
-      <c r="ABE4" s="70"/>
-      <c r="ABF4" s="70"/>
-      <c r="ABG4" s="70"/>
-      <c r="ABH4" s="70"/>
-      <c r="ABI4" s="70"/>
-      <c r="ABJ4" s="70"/>
-      <c r="ABK4" s="70"/>
-      <c r="ABL4" s="70"/>
-      <c r="ABM4" s="70"/>
-      <c r="ABN4" s="70"/>
-      <c r="ABO4" s="70"/>
-      <c r="ABP4" s="70"/>
-      <c r="ABQ4" s="70"/>
-      <c r="ABR4" s="70"/>
-      <c r="ABS4" s="70"/>
-      <c r="ABT4" s="70"/>
-      <c r="ABU4" s="70"/>
-      <c r="ABV4" s="70"/>
-      <c r="ABW4" s="70"/>
-      <c r="ABX4" s="70"/>
-      <c r="ABY4" s="70"/>
-      <c r="ABZ4" s="70"/>
-      <c r="ACA4" s="70"/>
-      <c r="ACB4" s="70"/>
-      <c r="ACC4" s="70"/>
-      <c r="ACD4" s="70"/>
-      <c r="ACE4" s="70"/>
-      <c r="ACF4" s="70"/>
-      <c r="ACG4" s="70"/>
-      <c r="ACH4" s="70"/>
-      <c r="ACI4" s="70"/>
-      <c r="ACJ4" s="70"/>
-      <c r="ACK4" s="70"/>
-      <c r="ACL4" s="70"/>
-      <c r="ACM4" s="70"/>
-      <c r="ACN4" s="70"/>
-      <c r="ACO4" s="70"/>
-      <c r="ACP4" s="70"/>
-      <c r="ACQ4" s="70"/>
-      <c r="ACR4" s="70"/>
-      <c r="ACS4" s="70"/>
-      <c r="ACT4" s="70"/>
-      <c r="ACU4" s="70"/>
-      <c r="ACV4" s="70" t="s">
+      <c r="AAK4" s="68"/>
+      <c r="AAL4" s="68"/>
+      <c r="AAM4" s="68"/>
+      <c r="AAN4" s="68"/>
+      <c r="AAO4" s="68"/>
+      <c r="AAP4" s="68"/>
+      <c r="AAQ4" s="68"/>
+      <c r="AAR4" s="68"/>
+      <c r="AAS4" s="68"/>
+      <c r="AAT4" s="68"/>
+      <c r="AAU4" s="68"/>
+      <c r="AAV4" s="68"/>
+      <c r="AAW4" s="68"/>
+      <c r="AAX4" s="68"/>
+      <c r="AAY4" s="68"/>
+      <c r="AAZ4" s="68"/>
+      <c r="ABA4" s="68"/>
+      <c r="ABB4" s="68"/>
+      <c r="ABC4" s="68"/>
+      <c r="ABD4" s="68"/>
+      <c r="ABE4" s="68"/>
+      <c r="ABF4" s="68"/>
+      <c r="ABG4" s="68"/>
+      <c r="ABH4" s="68"/>
+      <c r="ABI4" s="68"/>
+      <c r="ABJ4" s="68"/>
+      <c r="ABK4" s="68"/>
+      <c r="ABL4" s="68"/>
+      <c r="ABM4" s="68"/>
+      <c r="ABN4" s="68"/>
+      <c r="ABO4" s="68"/>
+      <c r="ABP4" s="68"/>
+      <c r="ABQ4" s="68"/>
+      <c r="ABR4" s="68"/>
+      <c r="ABS4" s="68"/>
+      <c r="ABT4" s="68"/>
+      <c r="ABU4" s="68"/>
+      <c r="ABV4" s="68"/>
+      <c r="ABW4" s="68"/>
+      <c r="ABX4" s="68"/>
+      <c r="ABY4" s="68"/>
+      <c r="ABZ4" s="68"/>
+      <c r="ACA4" s="68"/>
+      <c r="ACB4" s="68"/>
+      <c r="ACC4" s="68"/>
+      <c r="ACD4" s="68"/>
+      <c r="ACE4" s="68"/>
+      <c r="ACF4" s="68"/>
+      <c r="ACG4" s="68"/>
+      <c r="ACH4" s="68"/>
+      <c r="ACI4" s="68"/>
+      <c r="ACJ4" s="68"/>
+      <c r="ACK4" s="68"/>
+      <c r="ACL4" s="68"/>
+      <c r="ACM4" s="68"/>
+      <c r="ACN4" s="68"/>
+      <c r="ACO4" s="68"/>
+      <c r="ACP4" s="68"/>
+      <c r="ACQ4" s="68"/>
+      <c r="ACR4" s="68"/>
+      <c r="ACS4" s="68"/>
+      <c r="ACT4" s="68"/>
+      <c r="ACU4" s="68"/>
+      <c r="ACV4" s="68" t="s">
         <v>84</v>
       </c>
-      <c r="ACW4" s="70"/>
-      <c r="ACX4" s="70"/>
-      <c r="ACY4" s="70"/>
-      <c r="ACZ4" s="70"/>
-      <c r="ADA4" s="70"/>
-      <c r="ADB4" s="70"/>
-      <c r="ADC4" s="70"/>
-      <c r="ADD4" s="70"/>
-      <c r="ADE4" s="70"/>
-      <c r="ADF4" s="70"/>
-      <c r="ADG4" s="70"/>
-      <c r="ADH4" s="70"/>
-      <c r="ADI4" s="70"/>
-      <c r="ADJ4" s="70"/>
-      <c r="ADK4" s="70"/>
-      <c r="ADL4" s="70"/>
-      <c r="ADM4" s="70"/>
-      <c r="ADN4" s="70"/>
-      <c r="ADO4" s="70"/>
-      <c r="ADP4" s="70"/>
-      <c r="ADQ4" s="70"/>
-      <c r="ADR4" s="70"/>
-      <c r="ADS4" s="70"/>
-      <c r="ADT4" s="70"/>
-      <c r="ADU4" s="70"/>
-      <c r="ADV4" s="70"/>
-      <c r="ADW4" s="70"/>
-      <c r="ADX4" s="70"/>
-      <c r="ADY4" s="70"/>
-      <c r="ADZ4" s="70"/>
-      <c r="AEA4" s="70"/>
-      <c r="AEB4" s="70"/>
-      <c r="AEC4" s="70"/>
-      <c r="AED4" s="70"/>
-      <c r="AEE4" s="70"/>
-      <c r="AEF4" s="70"/>
-      <c r="AEG4" s="70"/>
-      <c r="AEH4" s="70"/>
-      <c r="AEI4" s="70"/>
-      <c r="AEJ4" s="70"/>
-      <c r="AEK4" s="70"/>
-      <c r="AEL4" s="70"/>
-      <c r="AEM4" s="70"/>
-      <c r="AEN4" s="70"/>
-      <c r="AEO4" s="70"/>
-      <c r="AEP4" s="70"/>
-      <c r="AEQ4" s="70"/>
-      <c r="AER4" s="70"/>
-      <c r="AES4" s="70"/>
-      <c r="AET4" s="70"/>
-      <c r="AEU4" s="70"/>
-      <c r="AEV4" s="70"/>
-      <c r="AEW4" s="70"/>
-      <c r="AEX4" s="70"/>
-      <c r="AEY4" s="70"/>
-      <c r="AEZ4" s="70"/>
-      <c r="AFA4" s="70"/>
-      <c r="AFB4" s="70"/>
-      <c r="AFC4" s="70"/>
-      <c r="AFD4" s="70"/>
-      <c r="AFE4" s="70"/>
-      <c r="AFF4" s="70"/>
-      <c r="AFG4" s="70"/>
+      <c r="ACW4" s="68"/>
+      <c r="ACX4" s="68"/>
+      <c r="ACY4" s="68"/>
+      <c r="ACZ4" s="68"/>
+      <c r="ADA4" s="68"/>
+      <c r="ADB4" s="68"/>
+      <c r="ADC4" s="68"/>
+      <c r="ADD4" s="68"/>
+      <c r="ADE4" s="68"/>
+      <c r="ADF4" s="68"/>
+      <c r="ADG4" s="68"/>
+      <c r="ADH4" s="68"/>
+      <c r="ADI4" s="68"/>
+      <c r="ADJ4" s="68"/>
+      <c r="ADK4" s="68"/>
+      <c r="ADL4" s="68"/>
+      <c r="ADM4" s="68"/>
+      <c r="ADN4" s="68"/>
+      <c r="ADO4" s="68"/>
+      <c r="ADP4" s="68"/>
+      <c r="ADQ4" s="68"/>
+      <c r="ADR4" s="68"/>
+      <c r="ADS4" s="68"/>
+      <c r="ADT4" s="68"/>
+      <c r="ADU4" s="68"/>
+      <c r="ADV4" s="68"/>
+      <c r="ADW4" s="68"/>
+      <c r="ADX4" s="68"/>
+      <c r="ADY4" s="68"/>
+      <c r="ADZ4" s="68"/>
+      <c r="AEA4" s="68"/>
+      <c r="AEB4" s="68"/>
+      <c r="AEC4" s="68"/>
+      <c r="AED4" s="68"/>
+      <c r="AEE4" s="68"/>
+      <c r="AEF4" s="68"/>
+      <c r="AEG4" s="68"/>
+      <c r="AEH4" s="68"/>
+      <c r="AEI4" s="68"/>
+      <c r="AEJ4" s="68"/>
+      <c r="AEK4" s="68"/>
+      <c r="AEL4" s="68"/>
+      <c r="AEM4" s="68"/>
+      <c r="AEN4" s="68"/>
+      <c r="AEO4" s="68"/>
+      <c r="AEP4" s="68"/>
+      <c r="AEQ4" s="68"/>
+      <c r="AER4" s="68"/>
+      <c r="AES4" s="68"/>
+      <c r="AET4" s="68"/>
+      <c r="AEU4" s="68"/>
+      <c r="AEV4" s="68"/>
+      <c r="AEW4" s="68"/>
+      <c r="AEX4" s="68"/>
+      <c r="AEY4" s="68"/>
+      <c r="AEZ4" s="68"/>
+      <c r="AFA4" s="68"/>
+      <c r="AFB4" s="68"/>
+      <c r="AFC4" s="68"/>
+      <c r="AFD4" s="68"/>
+      <c r="AFE4" s="68"/>
+      <c r="AFF4" s="68"/>
+      <c r="AFG4" s="68"/>
     </row>
     <row r="5" spans="1:839">
       <c r="C5" s="1" t="s">
@@ -81118,7 +81176,7 @@
       <c r="U57" s="8"/>
     </row>
     <row r="58" spans="9:21">
-      <c r="I58" s="66" t="s">
+      <c r="I58" s="70" t="s">
         <v>29</v>
       </c>
       <c r="J58" s="18" t="s">
@@ -81155,7 +81213,7 @@
       <c r="U58" s="8"/>
     </row>
     <row r="59" spans="9:21">
-      <c r="I59" s="66"/>
+      <c r="I59" s="70"/>
       <c r="J59" s="18" t="s">
         <v>30</v>
       </c>
@@ -81190,7 +81248,7 @@
       <c r="U59" s="8"/>
     </row>
     <row r="60" spans="9:21">
-      <c r="I60" s="66"/>
+      <c r="I60" s="70"/>
       <c r="J60" s="18" t="s">
         <v>31</v>
       </c>
@@ -81225,7 +81283,7 @@
       <c r="U60" s="8"/>
     </row>
     <row r="61" spans="9:21">
-      <c r="I61" s="66"/>
+      <c r="I61" s="70"/>
       <c r="J61" s="18" t="s">
         <v>16</v>
       </c>
@@ -81260,7 +81318,7 @@
       <c r="U61" s="8"/>
     </row>
     <row r="62" spans="9:21">
-      <c r="I62" s="66"/>
+      <c r="I62" s="70"/>
       <c r="J62" s="18" t="s">
         <v>17</v>
       </c>
@@ -81295,7 +81353,7 @@
       <c r="U62" s="8"/>
     </row>
     <row r="63" spans="9:21">
-      <c r="I63" s="66"/>
+      <c r="I63" s="70"/>
       <c r="J63" s="18" t="s">
         <v>18</v>
       </c>
@@ -81330,7 +81388,7 @@
       <c r="U63" s="8"/>
     </row>
     <row r="64" spans="9:21">
-      <c r="I64" s="66"/>
+      <c r="I64" s="70"/>
       <c r="J64" s="18" t="s">
         <v>32</v>
       </c>
@@ -81365,7 +81423,7 @@
       <c r="U64" s="8"/>
     </row>
     <row r="65" spans="9:21">
-      <c r="I65" s="66"/>
+      <c r="I65" s="70"/>
       <c r="J65" s="18" t="s">
         <v>33</v>
       </c>
@@ -81400,7 +81458,7 @@
       <c r="U65" s="8"/>
     </row>
     <row r="66" spans="9:21">
-      <c r="I66" s="66"/>
+      <c r="I66" s="70"/>
       <c r="J66" s="18" t="s">
         <v>34</v>
       </c>
@@ -81435,7 +81493,7 @@
       <c r="U66" s="8"/>
     </row>
     <row r="67" spans="9:21">
-      <c r="I67" s="66"/>
+      <c r="I67" s="70"/>
       <c r="J67" s="20" t="s">
         <v>35</v>
       </c>
@@ -81472,7 +81530,7 @@
       </c>
     </row>
     <row r="68" spans="9:21">
-      <c r="I68" s="66" t="s">
+      <c r="I68" s="70" t="s">
         <v>36</v>
       </c>
       <c r="J68" s="18" t="s">
@@ -81511,7 +81569,7 @@
       </c>
     </row>
     <row r="69" spans="9:21">
-      <c r="I69" s="66"/>
+      <c r="I69" s="70"/>
       <c r="J69" s="18" t="s">
         <v>30</v>
       </c>
@@ -81548,7 +81606,7 @@
       </c>
     </row>
     <row r="70" spans="9:21">
-      <c r="I70" s="66"/>
+      <c r="I70" s="70"/>
       <c r="J70" s="18" t="s">
         <v>31</v>
       </c>
@@ -81583,7 +81641,7 @@
       <c r="U70" s="8"/>
     </row>
     <row r="71" spans="9:21">
-      <c r="I71" s="66"/>
+      <c r="I71" s="70"/>
       <c r="J71" s="18" t="s">
         <v>16</v>
       </c>
@@ -81618,7 +81676,7 @@
       <c r="U71" s="8"/>
     </row>
     <row r="72" spans="9:21">
-      <c r="I72" s="66"/>
+      <c r="I72" s="70"/>
       <c r="J72" s="18" t="s">
         <v>17</v>
       </c>
@@ -81653,7 +81711,7 @@
       <c r="U72" s="8"/>
     </row>
     <row r="73" spans="9:21">
-      <c r="I73" s="66"/>
+      <c r="I73" s="70"/>
       <c r="J73" s="18" t="s">
         <v>18</v>
       </c>
@@ -81688,7 +81746,7 @@
       <c r="U73" s="8"/>
     </row>
     <row r="74" spans="9:21">
-      <c r="I74" s="66"/>
+      <c r="I74" s="70"/>
       <c r="J74" s="18" t="s">
         <v>32</v>
       </c>
@@ -81723,7 +81781,7 @@
       <c r="U74" s="8"/>
     </row>
     <row r="75" spans="9:21">
-      <c r="I75" s="66"/>
+      <c r="I75" s="70"/>
       <c r="J75" s="18" t="s">
         <v>33</v>
       </c>
@@ -81758,7 +81816,7 @@
       <c r="U75" s="8"/>
     </row>
     <row r="76" spans="9:21">
-      <c r="I76" s="66"/>
+      <c r="I76" s="70"/>
       <c r="J76" s="18" t="s">
         <v>34</v>
       </c>
@@ -81793,7 +81851,7 @@
       <c r="U76" s="8"/>
     </row>
     <row r="77" spans="9:21">
-      <c r="I77" s="66"/>
+      <c r="I77" s="70"/>
       <c r="J77" s="20" t="s">
         <v>35</v>
       </c>
@@ -81830,7 +81888,7 @@
       </c>
     </row>
     <row r="78" spans="9:21">
-      <c r="I78" s="66" t="s">
+      <c r="I78" s="70" t="s">
         <v>37</v>
       </c>
       <c r="J78" s="18" t="s">
@@ -81869,7 +81927,7 @@
       </c>
     </row>
     <row r="79" spans="9:21">
-      <c r="I79" s="66"/>
+      <c r="I79" s="70"/>
       <c r="J79" s="18" t="s">
         <v>39</v>
       </c>
@@ -81906,7 +81964,7 @@
       </c>
     </row>
     <row r="80" spans="9:21">
-      <c r="I80" s="67" t="s">
+      <c r="I80" s="71" t="s">
         <v>35</v>
       </c>
       <c r="J80" s="20" t="s">
@@ -81945,7 +82003,7 @@
       </c>
     </row>
     <row r="81" spans="9:21">
-      <c r="I81" s="68"/>
+      <c r="I81" s="72"/>
       <c r="J81" s="18" t="s">
         <v>15</v>
       </c>
@@ -81982,7 +82040,7 @@
       <c r="U81" s="8"/>
     </row>
     <row r="82" spans="9:21">
-      <c r="I82" s="68"/>
+      <c r="I82" s="72"/>
       <c r="J82" s="18" t="s">
         <v>30</v>
       </c>
@@ -82019,7 +82077,7 @@
       <c r="U82" s="8"/>
     </row>
     <row r="83" spans="9:21">
-      <c r="I83" s="68"/>
+      <c r="I83" s="72"/>
       <c r="J83" s="18" t="s">
         <v>31</v>
       </c>
@@ -82056,7 +82114,7 @@
       <c r="U83" s="8"/>
     </row>
     <row r="84" spans="9:21">
-      <c r="I84" s="68"/>
+      <c r="I84" s="72"/>
       <c r="J84" s="18" t="s">
         <v>16</v>
       </c>
@@ -82093,7 +82151,7 @@
       <c r="U84" s="8"/>
     </row>
     <row r="85" spans="9:21">
-      <c r="I85" s="68"/>
+      <c r="I85" s="72"/>
       <c r="J85" s="18" t="s">
         <v>17</v>
       </c>
@@ -82130,7 +82188,7 @@
       <c r="U85" s="8"/>
     </row>
     <row r="86" spans="9:21">
-      <c r="I86" s="68"/>
+      <c r="I86" s="72"/>
       <c r="J86" s="18" t="s">
         <v>18</v>
       </c>
@@ -82167,7 +82225,7 @@
       <c r="U86" s="8"/>
     </row>
     <row r="87" spans="9:21">
-      <c r="I87" s="68"/>
+      <c r="I87" s="72"/>
       <c r="J87" s="18" t="s">
         <v>32</v>
       </c>
@@ -82204,7 +82262,7 @@
       <c r="U87" s="8"/>
     </row>
     <row r="88" spans="9:21">
-      <c r="I88" s="68"/>
+      <c r="I88" s="72"/>
       <c r="J88" s="18" t="s">
         <v>33</v>
       </c>
@@ -82241,7 +82299,7 @@
       <c r="U88" s="8"/>
     </row>
     <row r="89" spans="9:21">
-      <c r="I89" s="68"/>
+      <c r="I89" s="72"/>
       <c r="J89" s="18" t="s">
         <v>41</v>
       </c>
@@ -82278,7 +82336,7 @@
       <c r="U89" s="8"/>
     </row>
     <row r="90" spans="9:21" ht="25">
-      <c r="I90" s="68"/>
+      <c r="I90" s="72"/>
       <c r="J90" s="20" t="s">
         <v>42</v>
       </c>
@@ -82313,7 +82371,7 @@
       <c r="U90" s="8"/>
     </row>
     <row r="91" spans="9:21" ht="25">
-      <c r="I91" s="68"/>
+      <c r="I91" s="72"/>
       <c r="J91" s="20" t="s">
         <v>43</v>
       </c>
@@ -82348,7 +82406,7 @@
       <c r="U91" s="8"/>
     </row>
     <row r="92" spans="9:21" ht="25">
-      <c r="I92" s="68"/>
+      <c r="I92" s="72"/>
       <c r="J92" s="20" t="s">
         <v>44</v>
       </c>
@@ -82383,7 +82441,7 @@
       <c r="U92" s="8"/>
     </row>
     <row r="93" spans="9:21" ht="25">
-      <c r="I93" s="69"/>
+      <c r="I93" s="73"/>
       <c r="J93" s="20" t="s">
         <v>45</v>
       </c>
@@ -82419,11 +82477,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="SE4:VK4"/>
-    <mergeCell ref="VL4:XW4"/>
-    <mergeCell ref="XX4:AAI4"/>
-    <mergeCell ref="AAJ4:ACU4"/>
-    <mergeCell ref="ACV4:AFG4"/>
     <mergeCell ref="I58:I67"/>
     <mergeCell ref="I68:I77"/>
     <mergeCell ref="I78:I79"/>
@@ -82435,12 +82488,943 @@
     <mergeCell ref="II4:KT4"/>
     <mergeCell ref="KU4:NF4"/>
     <mergeCell ref="NG4:PR4"/>
+    <mergeCell ref="SE4:VK4"/>
+    <mergeCell ref="VL4:XW4"/>
+    <mergeCell ref="XX4:AAI4"/>
+    <mergeCell ref="AAJ4:ACU4"/>
+    <mergeCell ref="ACV4:AFG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4209791E-FF7D-4D0E-8EFD-8A6712ABCC84}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1980</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5758330</v>
+      </c>
+      <c r="C6" s="4">
+        <v>3950042</v>
+      </c>
+      <c r="D6" s="4">
+        <v>60388</v>
+      </c>
+      <c r="E6" s="4">
+        <v>1470816</v>
+      </c>
+      <c r="F6" s="4">
+        <v>277084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>1981</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6339836</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4341363</v>
+      </c>
+      <c r="D7" s="4">
+        <v>64973</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1636899</v>
+      </c>
+      <c r="F7" s="4">
+        <v>296601</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1982</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6695164</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4616897</v>
+      </c>
+      <c r="D8" s="4">
+        <v>69233</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1751799</v>
+      </c>
+      <c r="F8" s="4">
+        <v>257235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>1983</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6941252</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4726236</v>
+      </c>
+      <c r="D9" s="4">
+        <v>71326</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1893206</v>
+      </c>
+      <c r="F9" s="4">
+        <v>250484</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1984</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7305066</v>
+      </c>
+      <c r="C10" s="4">
+        <v>4970526</v>
+      </c>
+      <c r="D10" s="4">
+        <v>76517</v>
+      </c>
+      <c r="E10" s="4">
+        <v>2009875</v>
+      </c>
+      <c r="F10" s="4">
+        <v>248148</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>1985</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7725623</v>
+      </c>
+      <c r="C11" s="4">
+        <v>5281842</v>
+      </c>
+      <c r="D11" s="4">
+        <v>79028</v>
+      </c>
+      <c r="E11" s="4">
+        <v>2114395</v>
+      </c>
+      <c r="F11" s="4">
+        <v>250358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1986</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7732012</v>
+      </c>
+      <c r="C12" s="4">
+        <v>5202922</v>
+      </c>
+      <c r="D12" s="4">
+        <v>83373</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2213025</v>
+      </c>
+      <c r="F12" s="4">
+        <v>232692</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>1987</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7933729</v>
+      </c>
+      <c r="C13" s="4">
+        <v>5336228</v>
+      </c>
+      <c r="D13" s="4">
+        <v>84364</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2292078</v>
+      </c>
+      <c r="F13" s="4">
+        <v>221059</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1988</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8324887</v>
+      </c>
+      <c r="C14" s="4">
+        <v>5597735</v>
+      </c>
+      <c r="D14" s="4">
+        <v>85229</v>
+      </c>
+      <c r="E14" s="4">
+        <v>2424025</v>
+      </c>
+      <c r="F14" s="4">
+        <v>217898</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>1989</v>
+      </c>
+      <c r="B15" s="4">
+        <v>9009048</v>
+      </c>
+      <c r="C15" s="4">
+        <v>6003532</v>
+      </c>
+      <c r="D15" s="4">
+        <v>90150</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2691551</v>
+      </c>
+      <c r="F15" s="4">
+        <v>223815</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1990</v>
+      </c>
+      <c r="B16" s="4">
+        <v>9862108</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6555550</v>
+      </c>
+      <c r="D16" s="4">
+        <v>93275</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2964736</v>
+      </c>
+      <c r="F16" s="4">
+        <v>248547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1991</v>
+      </c>
+      <c r="B17" s="4">
+        <v>10602143</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6950708</v>
+      </c>
+      <c r="D17" s="4">
+        <v>96910</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3293414</v>
+      </c>
+      <c r="F17" s="4">
+        <v>261111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1992</v>
+      </c>
+      <c r="B18" s="4">
+        <v>11260184</v>
+      </c>
+      <c r="C18" s="4">
+        <v>7399178</v>
+      </c>
+      <c r="D18" s="4">
+        <v>95179</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3492416</v>
+      </c>
+      <c r="F18" s="4">
+        <v>273411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>1993</v>
+      </c>
+      <c r="B19" s="4">
+        <v>11593078</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7715951</v>
+      </c>
+      <c r="D19" s="4">
+        <v>85941</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3592977</v>
+      </c>
+      <c r="F19" s="4">
+        <v>198209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1994</v>
+      </c>
+      <c r="B20" s="4">
+        <v>11161089</v>
+      </c>
+      <c r="C20" s="4">
+        <v>7217732</v>
+      </c>
+      <c r="D20" s="4">
+        <v>114577</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3613808</v>
+      </c>
+      <c r="F20" s="4">
+        <v>214972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1995</v>
+      </c>
+      <c r="B21" s="4">
+        <v>11317646</v>
+      </c>
+      <c r="C21" s="4">
+        <v>7469504</v>
+      </c>
+      <c r="D21" s="4">
+        <v>120497</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3598685</v>
+      </c>
+      <c r="F21" s="4">
+        <v>128960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1996</v>
+      </c>
+      <c r="B22" s="4">
+        <v>11750028</v>
+      </c>
+      <c r="C22" s="4">
+        <v>7830864</v>
+      </c>
+      <c r="D22" s="4">
+        <v>96933</v>
+      </c>
+      <c r="E22" s="4">
+        <v>3645672</v>
+      </c>
+      <c r="F22" s="4">
+        <v>176559</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>1997</v>
+      </c>
+      <c r="B23" s="4">
+        <v>12585187</v>
+      </c>
+      <c r="C23" s="4">
+        <v>8402995</v>
+      </c>
+      <c r="D23" s="4">
+        <v>125445</v>
+      </c>
+      <c r="E23" s="4">
+        <v>3878581</v>
+      </c>
+      <c r="F23" s="4">
+        <v>178166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1998</v>
+      </c>
+      <c r="B24" s="4">
+        <v>13562820</v>
+      </c>
+      <c r="C24" s="4">
+        <v>9086209</v>
+      </c>
+      <c r="D24" s="4">
+        <v>176443</v>
+      </c>
+      <c r="E24" s="4">
+        <v>4078068</v>
+      </c>
+      <c r="F24" s="4">
+        <v>222100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>1999</v>
+      </c>
+      <c r="B25" s="4">
+        <v>14385864</v>
+      </c>
+      <c r="C25" s="4">
+        <v>9582796</v>
+      </c>
+      <c r="D25" s="4">
+        <v>200357</v>
+      </c>
+      <c r="E25" s="4">
+        <v>4340112</v>
+      </c>
+      <c r="F25" s="4">
+        <v>262599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2000</v>
+      </c>
+      <c r="B26" s="4">
+        <v>15611916</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10176179</v>
+      </c>
+      <c r="D26" s="4">
+        <v>202396</v>
+      </c>
+      <c r="E26" s="4">
+        <v>4939417</v>
+      </c>
+      <c r="F26" s="4">
+        <v>293924</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2001</v>
+      </c>
+      <c r="B27" s="4">
+        <v>17300530</v>
+      </c>
+      <c r="C27" s="4">
+        <v>11351982</v>
+      </c>
+      <c r="D27" s="4">
+        <v>273536</v>
+      </c>
+      <c r="E27" s="4">
+        <v>5394206</v>
+      </c>
+      <c r="F27" s="4">
+        <v>280806</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>2002</v>
+      </c>
+      <c r="B28" s="4">
+        <v>18784594</v>
+      </c>
+      <c r="C28" s="4">
+        <v>12254910</v>
+      </c>
+      <c r="D28" s="4">
+        <v>299365</v>
+      </c>
+      <c r="E28" s="4">
+        <v>5860797</v>
+      </c>
+      <c r="F28" s="4">
+        <v>369522</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29" s="4">
+        <v>19806960</v>
+      </c>
+      <c r="C29" s="4">
+        <v>12742049</v>
+      </c>
+      <c r="D29" s="4">
+        <v>308101</v>
+      </c>
+      <c r="E29" s="4">
+        <v>6317293</v>
+      </c>
+      <c r="F29" s="4">
+        <v>439517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" s="4">
+        <v>20878438</v>
+      </c>
+      <c r="C30" s="4">
+        <v>13388011</v>
+      </c>
+      <c r="D30" s="4">
+        <v>264585</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6707535</v>
+      </c>
+      <c r="F30" s="4">
+        <v>518307</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31" s="4">
+        <v>22138478</v>
+      </c>
+      <c r="C31" s="4">
+        <v>14300380</v>
+      </c>
+      <c r="D31" s="4">
+        <v>268817</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6980738</v>
+      </c>
+      <c r="F31" s="4">
+        <v>588543</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" s="4">
+        <v>24907229</v>
+      </c>
+      <c r="C32" s="4">
+        <v>16411813</v>
+      </c>
+      <c r="D32" s="4">
+        <v>310189</v>
+      </c>
+      <c r="E32" s="4">
+        <v>7462918</v>
+      </c>
+      <c r="F32" s="4">
+        <v>722309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>2007</v>
+      </c>
+      <c r="B33" s="4">
+        <v>26747197</v>
+      </c>
+      <c r="C33" s="4">
+        <v>17696623</v>
+      </c>
+      <c r="D33" s="4">
+        <v>322078</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7849491</v>
+      </c>
+      <c r="F33" s="4">
+        <v>879005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34" s="4">
+        <v>29287903</v>
+      </c>
+      <c r="C34" s="4">
+        <v>19420942</v>
+      </c>
+      <c r="D34" s="4">
+        <v>333287</v>
+      </c>
+      <c r="E34" s="4">
+        <v>8453601</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1080073</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2009</v>
+      </c>
+      <c r="B35" s="4">
+        <v>30890136</v>
+      </c>
+      <c r="C35" s="4">
+        <v>20519224</v>
+      </c>
+      <c r="D35" s="4">
+        <v>337465</v>
+      </c>
+      <c r="E35" s="4">
+        <v>8835194</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1198253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" s="4">
+        <v>31635012</v>
+      </c>
+      <c r="C36" s="4">
+        <v>21152773</v>
+      </c>
+      <c r="D36" s="4">
+        <v>312738</v>
+      </c>
+      <c r="E36" s="4">
+        <v>9015356</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1154145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>2011</v>
+      </c>
+      <c r="B37" s="4">
+        <v>33275469</v>
+      </c>
+      <c r="C37" s="4">
+        <v>22374326</v>
+      </c>
+      <c r="D37" s="4">
+        <v>327565</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9260456</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1313122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" s="4">
+        <v>34875837</v>
+      </c>
+      <c r="C38" s="4">
+        <v>23569623</v>
+      </c>
+      <c r="D38" s="4">
+        <v>338520</v>
+      </c>
+      <c r="E38" s="4">
+        <v>9385466</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1582228</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>2013</v>
+      </c>
+      <c r="B39" s="4">
+        <v>36744838</v>
+      </c>
+      <c r="C39" s="4">
+        <v>24819922</v>
+      </c>
+      <c r="D39" s="4">
+        <v>347144</v>
+      </c>
+      <c r="E39" s="4">
+        <v>9704131</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1873641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" s="4">
+        <v>38027171</v>
+      </c>
+      <c r="C40" s="4">
+        <v>25543908</v>
+      </c>
+      <c r="D40" s="4">
+        <v>347720</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9863980</v>
+      </c>
+      <c r="F40" s="4">
+        <v>2271563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41" s="4">
+        <v>39975998</v>
+      </c>
+      <c r="C41" s="4">
+        <v>26907994</v>
+      </c>
+      <c r="D41" s="4">
+        <v>357452</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10073288</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2637264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>2016</v>
+      </c>
+      <c r="B42" s="4">
+        <v>42454265</v>
+      </c>
+      <c r="C42" s="4">
+        <v>28664295</v>
+      </c>
+      <c r="D42" s="4">
+        <v>367772</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10384621</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3037577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="4">
+        <v>45853522</v>
+      </c>
+      <c r="C43" s="4">
+        <v>30958042</v>
+      </c>
+      <c r="D43" s="4">
+        <v>401120</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10895817</v>
+      </c>
+      <c r="F43" s="4">
+        <v>3598543</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44" s="4">
+        <v>47783926</v>
+      </c>
+      <c r="C44" s="4">
+        <v>32290067</v>
+      </c>
+      <c r="D44" s="4">
+        <v>443579</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10970128</v>
+      </c>
+      <c r="F44" s="4">
+        <v>4080152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45" s="4">
+        <v>49869688</v>
+      </c>
+      <c r="C45" s="4">
+        <v>33603591</v>
+      </c>
+      <c r="D45" s="4">
+        <v>453606</v>
+      </c>
+      <c r="E45" s="4">
+        <v>11022869</v>
+      </c>
+      <c r="F45" s="4">
+        <v>4789622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2020</v>
+      </c>
+      <c r="B46" s="4">
+        <v>51215678</v>
+      </c>
+      <c r="C46" s="4">
+        <v>34425695</v>
+      </c>
+      <c r="D46" s="4">
+        <v>461089</v>
+      </c>
+      <c r="E46" s="4">
+        <v>11044684</v>
+      </c>
+      <c r="F46" s="4">
+        <v>5284210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47" s="4">
+        <v>53102838</v>
+      </c>
+      <c r="C47" s="4">
+        <v>35455026</v>
+      </c>
+      <c r="D47" s="4">
+        <v>452766</v>
+      </c>
+      <c r="E47" s="4">
+        <v>11258873</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5936173</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>2022</v>
+      </c>
+      <c r="B48" s="4">
+        <v>55167421</v>
+      </c>
+      <c r="C48" s="4">
+        <v>36496879</v>
+      </c>
+      <c r="D48" s="4">
+        <v>468586</v>
+      </c>
+      <c r="E48" s="4">
+        <v>11395481</v>
+      </c>
+      <c r="F48" s="4">
+        <v>6806475</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="C50" s="66">
+        <v>3.5732035460079976E-2</v>
+      </c>
+      <c r="D50" s="66">
+        <v>3.43573203546007E-2</v>
+      </c>
+      <c r="E50" s="66">
+        <v>3.6407783918016898E-2</v>
+      </c>
+      <c r="F50" s="66">
+        <v>3.5937448731587412E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>207</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -82453,7 +83437,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -82466,7 +83450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P59"/>
   <sheetViews>
@@ -82481,90 +83465,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="16">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="74" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
       <c r="H1" s="51"/>
-      <c r="I1" s="77" t="s">
+      <c r="I1" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="L1" s="75"/>
+      <c r="M1" s="75"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" ht="16">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
       <c r="H2" s="51"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
       <c r="H3" s="52"/>
-      <c r="I3" s="74" t="s">
+      <c r="I3" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="74"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="74"/>
-      <c r="L4" s="74"/>
-      <c r="M4" s="74"/>
-      <c r="N4" s="74"/>
-      <c r="O4" s="74"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
     </row>
     <row r="5" spans="1:15" ht="45">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="77" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="77" t="s">
         <v>128</v>
       </c>
       <c r="E5" s="54" t="s">
@@ -82576,23 +83560,23 @@
       <c r="G5" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="I5" s="76" t="s">
+      <c r="I5" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76" t="s">
+      <c r="J5" s="77"/>
+      <c r="K5" s="77" t="s">
         <v>132</v>
       </c>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
     </row>
     <row r="6" spans="1:15" ht="32">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="54" t="s">
         <v>133</v>
       </c>
@@ -82602,12 +83586,12 @@
       <c r="G6" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="L6" s="76" t="s">
+      <c r="L6" s="77" t="s">
         <v>137</v>
       </c>
       <c r="M6" s="54" t="s">
@@ -82645,10 +83629,10 @@
         <f>SUM(G8:G19)*1000</f>
         <v>1169544759</v>
       </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
       <c r="M7" s="54" t="s">
         <v>139</v>
       </c>
@@ -82660,10 +83644,10 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B8" s="74"/>
+      <c r="B8" s="76"/>
       <c r="C8" s="55">
         <v>226</v>
       </c>
@@ -82705,10 +83689,10 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="74" t="s">
+      <c r="A9" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="74"/>
+      <c r="B9" s="76"/>
       <c r="C9" s="55">
         <v>226</v>
       </c>
@@ -82724,10 +83708,10 @@
       <c r="G9" s="55">
         <v>92449.615000000005</v>
       </c>
-      <c r="I9" s="74" t="s">
+      <c r="I9" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="J9" s="74"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="55">
         <v>25</v>
       </c>
@@ -82745,10 +83729,10 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="74" t="s">
+      <c r="A10" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="74"/>
+      <c r="B10" s="76"/>
       <c r="C10" s="55">
         <v>226</v>
       </c>
@@ -82764,10 +83748,10 @@
       <c r="G10" s="55">
         <v>97345.934999999998</v>
       </c>
-      <c r="I10" s="74" t="s">
+      <c r="I10" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="J10" s="74"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="55">
         <v>25</v>
       </c>
@@ -82785,10 +83769,10 @@
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="76"/>
       <c r="C11" s="55">
         <v>226</v>
       </c>
@@ -82804,10 +83788,10 @@
       <c r="G11" s="55">
         <v>96357.847999999998</v>
       </c>
-      <c r="I11" s="74" t="s">
+      <c r="I11" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="J11" s="74"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="55">
         <v>25</v>
       </c>
@@ -82825,10 +83809,10 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="B12" s="74"/>
+      <c r="B12" s="76"/>
       <c r="C12" s="55">
         <v>226</v>
       </c>
@@ -82844,10 +83828,10 @@
       <c r="G12" s="55">
         <v>99297.52</v>
       </c>
-      <c r="I12" s="74" t="s">
+      <c r="I12" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="74"/>
+      <c r="J12" s="76"/>
       <c r="K12" s="55">
         <v>25</v>
       </c>
@@ -82865,10 +83849,10 @@
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="74" t="s">
+      <c r="A13" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="74"/>
+      <c r="B13" s="76"/>
       <c r="C13" s="55">
         <v>226</v>
       </c>
@@ -82884,10 +83868,10 @@
       <c r="G13" s="55">
         <v>96849.358999999997</v>
       </c>
-      <c r="I13" s="74" t="s">
+      <c r="I13" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="J13" s="74"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="55">
         <v>25</v>
       </c>
@@ -82905,10 +83889,10 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="74"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="55">
         <v>226</v>
       </c>
@@ -82924,10 +83908,10 @@
       <c r="G14" s="55">
         <v>98806.009000000005</v>
       </c>
-      <c r="I14" s="74" t="s">
+      <c r="I14" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="74"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="55">
         <v>25</v>
       </c>
@@ -82945,10 +83929,10 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="74" t="s">
+      <c r="A15" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B15" s="74"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="55">
         <v>226</v>
       </c>
@@ -82964,10 +83948,10 @@
       <c r="G15" s="55">
         <v>100273.31200000001</v>
       </c>
-      <c r="I15" s="74" t="s">
+      <c r="I15" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="J15" s="74"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="55">
         <v>25</v>
       </c>
@@ -82985,10 +83969,10 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="B16" s="74"/>
+      <c r="B16" s="76"/>
       <c r="C16" s="55">
         <v>226</v>
       </c>
@@ -83004,10 +83988,10 @@
       <c r="G16" s="55">
         <v>95873.567999999999</v>
       </c>
-      <c r="I16" s="74" t="s">
+      <c r="I16" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="J16" s="74"/>
+      <c r="J16" s="76"/>
       <c r="K16" s="55">
         <v>25</v>
       </c>
@@ -83025,10 +84009,10 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="74" t="s">
+      <c r="A17" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="74"/>
+      <c r="B17" s="76"/>
       <c r="C17" s="55">
         <v>226</v>
       </c>
@@ -83044,10 +84028,10 @@
       <c r="G17" s="55">
         <v>98806.008000000002</v>
       </c>
-      <c r="I17" s="74" t="s">
+      <c r="I17" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="J17" s="74"/>
+      <c r="J17" s="76"/>
       <c r="K17" s="55">
         <v>25</v>
       </c>
@@ -83065,10 +84049,10 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="74" t="s">
+      <c r="A18" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="74"/>
+      <c r="B18" s="76"/>
       <c r="C18" s="55">
         <v>226</v>
       </c>
@@ -83084,10 +84068,10 @@
       <c r="G18" s="55">
         <v>95873.567999999999</v>
       </c>
-      <c r="I18" s="74" t="s">
+      <c r="I18" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="J18" s="74"/>
+      <c r="J18" s="76"/>
       <c r="K18" s="55">
         <v>25</v>
       </c>
@@ -83105,10 +84089,10 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="74"/>
+      <c r="B19" s="76"/>
       <c r="C19" s="55">
         <v>226</v>
       </c>
@@ -83124,10 +84108,10 @@
       <c r="G19" s="55">
         <v>99781.801000000007</v>
       </c>
-      <c r="I19" s="74" t="s">
+      <c r="I19" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="74"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="55">
         <v>25</v>
       </c>
@@ -83148,18 +84132,18 @@
       <c r="A20" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="I20" s="74" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="I20" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="74"/>
+      <c r="J20" s="76"/>
       <c r="K20" s="55">
         <v>25</v>
       </c>
@@ -83180,217 +84164,217 @@
       <c r="A21" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
       <c r="I21" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="75" t="s">
+      <c r="J21" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="78"/>
+      <c r="M21" s="78"/>
+      <c r="N21" s="78"/>
+      <c r="O21" s="78"/>
     </row>
     <row r="22" spans="1:16" ht="17">
       <c r="A22" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
       <c r="I22" s="79"/>
-      <c r="J22" s="75" t="s">
+      <c r="J22" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
     </row>
     <row r="23" spans="1:16" ht="17">
       <c r="A23" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
       <c r="I23" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="75" t="s">
+      <c r="J23" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="75"/>
-      <c r="O23" s="75"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="78"/>
+      <c r="M23" s="78"/>
+      <c r="N23" s="78"/>
+      <c r="O23" s="78"/>
     </row>
     <row r="24" spans="1:16" ht="17">
       <c r="A24" s="57" t="s">
         <v>164</v>
       </c>
-      <c r="B24" s="75" t="s">
+      <c r="B24" s="78" t="s">
         <v>165</v>
       </c>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
       <c r="I24" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="J24" s="75" t="s">
+      <c r="J24" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="K24" s="75"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="75"/>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
     </row>
     <row r="25" spans="1:16" ht="17">
       <c r="A25" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="78"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="80"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="I26" s="73" t="s">
+      <c r="B26" s="81"/>
+      <c r="I26" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="73"/>
+      <c r="J26" s="81"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="75" t="s">
         <v>170</v>
       </c>
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="I28" s="77" t="s">
+      <c r="B28" s="75"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="I28" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="77"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="75"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
-      <c r="M29" s="77"/>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77"/>
-      <c r="P29" s="77"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="75"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="78" t="s">
+      <c r="A30" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
-      <c r="E30" s="78"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="78"/>
-      <c r="I30" s="78" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="I30" s="82" t="s">
         <v>173</v>
       </c>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="78"/>
+      <c r="J30" s="82"/>
+      <c r="K30" s="82"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="72"/>
-      <c r="B31" s="72"/>
-      <c r="C31" s="72"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="I31" s="72"/>
-      <c r="J31" s="72"/>
-      <c r="K31" s="72"/>
-      <c r="L31" s="72"/>
-      <c r="M31" s="72"/>
-      <c r="N31" s="72"/>
-      <c r="O31" s="72"/>
-      <c r="P31" s="72"/>
+      <c r="A31" s="80"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="I31" s="80"/>
+      <c r="J31" s="80"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="80"/>
     </row>
     <row r="32" spans="1:16" ht="45">
-      <c r="A32" s="76" t="s">
+      <c r="A32" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76" t="s">
+      <c r="B32" s="77"/>
+      <c r="C32" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="I32" s="76" t="s">
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="I32" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="J32" s="76"/>
+      <c r="J32" s="77"/>
       <c r="K32" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="L32" s="76" t="s">
+      <c r="L32" s="77" t="s">
         <v>176</v>
       </c>
       <c r="M32" s="54" t="s">
@@ -83407,12 +84391,12 @@
       </c>
     </row>
     <row r="33" spans="1:16" ht="32">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77" t="s">
         <v>136</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="77" t="s">
         <v>137</v>
       </c>
       <c r="E33" s="54" t="s">
@@ -83424,12 +84408,12 @@
       <c r="G33" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
       <c r="K33" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="L33" s="76"/>
+      <c r="L33" s="77"/>
       <c r="M33" s="54" t="s">
         <v>179</v>
       </c>
@@ -83444,10 +84428,10 @@
       </c>
     </row>
     <row r="34" spans="1:16" ht="30">
-      <c r="A34" s="76"/>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
       <c r="E34" s="54" t="s">
         <v>179</v>
       </c>
@@ -83511,10 +84495,10 @@
         <f>SUM(G36:G47)*1000</f>
         <v>475509660.99999994</v>
       </c>
-      <c r="I35" s="74" t="s">
+      <c r="I35" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="J35" s="74"/>
+      <c r="J35" s="76"/>
       <c r="K35" s="55">
         <v>32</v>
       </c>
@@ -83535,10 +84519,10 @@
       </c>
     </row>
     <row r="36" spans="1:16">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="76" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="74"/>
+      <c r="B36" s="76"/>
       <c r="C36" s="55">
         <v>48</v>
       </c>
@@ -83554,10 +84538,10 @@
       <c r="G36" s="55">
         <v>36978.737000000001</v>
       </c>
-      <c r="I36" s="74" t="s">
+      <c r="I36" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="J36" s="74"/>
+      <c r="J36" s="76"/>
       <c r="K36" s="55">
         <v>32</v>
       </c>
@@ -83578,10 +84562,10 @@
       </c>
     </row>
     <row r="37" spans="1:16">
-      <c r="A37" s="74" t="s">
+      <c r="A37" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="B37" s="74"/>
+      <c r="B37" s="76"/>
       <c r="C37" s="55">
         <v>48</v>
       </c>
@@ -83597,10 +84581,10 @@
       <c r="G37" s="55">
         <v>37239.540999999997</v>
       </c>
-      <c r="I37" s="74" t="s">
+      <c r="I37" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="J37" s="74"/>
+      <c r="J37" s="76"/>
       <c r="K37" s="55">
         <v>32</v>
       </c>
@@ -83621,10 +84605,10 @@
       </c>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="74" t="s">
+      <c r="A38" s="76" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="74"/>
+      <c r="B38" s="76"/>
       <c r="C38" s="55">
         <v>48</v>
       </c>
@@ -83640,10 +84624,10 @@
       <c r="G38" s="55">
         <v>36746.699999999997</v>
       </c>
-      <c r="I38" s="74" t="s">
+      <c r="I38" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="J38" s="74"/>
+      <c r="J38" s="76"/>
       <c r="K38" s="55">
         <v>32</v>
       </c>
@@ -83664,10 +84648,10 @@
       </c>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="74" t="s">
+      <c r="A39" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="74"/>
+      <c r="B39" s="76"/>
       <c r="C39" s="55">
         <v>48</v>
       </c>
@@ -83683,10 +84667,10 @@
       <c r="G39" s="55">
         <v>38619.072</v>
       </c>
-      <c r="I39" s="74" t="s">
+      <c r="I39" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="74"/>
+      <c r="J39" s="76"/>
       <c r="K39" s="55">
         <v>32</v>
       </c>
@@ -83707,10 +84691,10 @@
       </c>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="76" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="74"/>
+      <c r="B40" s="76"/>
       <c r="C40" s="55">
         <v>48</v>
       </c>
@@ -83726,10 +84710,10 @@
       <c r="G40" s="55">
         <v>39357.822999999997</v>
       </c>
-      <c r="I40" s="74" t="s">
+      <c r="I40" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="J40" s="74"/>
+      <c r="J40" s="76"/>
       <c r="K40" s="55">
         <v>32</v>
       </c>
@@ -83750,10 +84734,10 @@
       </c>
     </row>
     <row r="41" spans="1:16">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="76" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="74"/>
+      <c r="B41" s="76"/>
       <c r="C41" s="55">
         <v>48</v>
       </c>
@@ -83769,10 +84753,10 @@
       <c r="G41" s="55">
         <v>37431.334000000003</v>
       </c>
-      <c r="I41" s="74" t="s">
+      <c r="I41" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="J41" s="74"/>
+      <c r="J41" s="76"/>
       <c r="K41" s="55">
         <v>32</v>
       </c>
@@ -83793,10 +84777,10 @@
       </c>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="B42" s="74"/>
+      <c r="B42" s="76"/>
       <c r="C42" s="55">
         <v>48</v>
       </c>
@@ -83812,10 +84796,10 @@
       <c r="G42" s="55">
         <v>37326.470999999998</v>
       </c>
-      <c r="I42" s="74" t="s">
+      <c r="I42" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="J42" s="74"/>
+      <c r="J42" s="76"/>
       <c r="K42" s="55">
         <v>32</v>
       </c>
@@ -83836,10 +84820,10 @@
       </c>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="74" t="s">
+      <c r="A43" s="76" t="s">
         <v>149</v>
       </c>
-      <c r="B43" s="74"/>
+      <c r="B43" s="76"/>
       <c r="C43" s="55">
         <v>48</v>
       </c>
@@ -83855,10 +84839,10 @@
       <c r="G43" s="55">
         <v>40265.175999999999</v>
       </c>
-      <c r="I43" s="74" t="s">
+      <c r="I43" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="J43" s="74"/>
+      <c r="J43" s="76"/>
       <c r="K43" s="55">
         <v>32</v>
       </c>
@@ -83879,10 +84863,10 @@
       </c>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="76" t="s">
         <v>150</v>
       </c>
-      <c r="B44" s="74"/>
+      <c r="B44" s="76"/>
       <c r="C44" s="55">
         <v>48</v>
       </c>
@@ -83898,10 +84882,10 @@
       <c r="G44" s="55">
         <v>39636.254000000001</v>
       </c>
-      <c r="I44" s="74" t="s">
+      <c r="I44" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="J44" s="74"/>
+      <c r="J44" s="76"/>
       <c r="K44" s="55">
         <v>32</v>
       </c>
@@ -83922,10 +84906,10 @@
       </c>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="74" t="s">
+      <c r="A45" s="76" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="74"/>
+      <c r="B45" s="76"/>
       <c r="C45" s="55">
         <v>48</v>
       </c>
@@ -83941,10 +84925,10 @@
       <c r="G45" s="55">
         <v>42836.974999999999</v>
       </c>
-      <c r="I45" s="74" t="s">
+      <c r="I45" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="J45" s="74"/>
+      <c r="J45" s="76"/>
       <c r="K45" s="55">
         <v>32</v>
       </c>
@@ -83965,10 +84949,10 @@
       </c>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="76" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="74"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="55">
         <v>48</v>
       </c>
@@ -83984,10 +84968,10 @@
       <c r="G46" s="55">
         <v>44749.88</v>
       </c>
-      <c r="I46" s="74" t="s">
+      <c r="I46" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="J46" s="74"/>
+      <c r="J46" s="76"/>
       <c r="K46" s="55">
         <v>32</v>
       </c>
@@ -84008,10 +84992,10 @@
       </c>
     </row>
     <row r="47" spans="1:16" ht="17">
-      <c r="A47" s="74" t="s">
+      <c r="A47" s="76" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="74"/>
+      <c r="B47" s="76"/>
       <c r="C47" s="55">
         <v>48</v>
       </c>
@@ -84030,69 +85014,69 @@
       <c r="I47" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="J47" s="75" t="s">
+      <c r="J47" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="K47" s="75"/>
-      <c r="L47" s="75"/>
-      <c r="M47" s="75"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="75"/>
-      <c r="P47" s="75"/>
+      <c r="K47" s="78"/>
+      <c r="L47" s="78"/>
+      <c r="M47" s="78"/>
+      <c r="N47" s="78"/>
+      <c r="O47" s="78"/>
+      <c r="P47" s="78"/>
     </row>
     <row r="48" spans="1:16" ht="17">
       <c r="A48" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C48" s="75"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="75"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="75"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="78"/>
+      <c r="F48" s="78"/>
+      <c r="G48" s="78"/>
       <c r="I48" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="J48" s="75" t="s">
+      <c r="J48" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="K48" s="75"/>
-      <c r="L48" s="75"/>
-      <c r="M48" s="75"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="75"/>
-      <c r="P48" s="75"/>
+      <c r="K48" s="78"/>
+      <c r="L48" s="78"/>
+      <c r="M48" s="78"/>
+      <c r="N48" s="78"/>
+      <c r="O48" s="78"/>
+      <c r="P48" s="78"/>
     </row>
     <row r="49" spans="1:10" ht="17">
       <c r="A49" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="B49" s="75" t="s">
+      <c r="B49" s="78" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="75"/>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="75"/>
-      <c r="I49" s="72"/>
-      <c r="J49" s="72"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
+      <c r="G49" s="78"/>
+      <c r="I49" s="80"/>
+      <c r="J49" s="80"/>
     </row>
     <row r="50" spans="1:10" ht="37.5" customHeight="1">
-      <c r="A50" s="72"/>
-      <c r="B50" s="72"/>
-      <c r="I50" s="73" t="s">
+      <c r="A50" s="80"/>
+      <c r="B50" s="80"/>
+      <c r="I50" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="J50" s="73"/>
+      <c r="J50" s="81"/>
     </row>
     <row r="51" spans="1:10" ht="33" customHeight="1">
-      <c r="A51" s="73" t="s">
+      <c r="A51" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="B51" s="73"/>
+      <c r="B51" s="81"/>
     </row>
     <row r="54" spans="1:10" ht="33.75" customHeight="1">
       <c r="C54" s="58" t="s">
@@ -84149,6 +85133,88 @@
     </row>
   </sheetData>
   <mergeCells count="93">
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="J47:P47"/>
+    <mergeCell ref="B48:G48"/>
+    <mergeCell ref="J48:P48"/>
+    <mergeCell ref="B49:G49"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="I31:P31"/>
+    <mergeCell ref="A32:B34"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="I32:J33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A28:G29"/>
+    <mergeCell ref="I28:P29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="I30:P30"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="J23:O23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="J24:O24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:O21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="J22:O22"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="I10:J10"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="I1:O2"/>
     <mergeCell ref="A3:G4"/>
@@ -84160,94 +85226,12 @@
     <mergeCell ref="K5:O5"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:O21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="J22:O22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="J23:O23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="J24:O24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="A28:G29"/>
-    <mergeCell ref="I28:P29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="I30:P30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="I31:P31"/>
-    <mergeCell ref="A32:B34"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="I32:J33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="J47:P47"/>
-    <mergeCell ref="B48:G48"/>
-    <mergeCell ref="J48:P48"/>
-    <mergeCell ref="B49:G49"/>
-    <mergeCell ref="I49:J49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:C10"/>
   <sheetViews>
@@ -84310,8 +85294,234 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="8" width="23.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="16">
+      <c r="A1" s="65" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="83">
+        <f>F2*0.02*(1+RMV!$C$50)</f>
+        <v>838.94294872266494</v>
+      </c>
+      <c r="C2" s="83">
+        <v>0</v>
+      </c>
+      <c r="D2" s="83">
+        <f>'Mexico-Christopher'!C41*(1+RMV!$C$50)</f>
+        <v>19833123.2265747</v>
+      </c>
+      <c r="E2" s="83">
+        <f>'Mexico-Christopher'!E41*(1+RMV!$C$50)</f>
+        <v>173655.97119140122</v>
+      </c>
+      <c r="F2" s="83">
+        <f>('Mexico-Christopher'!C34+'Mexico-Christopher'!E34)*(1+RMV!$C$50)</f>
+        <v>40500.000000000007</v>
+      </c>
+      <c r="G2" s="83">
+        <f>'Mexico-Christopher'!E8*0.1*(1+RMV!$C$50)</f>
+        <v>6651.9169757627624</v>
+      </c>
+      <c r="H2" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="83">
+        <v>0</v>
+      </c>
+      <c r="C3" s="83">
+        <v>0</v>
+      </c>
+      <c r="D3" s="83">
+        <f>'Mexico-Christopher'!C42*(1+RMV!$D$50)</f>
+        <v>37061.086758016514</v>
+      </c>
+      <c r="E3" s="83">
+        <f>'Mexico-Christopher'!E42*(1+RMV!$D$50)</f>
+        <v>108122.51336553619</v>
+      </c>
+      <c r="F3" s="83">
+        <v>0</v>
+      </c>
+      <c r="G3" s="83">
+        <v>0</v>
+      </c>
+      <c r="H3" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="83">
+        <v>0</v>
+      </c>
+      <c r="C4" s="83">
+        <v>0</v>
+      </c>
+      <c r="D4" s="83">
+        <v>0</v>
+      </c>
+      <c r="E4" s="83">
+        <v>317</v>
+      </c>
+      <c r="F4" s="83">
+        <v>0</v>
+      </c>
+      <c r="G4" s="83">
+        <v>0</v>
+      </c>
+      <c r="H4" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="83">
+        <f>'Rail Pssgr'!D55+'Rail Pssgr'!D56+'Rail Pssgr'!D57+'Rail Pssgr'!D58</f>
+        <v>384</v>
+      </c>
+      <c r="C5" s="83">
+        <v>0</v>
+      </c>
+      <c r="D5" s="83">
+        <v>0</v>
+      </c>
+      <c r="E5" s="83">
+        <v>0</v>
+      </c>
+      <c r="F5" s="83">
+        <v>0</v>
+      </c>
+      <c r="G5" s="83">
+        <v>0</v>
+      </c>
+      <c r="H5" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="83">
+        <v>0</v>
+      </c>
+      <c r="C6" s="83">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83">
+        <v>0</v>
+      </c>
+      <c r="E6" s="83">
+        <v>0</v>
+      </c>
+      <c r="F6" s="83">
+        <v>0</v>
+      </c>
+      <c r="G6" s="83">
+        <v>0</v>
+      </c>
+      <c r="H6" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="83">
+        <v>0</v>
+      </c>
+      <c r="C7" s="83">
+        <v>0</v>
+      </c>
+      <c r="D7" s="83">
+        <f>'Mexico-Christopher'!C43*(1+RMV!$F$50)</f>
+        <v>2310000</v>
+      </c>
+      <c r="E7" s="83">
+        <v>0</v>
+      </c>
+      <c r="F7" s="83">
+        <v>0</v>
+      </c>
+      <c r="G7" s="83">
+        <v>0</v>
+      </c>
+      <c r="H7" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -84324,11 +85534,11 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="24.5" customWidth="1"/>
     <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
     <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
+    <col min="6" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16">
@@ -84361,25 +85571,27 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="84">
-        <v>1357</v>
-      </c>
-      <c r="C2" s="84">
-        <v>0</v>
-      </c>
-      <c r="D2" s="84">
-        <v>33232250</v>
-      </c>
-      <c r="E2" s="84">
-        <v>290977</v>
-      </c>
-      <c r="F2" s="84">
-        <v>67862</v>
-      </c>
-      <c r="G2" s="84">
-        <v>11145</v>
-      </c>
-      <c r="H2" s="84">
+      <c r="B2" s="83">
+        <v>0</v>
+      </c>
+      <c r="C2" s="83">
+        <v>0</v>
+      </c>
+      <c r="D2" s="83">
+        <f>'Mexico-Christopher'!C44*(1+RMV!$E$50)</f>
+        <v>8932759.6839378644</v>
+      </c>
+      <c r="E2" s="83">
+        <f>'Mexico-Christopher'!E44*(1+RMV!$E$50)</f>
+        <v>108829.91265358405</v>
+      </c>
+      <c r="F2" s="83">
+        <v>0</v>
+      </c>
+      <c r="G2" s="83">
+        <v>0</v>
+      </c>
+      <c r="H2" s="83">
         <v>0</v>
       </c>
     </row>
@@ -84387,25 +85599,27 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="84">
-        <v>0</v>
-      </c>
-      <c r="C3" s="84">
-        <v>0</v>
-      </c>
-      <c r="D3" s="84">
-        <v>115792</v>
-      </c>
-      <c r="E3" s="84">
-        <v>337814</v>
-      </c>
-      <c r="F3" s="84">
-        <v>0</v>
-      </c>
-      <c r="G3" s="84">
-        <v>0</v>
-      </c>
-      <c r="H3" s="84">
+      <c r="B3" s="83">
+        <v>0</v>
+      </c>
+      <c r="C3" s="83">
+        <v>0</v>
+      </c>
+      <c r="D3" s="83">
+        <f>'Mexico-Christopher'!C45*(1+RMV!$E$50)</f>
+        <v>18724.34695796638</v>
+      </c>
+      <c r="E3" s="83">
+        <f>'Mexico-Christopher'!E45*(1+RMV!$E$50)</f>
+        <v>679953.5960053649</v>
+      </c>
+      <c r="F3" s="83">
+        <v>0</v>
+      </c>
+      <c r="G3" s="83">
+        <v>0</v>
+      </c>
+      <c r="H3" s="83">
         <v>0</v>
       </c>
     </row>
@@ -84413,25 +85627,25 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="84">
-        <v>0</v>
-      </c>
-      <c r="C4" s="84">
-        <v>0</v>
-      </c>
-      <c r="D4" s="84">
-        <v>0</v>
-      </c>
-      <c r="E4" s="84">
-        <v>317</v>
-      </c>
-      <c r="F4" s="84">
-        <v>0</v>
-      </c>
-      <c r="G4" s="84">
-        <v>0</v>
-      </c>
-      <c r="H4" s="84">
+      <c r="B4" s="83">
+        <v>0</v>
+      </c>
+      <c r="C4" s="83">
+        <v>0</v>
+      </c>
+      <c r="D4" s="83">
+        <v>0</v>
+      </c>
+      <c r="E4" s="83">
+        <v>0</v>
+      </c>
+      <c r="F4" s="83">
+        <v>0</v>
+      </c>
+      <c r="G4" s="83">
+        <v>0</v>
+      </c>
+      <c r="H4" s="83">
         <v>0</v>
       </c>
     </row>
@@ -84439,25 +85653,25 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="84">
-        <v>384</v>
-      </c>
-      <c r="C5" s="84">
-        <v>0</v>
-      </c>
-      <c r="D5" s="84">
-        <v>0</v>
-      </c>
-      <c r="E5" s="84">
-        <v>0</v>
-      </c>
-      <c r="F5" s="84">
-        <v>0</v>
-      </c>
-      <c r="G5" s="84">
-        <v>0</v>
-      </c>
-      <c r="H5" s="84">
+      <c r="B5" s="83">
+        <v>0</v>
+      </c>
+      <c r="C5" s="83">
+        <v>0</v>
+      </c>
+      <c r="D5" s="83">
+        <v>0</v>
+      </c>
+      <c r="E5" s="83">
+        <v>1280</v>
+      </c>
+      <c r="F5" s="83">
+        <v>0</v>
+      </c>
+      <c r="G5" s="83">
+        <v>0</v>
+      </c>
+      <c r="H5" s="83">
         <v>0</v>
       </c>
     </row>
@@ -84465,25 +85679,26 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84">
-        <v>0</v>
-      </c>
-      <c r="C6" s="84">
-        <v>0</v>
-      </c>
-      <c r="D6" s="84">
-        <v>0</v>
-      </c>
-      <c r="E6" s="84">
-        <v>0</v>
-      </c>
-      <c r="F6" s="84">
-        <v>0</v>
-      </c>
-      <c r="G6" s="84">
-        <v>0</v>
-      </c>
-      <c r="H6" s="84">
+      <c r="B6" s="83">
+        <v>0</v>
+      </c>
+      <c r="C6" s="83">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83">
+        <v>0</v>
+      </c>
+      <c r="E6" s="83">
+        <f>Ships!C10</f>
+        <v>382.92</v>
+      </c>
+      <c r="F6" s="83">
+        <v>0</v>
+      </c>
+      <c r="G6" s="83">
+        <v>0</v>
+      </c>
+      <c r="H6" s="83">
         <v>0</v>
       </c>
     </row>
@@ -84491,325 +85706,27 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="84">
-        <v>0</v>
-      </c>
-      <c r="C7" s="84">
-        <v>0</v>
-      </c>
-      <c r="D7" s="84">
-        <v>4789622</v>
-      </c>
-      <c r="E7" s="84">
-        <v>0</v>
-      </c>
-      <c r="F7" s="84">
-        <v>0</v>
-      </c>
-      <c r="G7" s="84">
-        <v>0</v>
-      </c>
-      <c r="H7" s="84">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.1640625" customWidth="1"/>
-    <col min="6" max="8" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="16">
-      <c r="A1" s="65" t="s">
-        <v>192</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="85">
-        <v>0</v>
-      </c>
-      <c r="C2" s="85">
-        <v>0</v>
-      </c>
-      <c r="D2" s="85">
-        <v>10109027</v>
-      </c>
-      <c r="E2" s="85">
-        <v>123161</v>
-      </c>
-      <c r="F2" s="85">
-        <v>0</v>
-      </c>
-      <c r="G2" s="85">
-        <v>0</v>
-      </c>
-      <c r="H2" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="85">
-        <v>0</v>
-      </c>
-      <c r="C3" s="85">
-        <v>0</v>
-      </c>
-      <c r="D3" s="85">
-        <v>21190</v>
-      </c>
-      <c r="E3" s="85">
-        <v>769490</v>
-      </c>
-      <c r="F3" s="85">
-        <v>0</v>
-      </c>
-      <c r="G3" s="85">
-        <v>0</v>
-      </c>
-      <c r="H3" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="85">
-        <v>0</v>
-      </c>
-      <c r="C4" s="85">
-        <v>0</v>
-      </c>
-      <c r="D4" s="85">
-        <v>0</v>
-      </c>
-      <c r="E4" s="85">
-        <v>0</v>
-      </c>
-      <c r="F4" s="85">
-        <v>0</v>
-      </c>
-      <c r="G4" s="85">
-        <v>0</v>
-      </c>
-      <c r="H4" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="85">
-        <v>0</v>
-      </c>
-      <c r="C5" s="85">
-        <v>0</v>
-      </c>
-      <c r="D5" s="85">
-        <v>0</v>
-      </c>
-      <c r="E5" s="85">
-        <v>1280</v>
-      </c>
-      <c r="F5" s="85">
-        <v>0</v>
-      </c>
-      <c r="G5" s="85">
-        <v>0</v>
-      </c>
-      <c r="H5" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="85">
-        <v>0</v>
-      </c>
-      <c r="C6" s="85">
-        <v>0</v>
-      </c>
-      <c r="D6" s="85">
-        <v>0</v>
-      </c>
-      <c r="E6" s="85">
-        <v>383</v>
-      </c>
-      <c r="F6" s="85">
-        <v>0</v>
-      </c>
-      <c r="G6" s="85">
-        <v>0</v>
-      </c>
-      <c r="H6" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="85">
-        <v>0</v>
-      </c>
-      <c r="C7" s="85">
-        <v>0</v>
-      </c>
-      <c r="D7" s="85">
-        <v>0</v>
-      </c>
-      <c r="E7" s="85">
-        <v>0</v>
-      </c>
-      <c r="F7" s="85">
-        <v>0</v>
-      </c>
-      <c r="G7" s="85">
-        <v>0</v>
-      </c>
-      <c r="H7" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16">
-      <c r="A10" s="81"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="82"/>
-    </row>
-    <row r="11" spans="1:8" ht="16">
-      <c r="A11" s="81"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="82"/>
-      <c r="H12" s="82"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="82"/>
-      <c r="H13" s="82"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="82"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
+      <c r="B7" s="83">
+        <v>0</v>
+      </c>
+      <c r="C7" s="83">
+        <v>0</v>
+      </c>
+      <c r="D7" s="83">
+        <v>0</v>
+      </c>
+      <c r="E7" s="83">
+        <v>0</v>
+      </c>
+      <c r="F7" s="83">
+        <v>0</v>
+      </c>
+      <c r="G7" s="83">
+        <v>0</v>
+      </c>
+      <c r="H7" s="83">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
